--- a/experiment/jsp/my_tardy_result70.xlsx
+++ b/experiment/jsp/my_tardy_result70.xlsx
@@ -488,7 +488,7 @@
         <v>2959</v>
       </c>
       <c r="L2">
-        <v>5099</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -526,7 +526,7 @@
         <v>4206</v>
       </c>
       <c r="L3">
-        <v>4403</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -564,7 +564,7 @@
         <v>3256</v>
       </c>
       <c r="L4">
-        <v>4345</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -602,7 +602,7 @@
         <v>1854</v>
       </c>
       <c r="L5">
-        <v>3571</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -637,10 +637,10 @@
         <v>966</v>
       </c>
       <c r="K6">
-        <v>3334</v>
+        <v>3110</v>
       </c>
       <c r="L6">
-        <v>4887</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -678,7 +678,7 @@
         <v>2701</v>
       </c>
       <c r="L7">
-        <v>3898</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -716,7 +716,7 @@
         <v>4171</v>
       </c>
       <c r="L8">
-        <v>4739</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -751,10 +751,10 @@
         <v>172</v>
       </c>
       <c r="K9">
-        <v>1898</v>
+        <v>1745</v>
       </c>
       <c r="L9">
-        <v>3864</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -792,7 +792,7 @@
         <v>1994</v>
       </c>
       <c r="L10">
-        <v>3603</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -830,7 +830,7 @@
         <v>2651</v>
       </c>
       <c r="L11">
-        <v>3606</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -868,7 +868,7 @@
         <v>2024</v>
       </c>
       <c r="L12">
-        <v>3798</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -906,7 +906,7 @@
         <v>2921</v>
       </c>
       <c r="L13">
-        <v>4089</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -944,7 +944,7 @@
         <v>3076</v>
       </c>
       <c r="L14">
-        <v>4885</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -982,7 +982,7 @@
         <v>2844</v>
       </c>
       <c r="L15">
-        <v>4517</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1017,10 +1017,10 @@
         <v>1426</v>
       </c>
       <c r="K16">
-        <v>3748</v>
+        <v>3769</v>
       </c>
       <c r="L16">
-        <v>5386</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1058,7 +1058,7 @@
         <v>3736</v>
       </c>
       <c r="L17">
-        <v>4734</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>3165</v>
       </c>
       <c r="L18">
-        <v>5731</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1131,10 +1131,10 @@
         <v>387</v>
       </c>
       <c r="K19">
-        <v>3477</v>
+        <v>3530</v>
       </c>
       <c r="L19">
-        <v>4217</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>3340</v>
       </c>
       <c r="L20">
-        <v>4216</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1207,10 +1207,10 @@
         <v>1996</v>
       </c>
       <c r="K21">
-        <v>3311</v>
+        <v>3499</v>
       </c>
       <c r="L21">
-        <v>4997</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>1425</v>
       </c>
       <c r="L22">
-        <v>3915</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>2550</v>
       </c>
       <c r="L23">
-        <v>5308</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1324,7 +1324,7 @@
         <v>3086</v>
       </c>
       <c r="L24">
-        <v>4487</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1362,7 +1362,7 @@
         <v>3596</v>
       </c>
       <c r="L25">
-        <v>5605</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1400,7 +1400,7 @@
         <v>4025</v>
       </c>
       <c r="L26">
-        <v>5108</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1438,7 +1438,7 @@
         <v>2160</v>
       </c>
       <c r="L27">
-        <v>4888</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1476,7 +1476,7 @@
         <v>2440</v>
       </c>
       <c r="L28">
-        <v>3830</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1514,7 +1514,7 @@
         <v>2337</v>
       </c>
       <c r="L29">
-        <v>3722</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1552,7 +1552,7 @@
         <v>3138</v>
       </c>
       <c r="L30">
-        <v>4792</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1590,7 +1590,7 @@
         <v>4077</v>
       </c>
       <c r="L31">
-        <v>5557</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1628,7 +1628,7 @@
         <v>4145</v>
       </c>
       <c r="L32">
-        <v>5970</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1666,7 +1666,7 @@
         <v>3479</v>
       </c>
       <c r="L33">
-        <v>4829</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1704,7 +1704,7 @@
         <v>1936</v>
       </c>
       <c r="L34">
-        <v>3235</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1742,7 +1742,7 @@
         <v>2850</v>
       </c>
       <c r="L35">
-        <v>4509</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1780,7 +1780,7 @@
         <v>1748</v>
       </c>
       <c r="L36">
-        <v>3992</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1818,7 +1818,7 @@
         <v>1889</v>
       </c>
       <c r="L37">
-        <v>3848</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1856,7 +1856,7 @@
         <v>3047</v>
       </c>
       <c r="L38">
-        <v>4339</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1894,7 +1894,7 @@
         <v>2505</v>
       </c>
       <c r="L39">
-        <v>4450</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1932,7 +1932,7 @@
         <v>5004</v>
       </c>
       <c r="L40">
-        <v>4712</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1970,7 +1970,7 @@
         <v>2325</v>
       </c>
       <c r="L41">
-        <v>4117</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2008,7 +2008,7 @@
         <v>2766</v>
       </c>
       <c r="L42">
-        <v>4640</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2046,7 +2046,7 @@
         <v>2859</v>
       </c>
       <c r="L43">
-        <v>4680</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2084,7 +2084,7 @@
         <v>3136</v>
       </c>
       <c r="L44">
-        <v>4563</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2122,7 +2122,7 @@
         <v>2186</v>
       </c>
       <c r="L45">
-        <v>4833</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2160,7 +2160,7 @@
         <v>2579</v>
       </c>
       <c r="L46">
-        <v>4138</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2198,7 +2198,7 @@
         <v>3690</v>
       </c>
       <c r="L47">
-        <v>4626</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2236,7 +2236,7 @@
         <v>4627</v>
       </c>
       <c r="L48">
-        <v>5542</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2271,10 +2271,10 @@
         <v>824</v>
       </c>
       <c r="K49">
-        <v>2423</v>
+        <v>2462</v>
       </c>
       <c r="L49">
-        <v>4838</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2312,7 +2312,7 @@
         <v>3398</v>
       </c>
       <c r="L50">
-        <v>4557</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2347,10 +2347,10 @@
         <v>45</v>
       </c>
       <c r="K51">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="L51">
-        <v>3246</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2385,10 +2385,10 @@
         <v>452</v>
       </c>
       <c r="K52">
-        <v>3007</v>
+        <v>2929</v>
       </c>
       <c r="L52">
-        <v>4231</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2426,7 +2426,7 @@
         <v>3467</v>
       </c>
       <c r="L53">
-        <v>4790</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2464,7 +2464,7 @@
         <v>2903</v>
       </c>
       <c r="L54">
-        <v>5158</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2502,7 +2502,7 @@
         <v>3206</v>
       </c>
       <c r="L55">
-        <v>5364</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2540,7 +2540,7 @@
         <v>2253</v>
       </c>
       <c r="L56">
-        <v>3666</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2578,7 +2578,7 @@
         <v>2952</v>
       </c>
       <c r="L57">
-        <v>5136</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2613,10 +2613,10 @@
         <v>743</v>
       </c>
       <c r="K58">
-        <v>2426</v>
+        <v>2418</v>
       </c>
       <c r="L58">
-        <v>5208</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2654,7 +2654,7 @@
         <v>2453</v>
       </c>
       <c r="L59">
-        <v>4807</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2692,7 +2692,7 @@
         <v>2821</v>
       </c>
       <c r="L60">
-        <v>4718</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2730,7 +2730,7 @@
         <v>2306</v>
       </c>
       <c r="L61">
-        <v>4228</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2765,10 +2765,10 @@
         <v>543</v>
       </c>
       <c r="K62">
-        <v>3669</v>
+        <v>3657</v>
       </c>
       <c r="L62">
-        <v>4700</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2806,7 +2806,7 @@
         <v>3586</v>
       </c>
       <c r="L63">
-        <v>4969</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2844,7 +2844,7 @@
         <v>2460</v>
       </c>
       <c r="L64">
-        <v>4002</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2879,10 +2879,10 @@
         <v>358</v>
       </c>
       <c r="K65">
-        <v>2876</v>
+        <v>2743</v>
       </c>
       <c r="L65">
-        <v>4648</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2920,7 +2920,7 @@
         <v>3613</v>
       </c>
       <c r="L66">
-        <v>4518</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2958,7 +2958,7 @@
         <v>2820</v>
       </c>
       <c r="L67">
-        <v>4270</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2996,7 +2996,7 @@
         <v>3204</v>
       </c>
       <c r="L68">
-        <v>4605</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3034,7 +3034,7 @@
         <v>4056</v>
       </c>
       <c r="L69">
-        <v>5910</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3072,7 +3072,7 @@
         <v>3477</v>
       </c>
       <c r="L70">
-        <v>4950</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3110,7 +3110,7 @@
         <v>3588</v>
       </c>
       <c r="L71">
-        <v>4961</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3145,10 +3145,10 @@
         <v>330</v>
       </c>
       <c r="K72">
-        <v>2547</v>
+        <v>3354</v>
       </c>
       <c r="L72">
-        <v>3858</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3183,10 +3183,10 @@
         <v>506</v>
       </c>
       <c r="K73">
-        <v>2948</v>
+        <v>2830</v>
       </c>
       <c r="L73">
-        <v>4720</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3224,7 +3224,7 @@
         <v>3186</v>
       </c>
       <c r="L74">
-        <v>4986</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3262,7 +3262,7 @@
         <v>2353</v>
       </c>
       <c r="L75">
-        <v>3579</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3300,7 +3300,7 @@
         <v>3534</v>
       </c>
       <c r="L76">
-        <v>5512</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3338,7 +3338,7 @@
         <v>2954</v>
       </c>
       <c r="L77">
-        <v>4002</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3376,7 +3376,7 @@
         <v>4183</v>
       </c>
       <c r="L78">
-        <v>5509</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3411,10 +3411,10 @@
         <v>559</v>
       </c>
       <c r="K79">
-        <v>2822</v>
+        <v>2443</v>
       </c>
       <c r="L79">
-        <v>4205</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3449,10 +3449,10 @@
         <v>773</v>
       </c>
       <c r="K80">
-        <v>2615</v>
+        <v>2636</v>
       </c>
       <c r="L80">
-        <v>4601</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3490,7 +3490,7 @@
         <v>3026</v>
       </c>
       <c r="L81">
-        <v>4878</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3525,10 +3525,10 @@
         <v>1109</v>
       </c>
       <c r="K82">
-        <v>3352</v>
+        <v>3733</v>
       </c>
       <c r="L82">
-        <v>4931</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3566,7 +3566,7 @@
         <v>1353</v>
       </c>
       <c r="L83">
-        <v>4203</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3604,7 +3604,7 @@
         <v>2835</v>
       </c>
       <c r="L84">
-        <v>4801</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3642,7 +3642,7 @@
         <v>2260</v>
       </c>
       <c r="L85">
-        <v>3833</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3680,7 +3680,7 @@
         <v>2997</v>
       </c>
       <c r="L86">
-        <v>4815</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3718,7 +3718,7 @@
         <v>2937</v>
       </c>
       <c r="L87">
-        <v>5054</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3756,7 +3756,7 @@
         <v>3941</v>
       </c>
       <c r="L88">
-        <v>4891</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3794,7 +3794,7 @@
         <v>2378</v>
       </c>
       <c r="L89">
-        <v>4248</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3832,7 +3832,7 @@
         <v>2369</v>
       </c>
       <c r="L90">
-        <v>4765</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3870,7 +3870,7 @@
         <v>4386</v>
       </c>
       <c r="L91">
-        <v>4731</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -3908,7 +3908,7 @@
         <v>4167</v>
       </c>
       <c r="L92">
-        <v>5417</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3946,7 +3946,7 @@
         <v>3150</v>
       </c>
       <c r="L93">
-        <v>4752</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3981,10 +3981,10 @@
         <v>450</v>
       </c>
       <c r="K94">
-        <v>2150</v>
+        <v>2175</v>
       </c>
       <c r="L94">
-        <v>3106</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4022,7 +4022,7 @@
         <v>1743</v>
       </c>
       <c r="L95">
-        <v>3788</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4057,10 +4057,10 @@
         <v>1520</v>
       </c>
       <c r="K96">
-        <v>3216</v>
+        <v>3243</v>
       </c>
       <c r="L96">
-        <v>5173</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4098,7 +4098,7 @@
         <v>3736</v>
       </c>
       <c r="L97">
-        <v>4649</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4136,7 +4136,7 @@
         <v>3002</v>
       </c>
       <c r="L98">
-        <v>4129</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4174,7 +4174,7 @@
         <v>3821</v>
       </c>
       <c r="L99">
-        <v>5603</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4212,7 +4212,7 @@
         <v>3460</v>
       </c>
       <c r="L100">
-        <v>4797</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4250,7 +4250,7 @@
         <v>2613</v>
       </c>
       <c r="L101">
-        <v>4104</v>
+        <v>2769</v>
       </c>
     </row>
   </sheetData>
@@ -4339,7 +4339,7 @@
         <v>590</v>
       </c>
       <c r="L2">
-        <v>815</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4377,7 +4377,7 @@
         <v>493</v>
       </c>
       <c r="L3">
-        <v>674</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4415,7 +4415,7 @@
         <v>632</v>
       </c>
       <c r="L4">
-        <v>678</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4453,7 +4453,7 @@
         <v>348</v>
       </c>
       <c r="L5">
-        <v>705</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4488,10 +4488,10 @@
         <v>213</v>
       </c>
       <c r="K6">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="L6">
-        <v>667</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4529,7 +4529,7 @@
         <v>691</v>
       </c>
       <c r="L7">
-        <v>643</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4567,7 +4567,7 @@
         <v>527</v>
       </c>
       <c r="L8">
-        <v>798</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4602,10 +4602,10 @@
         <v>57</v>
       </c>
       <c r="K9">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="L9">
-        <v>726</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4643,7 +4643,7 @@
         <v>538</v>
       </c>
       <c r="L10">
-        <v>755</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4681,7 +4681,7 @@
         <v>613</v>
       </c>
       <c r="L11">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4719,7 +4719,7 @@
         <v>658</v>
       </c>
       <c r="L12">
-        <v>775</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4757,7 +4757,7 @@
         <v>390</v>
       </c>
       <c r="L13">
-        <v>772</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4795,7 +4795,7 @@
         <v>434</v>
       </c>
       <c r="L14">
-        <v>663</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4871,7 +4871,7 @@
         <v>438</v>
       </c>
       <c r="L16">
-        <v>819</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4909,7 +4909,7 @@
         <v>445</v>
       </c>
       <c r="L17">
-        <v>733</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4947,7 +4947,7 @@
         <v>505</v>
       </c>
       <c r="L18">
-        <v>708</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4982,10 +4982,10 @@
         <v>115</v>
       </c>
       <c r="K19">
-        <v>660</v>
+        <v>506</v>
       </c>
       <c r="L19">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5023,7 +5023,7 @@
         <v>505</v>
       </c>
       <c r="L20">
-        <v>695</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5058,10 +5058,10 @@
         <v>227</v>
       </c>
       <c r="K21">
-        <v>533</v>
+        <v>623</v>
       </c>
       <c r="L21">
-        <v>817</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5099,7 +5099,7 @@
         <v>459</v>
       </c>
       <c r="L22">
-        <v>706</v>
+        <v>779</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5137,7 +5137,7 @@
         <v>580</v>
       </c>
       <c r="L23">
-        <v>796</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -5175,7 +5175,7 @@
         <v>570</v>
       </c>
       <c r="L24">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -5213,7 +5213,7 @@
         <v>384</v>
       </c>
       <c r="L25">
-        <v>737</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5251,7 +5251,7 @@
         <v>555</v>
       </c>
       <c r="L26">
-        <v>692</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5289,7 +5289,7 @@
         <v>561</v>
       </c>
       <c r="L27">
-        <v>854</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5327,7 +5327,7 @@
         <v>529</v>
       </c>
       <c r="L28">
-        <v>692</v>
+        <v>797</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -5365,7 +5365,7 @@
         <v>455</v>
       </c>
       <c r="L29">
-        <v>754</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -5403,7 +5403,7 @@
         <v>498</v>
       </c>
       <c r="L30">
-        <v>682</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -5441,7 +5441,7 @@
         <v>542</v>
       </c>
       <c r="L31">
-        <v>841</v>
+        <v>859</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -5479,7 +5479,7 @@
         <v>513</v>
       </c>
       <c r="L32">
-        <v>727</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -5517,7 +5517,7 @@
         <v>665</v>
       </c>
       <c r="L33">
-        <v>761</v>
+        <v>812</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -5555,7 +5555,7 @@
         <v>711</v>
       </c>
       <c r="L34">
-        <v>700</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -5593,7 +5593,7 @@
         <v>653</v>
       </c>
       <c r="L35">
-        <v>695</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -5631,7 +5631,7 @@
         <v>375</v>
       </c>
       <c r="L36">
-        <v>700</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -5669,7 +5669,7 @@
         <v>443</v>
       </c>
       <c r="L37">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -5707,7 +5707,7 @@
         <v>626</v>
       </c>
       <c r="L38">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -5745,7 +5745,7 @@
         <v>407</v>
       </c>
       <c r="L39">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -5783,7 +5783,7 @@
         <v>620</v>
       </c>
       <c r="L40">
-        <v>753</v>
+        <v>668</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -5821,7 +5821,7 @@
         <v>464</v>
       </c>
       <c r="L41">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -5859,7 +5859,7 @@
         <v>610</v>
       </c>
       <c r="L42">
-        <v>753</v>
+        <v>791</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -5897,7 +5897,7 @@
         <v>531</v>
       </c>
       <c r="L43">
-        <v>724</v>
+        <v>667</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -5935,7 +5935,7 @@
         <v>398</v>
       </c>
       <c r="L44">
-        <v>698</v>
+        <v>747</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -5973,7 +5973,7 @@
         <v>358</v>
       </c>
       <c r="L45">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -6011,7 +6011,7 @@
         <v>630</v>
       </c>
       <c r="L46">
-        <v>637</v>
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -6049,7 +6049,7 @@
         <v>471</v>
       </c>
       <c r="L47">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -6087,7 +6087,7 @@
         <v>559</v>
       </c>
       <c r="L48">
-        <v>736</v>
+        <v>784</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -6122,10 +6122,10 @@
         <v>147</v>
       </c>
       <c r="K49">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="L49">
-        <v>712</v>
+        <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -6163,7 +6163,7 @@
         <v>466</v>
       </c>
       <c r="L50">
-        <v>776</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -6201,7 +6201,7 @@
         <v>301</v>
       </c>
       <c r="L51">
-        <v>557</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -6236,10 +6236,10 @@
         <v>83</v>
       </c>
       <c r="K52">
-        <v>510</v>
+        <v>423</v>
       </c>
       <c r="L52">
-        <v>751</v>
+        <v>792</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -6277,7 +6277,7 @@
         <v>637</v>
       </c>
       <c r="L53">
-        <v>722</v>
+        <v>747</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -6315,7 +6315,7 @@
         <v>579</v>
       </c>
       <c r="L54">
-        <v>626</v>
+        <v>724</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -6353,7 +6353,7 @@
         <v>451</v>
       </c>
       <c r="L55">
-        <v>669</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -6391,7 +6391,7 @@
         <v>484</v>
       </c>
       <c r="L56">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -6429,7 +6429,7 @@
         <v>476</v>
       </c>
       <c r="L57">
-        <v>693</v>
+        <v>611</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -6467,7 +6467,7 @@
         <v>430</v>
       </c>
       <c r="L58">
-        <v>722</v>
+        <v>702</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -6505,7 +6505,7 @@
         <v>369</v>
       </c>
       <c r="L59">
-        <v>748</v>
+        <v>808</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -6543,7 +6543,7 @@
         <v>377</v>
       </c>
       <c r="L60">
-        <v>797</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -6581,7 +6581,7 @@
         <v>384</v>
       </c>
       <c r="L61">
-        <v>581</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -6616,10 +6616,10 @@
         <v>172</v>
       </c>
       <c r="K62">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L62">
-        <v>712</v>
+        <v>739</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -6657,7 +6657,7 @@
         <v>755</v>
       </c>
       <c r="L63">
-        <v>711</v>
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -6695,7 +6695,7 @@
         <v>517</v>
       </c>
       <c r="L64">
-        <v>743</v>
+        <v>781</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6730,10 +6730,10 @@
         <v>91</v>
       </c>
       <c r="K65">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L65">
-        <v>762</v>
+        <v>659</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -6771,7 +6771,7 @@
         <v>688</v>
       </c>
       <c r="L66">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6809,7 +6809,7 @@
         <v>551</v>
       </c>
       <c r="L67">
-        <v>652</v>
+        <v>704</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -6847,7 +6847,7 @@
         <v>478</v>
       </c>
       <c r="L68">
-        <v>778</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -6885,7 +6885,7 @@
         <v>633</v>
       </c>
       <c r="L69">
-        <v>779</v>
+        <v>808</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -6923,7 +6923,7 @@
         <v>471</v>
       </c>
       <c r="L70">
-        <v>815</v>
+        <v>705</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -6961,7 +6961,7 @@
         <v>424</v>
       </c>
       <c r="L71">
-        <v>694</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -6996,10 +6996,10 @@
         <v>60</v>
       </c>
       <c r="K72">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="L72">
-        <v>609</v>
+        <v>654</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -7034,10 +7034,10 @@
         <v>117</v>
       </c>
       <c r="K73">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L73">
-        <v>662</v>
+        <v>692</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -7075,7 +7075,7 @@
         <v>456</v>
       </c>
       <c r="L74">
-        <v>781</v>
+        <v>843</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -7113,7 +7113,7 @@
         <v>420</v>
       </c>
       <c r="L75">
-        <v>608</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -7151,7 +7151,7 @@
         <v>546</v>
       </c>
       <c r="L76">
-        <v>733</v>
+        <v>841</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -7189,7 +7189,7 @@
         <v>443</v>
       </c>
       <c r="L77">
-        <v>732</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -7227,7 +7227,7 @@
         <v>587</v>
       </c>
       <c r="L78">
-        <v>776</v>
+        <v>709</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7262,10 +7262,10 @@
         <v>159</v>
       </c>
       <c r="K79">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="L79">
-        <v>687</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -7300,10 +7300,10 @@
         <v>141</v>
       </c>
       <c r="K80">
-        <v>625</v>
+        <v>547</v>
       </c>
       <c r="L80">
-        <v>748</v>
+        <v>675</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -7341,7 +7341,7 @@
         <v>605</v>
       </c>
       <c r="L81">
-        <v>750</v>
+        <v>704</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -7376,10 +7376,10 @@
         <v>222</v>
       </c>
       <c r="K82">
-        <v>597</v>
+        <v>656</v>
       </c>
       <c r="L82">
-        <v>831</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -7417,7 +7417,7 @@
         <v>431</v>
       </c>
       <c r="L83">
-        <v>801</v>
+        <v>861</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -7455,7 +7455,7 @@
         <v>560</v>
       </c>
       <c r="L84">
-        <v>817</v>
+        <v>828</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -7493,7 +7493,7 @@
         <v>486</v>
       </c>
       <c r="L85">
-        <v>582</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -7531,7 +7531,7 @@
         <v>325</v>
       </c>
       <c r="L86">
-        <v>647</v>
+        <v>698</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -7569,7 +7569,7 @@
         <v>442</v>
       </c>
       <c r="L87">
-        <v>694</v>
+        <v>719</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -7607,7 +7607,7 @@
         <v>755</v>
       </c>
       <c r="L88">
-        <v>663</v>
+        <v>723</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -7645,7 +7645,7 @@
         <v>449</v>
       </c>
       <c r="L89">
-        <v>658</v>
+        <v>696</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -7683,7 +7683,7 @@
         <v>523</v>
       </c>
       <c r="L90">
-        <v>741</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -7721,7 +7721,7 @@
         <v>781</v>
       </c>
       <c r="L91">
-        <v>695</v>
+        <v>831</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -7759,7 +7759,7 @@
         <v>509</v>
       </c>
       <c r="L92">
-        <v>710</v>
+        <v>730</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -7797,7 +7797,7 @@
         <v>418</v>
       </c>
       <c r="L93">
-        <v>603</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -7832,10 +7832,10 @@
         <v>112</v>
       </c>
       <c r="K94">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="L94">
-        <v>651</v>
+        <v>759</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -7873,7 +7873,7 @@
         <v>370</v>
       </c>
       <c r="L95">
-        <v>805</v>
+        <v>787</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -7908,10 +7908,10 @@
         <v>173</v>
       </c>
       <c r="K96">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L96">
-        <v>780</v>
+        <v>816</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -7949,7 +7949,7 @@
         <v>544</v>
       </c>
       <c r="L97">
-        <v>703</v>
+        <v>617</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -7987,7 +7987,7 @@
         <v>535</v>
       </c>
       <c r="L98">
-        <v>699</v>
+        <v>784</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -8025,7 +8025,7 @@
         <v>595</v>
       </c>
       <c r="L99">
-        <v>735</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -8063,7 +8063,7 @@
         <v>460</v>
       </c>
       <c r="L100">
-        <v>733</v>
+        <v>766</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -8101,7 +8101,7 @@
         <v>373</v>
       </c>
       <c r="L101">
-        <v>563</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -8190,7 +8190,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L2">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8228,7 +8228,7 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="L3">
-        <v>0.4285714285714285</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8266,7 +8266,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="L4">
-        <v>0.3928571428571428</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8339,10 +8339,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="K6">
-        <v>0.4642857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L6">
-        <v>0.4642857142857143</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8380,7 +8380,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L7">
-        <v>0.4285714285714285</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8418,7 +8418,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L8">
-        <v>0.6071428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8456,7 +8456,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L9">
-        <v>0.4285714285714285</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8494,7 +8494,7 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="L10">
-        <v>0.3214285714285715</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8532,7 +8532,7 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="L11">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8570,7 +8570,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="L12">
-        <v>0.2857142857142857</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8608,7 +8608,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L13">
-        <v>0.3571428571428572</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8646,7 +8646,7 @@
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>0.4642857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8684,7 +8684,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L15">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8719,10 +8719,10 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="K16">
-        <v>0.6071428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L16">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8760,7 +8760,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L17">
-        <v>0.5357142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8798,7 +8798,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L18">
-        <v>0.5357142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8836,7 +8836,7 @@
         <v>0.5</v>
       </c>
       <c r="L19">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8874,7 +8874,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -8912,7 +8912,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L21">
-        <v>0.5</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -8950,7 +8950,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="L22">
-        <v>0.3928571428571428</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -8988,7 +8988,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L23">
-        <v>0.3928571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -9026,7 +9026,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9064,7 +9064,7 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="L25">
-        <v>0.5357142857142857</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9102,7 +9102,7 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -9140,7 +9140,7 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="L27">
-        <v>0.3928571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9178,7 +9178,7 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="L28">
-        <v>0.3571428571428572</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9254,7 +9254,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L30">
-        <v>0.5357142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -9292,7 +9292,7 @@
         <v>0.5</v>
       </c>
       <c r="L31">
-        <v>0.5357142857142857</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -9330,7 +9330,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>0.6071428571428571</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -9368,7 +9368,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>0.4642857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -9406,7 +9406,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="L34">
-        <v>0.3928571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9444,7 +9444,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L35">
-        <v>0.3571428571428572</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -9482,7 +9482,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L36">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -9520,7 +9520,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="L37">
-        <v>0.3928571428571428</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9558,7 +9558,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L38">
-        <v>0.4285714285714285</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -9596,7 +9596,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L39">
-        <v>0.3571428571428572</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9634,7 +9634,7 @@
         <v>0.5</v>
       </c>
       <c r="L40">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9672,7 +9672,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9710,7 +9710,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L42">
-        <v>0.4642857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9748,7 +9748,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L43">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9786,7 +9786,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L44">
-        <v>0.3928571428571428</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9824,7 +9824,7 @@
         <v>0.5</v>
       </c>
       <c r="L45">
-        <v>0.5357142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9862,7 +9862,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L46">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9900,7 +9900,7 @@
         <v>0.5</v>
       </c>
       <c r="L47">
-        <v>0.3928571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -9938,7 +9938,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L48">
-        <v>0.4642857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -9976,7 +9976,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L49">
-        <v>0.4285714285714285</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10014,7 +10014,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L50">
-        <v>0.4285714285714285</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10052,7 +10052,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="L51">
-        <v>0.3928571428571428</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10090,7 +10090,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L52">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10128,7 +10128,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L53">
-        <v>0.4642857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10166,7 +10166,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L54">
-        <v>0.4642857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10204,7 +10204,7 @@
         <v>0.5</v>
       </c>
       <c r="L55">
-        <v>0.5357142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10280,7 +10280,7 @@
         <v>0.5</v>
       </c>
       <c r="L57">
-        <v>0.4285714285714285</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10315,10 +10315,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K58">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="L58">
-        <v>0.4285714285714285</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10356,7 +10356,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L59">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -10394,7 +10394,7 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="L60">
-        <v>0.4642857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10432,7 +10432,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L61">
-        <v>0.4642857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10467,10 +10467,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="K62">
-        <v>0.6071428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L62">
-        <v>0.4642857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -10508,7 +10508,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L63">
-        <v>0.4285714285714285</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10581,10 +10581,10 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="K65">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L65">
-        <v>0.3571428571428572</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10622,7 +10622,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L66">
-        <v>0.4642857142857143</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10660,7 +10660,7 @@
         <v>0.5</v>
       </c>
       <c r="L67">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10698,7 +10698,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L68">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10736,7 +10736,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L69">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10774,7 +10774,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L70">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10812,7 +10812,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L71">
-        <v>0.4642857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10847,10 +10847,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="K72">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L72">
-        <v>0.4642857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10885,10 +10885,10 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="K73">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L73">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -10926,7 +10926,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L74">
-        <v>0.5</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -10964,7 +10964,7 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="L75">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -11002,7 +11002,7 @@
         <v>0.5</v>
       </c>
       <c r="L76">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -11040,7 +11040,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L77">
-        <v>0.4285714285714285</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -11078,7 +11078,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L78">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -11116,7 +11116,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="L79">
-        <v>0.4285714285714285</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -11151,10 +11151,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="K80">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L80">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -11192,7 +11192,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L81">
-        <v>0.4642857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -11268,7 +11268,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="L83">
-        <v>0.4642857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -11306,7 +11306,7 @@
         <v>0.5</v>
       </c>
       <c r="L84">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -11344,7 +11344,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="L85">
-        <v>0.3928571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -11382,7 +11382,7 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="L86">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -11420,7 +11420,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L87">
-        <v>0.5357142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -11458,7 +11458,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L88">
-        <v>0.5357142857142857</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -11496,7 +11496,7 @@
         <v>0.5</v>
       </c>
       <c r="L89">
-        <v>0.4642857142857143</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -11534,7 +11534,7 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="L90">
-        <v>0.3928571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -11572,7 +11572,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="L91">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -11610,7 +11610,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="L92">
-        <v>0.4642857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -11648,7 +11648,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L93">
-        <v>0.3928571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -11686,7 +11686,7 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="L94">
-        <v>0.3571428571428572</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -11724,7 +11724,7 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="L95">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -11762,7 +11762,7 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="L96">
-        <v>0.3928571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -11800,7 +11800,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L97">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -11876,7 +11876,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="L99">
-        <v>0.5357142857142857</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="100" spans="1:12">

--- a/experiment/jsp/my_tardy_result70.xlsx
+++ b/experiment/jsp/my_tardy_result70.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>FIFO</t>
   </si>
@@ -34,21 +34,6 @@
   </si>
   <si>
     <t>deep MARL-RS</t>
-  </si>
-  <si>
-    <t>EDD</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>SRO</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>noname_2</t>
   </si>
   <si>
     <t>RL</t>
@@ -409,13 +394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,23 +422,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2838</v>
       </c>
@@ -473,25 +443,10 @@
         <v>1081</v>
       </c>
       <c r="G2">
-        <v>765</v>
-      </c>
-      <c r="H2">
-        <v>893</v>
-      </c>
-      <c r="I2">
-        <v>736</v>
-      </c>
-      <c r="J2">
-        <v>625</v>
-      </c>
-      <c r="K2">
-        <v>2959</v>
-      </c>
-      <c r="L2">
         <v>2915</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>3386</v>
       </c>
@@ -511,25 +466,10 @@
         <v>2076</v>
       </c>
       <c r="G3">
-        <v>1378</v>
-      </c>
-      <c r="H3">
-        <v>1412</v>
-      </c>
-      <c r="I3">
-        <v>1462</v>
-      </c>
-      <c r="J3">
-        <v>1626</v>
-      </c>
-      <c r="K3">
-        <v>4206</v>
-      </c>
-      <c r="L3">
         <v>2995</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1365</v>
       </c>
@@ -549,25 +489,10 @@
         <v>723</v>
       </c>
       <c r="G4">
-        <v>773</v>
-      </c>
-      <c r="H4">
-        <v>1065</v>
-      </c>
-      <c r="I4">
-        <v>647</v>
-      </c>
-      <c r="J4">
-        <v>1103</v>
-      </c>
-      <c r="K4">
-        <v>3256</v>
-      </c>
-      <c r="L4">
         <v>3203</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1053</v>
       </c>
@@ -587,25 +512,10 @@
         <v>792</v>
       </c>
       <c r="G5">
-        <v>153</v>
-      </c>
-      <c r="H5">
-        <v>141</v>
-      </c>
-      <c r="I5">
-        <v>141</v>
-      </c>
-      <c r="J5">
-        <v>96</v>
-      </c>
-      <c r="K5">
-        <v>1854</v>
-      </c>
-      <c r="L5">
         <v>2114</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1973</v>
       </c>
@@ -625,25 +535,10 @@
         <v>1022</v>
       </c>
       <c r="G6">
-        <v>889</v>
-      </c>
-      <c r="H6">
-        <v>775</v>
-      </c>
-      <c r="I6">
-        <v>949</v>
-      </c>
-      <c r="J6">
-        <v>966</v>
-      </c>
-      <c r="K6">
-        <v>3110</v>
-      </c>
-      <c r="L6">
         <v>3627</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1710</v>
       </c>
@@ -663,25 +558,10 @@
         <v>971</v>
       </c>
       <c r="G7">
-        <v>467</v>
-      </c>
-      <c r="H7">
-        <v>283</v>
-      </c>
-      <c r="I7">
-        <v>107</v>
-      </c>
-      <c r="J7">
-        <v>238</v>
-      </c>
-      <c r="K7">
-        <v>2701</v>
-      </c>
-      <c r="L7">
         <v>2718</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2151</v>
       </c>
@@ -701,25 +581,10 @@
         <v>1227</v>
       </c>
       <c r="G8">
-        <v>1409</v>
-      </c>
-      <c r="H8">
-        <v>1716</v>
-      </c>
-      <c r="I8">
-        <v>1178</v>
-      </c>
-      <c r="J8">
-        <v>1215</v>
-      </c>
-      <c r="K8">
-        <v>4171</v>
-      </c>
-      <c r="L8">
         <v>3494</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>671</v>
       </c>
@@ -739,25 +604,10 @@
         <v>307</v>
       </c>
       <c r="G9">
-        <v>284</v>
-      </c>
-      <c r="H9">
-        <v>39</v>
-      </c>
-      <c r="I9">
-        <v>72</v>
-      </c>
-      <c r="J9">
-        <v>172</v>
-      </c>
-      <c r="K9">
-        <v>1745</v>
-      </c>
-      <c r="L9">
         <v>2435</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>735</v>
       </c>
@@ -777,25 +627,10 @@
         <v>233</v>
       </c>
       <c r="G10">
-        <v>155</v>
-      </c>
-      <c r="H10">
-        <v>96</v>
-      </c>
-      <c r="I10">
-        <v>89</v>
-      </c>
-      <c r="J10">
-        <v>82</v>
-      </c>
-      <c r="K10">
-        <v>1994</v>
-      </c>
-      <c r="L10">
         <v>2482</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1068</v>
       </c>
@@ -815,25 +650,10 @@
         <v>108</v>
       </c>
       <c r="G11">
-        <v>244</v>
-      </c>
-      <c r="H11">
-        <v>187</v>
-      </c>
-      <c r="I11">
-        <v>157</v>
-      </c>
-      <c r="J11">
-        <v>291</v>
-      </c>
-      <c r="K11">
-        <v>2651</v>
-      </c>
-      <c r="L11">
         <v>2486</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>543</v>
       </c>
@@ -853,25 +673,10 @@
         <v>234</v>
       </c>
       <c r="G12">
-        <v>499</v>
-      </c>
-      <c r="H12">
-        <v>358</v>
-      </c>
-      <c r="I12">
-        <v>264</v>
-      </c>
-      <c r="J12">
-        <v>269</v>
-      </c>
-      <c r="K12">
-        <v>2024</v>
-      </c>
-      <c r="L12">
         <v>2042</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3421</v>
       </c>
@@ -891,25 +696,10 @@
         <v>1271</v>
       </c>
       <c r="G13">
-        <v>1151</v>
-      </c>
-      <c r="H13">
-        <v>1009</v>
-      </c>
-      <c r="I13">
-        <v>1108</v>
-      </c>
-      <c r="J13">
-        <v>1010</v>
-      </c>
-      <c r="K13">
-        <v>2921</v>
-      </c>
-      <c r="L13">
         <v>2912</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>2110</v>
       </c>
@@ -929,25 +719,10 @@
         <v>700</v>
       </c>
       <c r="G14">
-        <v>242</v>
-      </c>
-      <c r="H14">
-        <v>246</v>
-      </c>
-      <c r="I14">
-        <v>332</v>
-      </c>
-      <c r="J14">
-        <v>448</v>
-      </c>
-      <c r="K14">
-        <v>3076</v>
-      </c>
-      <c r="L14">
         <v>3082</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2916</v>
       </c>
@@ -967,25 +742,10 @@
         <v>786</v>
       </c>
       <c r="G15">
-        <v>922</v>
-      </c>
-      <c r="H15">
-        <v>468</v>
-      </c>
-      <c r="I15">
-        <v>438</v>
-      </c>
-      <c r="J15">
-        <v>560</v>
-      </c>
-      <c r="K15">
-        <v>2844</v>
-      </c>
-      <c r="L15">
         <v>3418</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>4114</v>
       </c>
@@ -1005,25 +765,10 @@
         <v>2406</v>
       </c>
       <c r="G16">
-        <v>1326</v>
-      </c>
-      <c r="H16">
-        <v>1466</v>
-      </c>
-      <c r="I16">
-        <v>1343</v>
-      </c>
-      <c r="J16">
-        <v>1426</v>
-      </c>
-      <c r="K16">
-        <v>3769</v>
-      </c>
-      <c r="L16">
         <v>3659</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>2462</v>
       </c>
@@ -1043,25 +788,10 @@
         <v>1274</v>
       </c>
       <c r="G17">
-        <v>1068</v>
-      </c>
-      <c r="H17">
-        <v>699</v>
-      </c>
-      <c r="I17">
-        <v>869</v>
-      </c>
-      <c r="J17">
-        <v>872</v>
-      </c>
-      <c r="K17">
-        <v>3736</v>
-      </c>
-      <c r="L17">
         <v>3204</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>3008</v>
       </c>
@@ -1081,25 +811,10 @@
         <v>847</v>
       </c>
       <c r="G18">
-        <v>1548</v>
-      </c>
-      <c r="H18">
-        <v>1058</v>
-      </c>
-      <c r="I18">
-        <v>1004</v>
-      </c>
-      <c r="J18">
-        <v>1053</v>
-      </c>
-      <c r="K18">
-        <v>3165</v>
-      </c>
-      <c r="L18">
         <v>3783</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1154</v>
       </c>
@@ -1119,25 +834,10 @@
         <v>1012</v>
       </c>
       <c r="G19">
-        <v>408</v>
-      </c>
-      <c r="H19">
-        <v>228</v>
-      </c>
-      <c r="I19">
-        <v>324</v>
-      </c>
-      <c r="J19">
-        <v>387</v>
-      </c>
-      <c r="K19">
-        <v>3530</v>
-      </c>
-      <c r="L19">
         <v>2619</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2043</v>
       </c>
@@ -1157,25 +857,10 @@
         <v>875</v>
       </c>
       <c r="G20">
-        <v>53</v>
-      </c>
-      <c r="H20">
-        <v>173</v>
-      </c>
-      <c r="I20">
-        <v>90</v>
-      </c>
-      <c r="J20">
-        <v>300</v>
-      </c>
-      <c r="K20">
-        <v>3340</v>
-      </c>
-      <c r="L20">
         <v>2963</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>4108</v>
       </c>
@@ -1195,25 +880,10 @@
         <v>1971</v>
       </c>
       <c r="G21">
-        <v>2139</v>
-      </c>
-      <c r="H21">
-        <v>2388</v>
-      </c>
-      <c r="I21">
-        <v>2058</v>
-      </c>
-      <c r="J21">
-        <v>1996</v>
-      </c>
-      <c r="K21">
-        <v>3499</v>
-      </c>
-      <c r="L21">
         <v>3939</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1250</v>
       </c>
@@ -1233,25 +903,10 @@
         <v>276</v>
       </c>
       <c r="G22">
-        <v>233</v>
-      </c>
-      <c r="H22">
-        <v>277</v>
-      </c>
-      <c r="I22">
-        <v>285</v>
-      </c>
-      <c r="J22">
-        <v>282</v>
-      </c>
-      <c r="K22">
-        <v>1425</v>
-      </c>
-      <c r="L22">
         <v>2650</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>996</v>
       </c>
@@ -1271,25 +926,10 @@
         <v>348</v>
       </c>
       <c r="G23">
-        <v>155</v>
-      </c>
-      <c r="H23">
-        <v>116</v>
-      </c>
-      <c r="I23">
-        <v>217</v>
-      </c>
-      <c r="J23">
-        <v>159</v>
-      </c>
-      <c r="K23">
-        <v>2550</v>
-      </c>
-      <c r="L23">
         <v>3183</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1668</v>
       </c>
@@ -1309,25 +949,10 @@
         <v>767</v>
       </c>
       <c r="G24">
-        <v>672</v>
-      </c>
-      <c r="H24">
-        <v>653</v>
-      </c>
-      <c r="I24">
-        <v>571</v>
-      </c>
-      <c r="J24">
-        <v>605</v>
-      </c>
-      <c r="K24">
-        <v>3086</v>
-      </c>
-      <c r="L24">
         <v>3468</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>3700</v>
       </c>
@@ -1347,25 +972,10 @@
         <v>1582</v>
       </c>
       <c r="G25">
-        <v>953</v>
-      </c>
-      <c r="H25">
-        <v>1158</v>
-      </c>
-      <c r="I25">
-        <v>1413</v>
-      </c>
-      <c r="J25">
-        <v>1005</v>
-      </c>
-      <c r="K25">
-        <v>3596</v>
-      </c>
-      <c r="L25">
         <v>3677</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>3631</v>
       </c>
@@ -1385,25 +995,10 @@
         <v>1627</v>
       </c>
       <c r="G26">
-        <v>1154</v>
-      </c>
-      <c r="H26">
-        <v>1244</v>
-      </c>
-      <c r="I26">
-        <v>1548</v>
-      </c>
-      <c r="J26">
-        <v>1413</v>
-      </c>
-      <c r="K26">
-        <v>4025</v>
-      </c>
-      <c r="L26">
         <v>3720</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>1434</v>
       </c>
@@ -1423,25 +1018,10 @@
         <v>303</v>
       </c>
       <c r="G27">
-        <v>693</v>
-      </c>
-      <c r="H27">
-        <v>870</v>
-      </c>
-      <c r="I27">
-        <v>650</v>
-      </c>
-      <c r="J27">
-        <v>488</v>
-      </c>
-      <c r="K27">
-        <v>2160</v>
-      </c>
-      <c r="L27">
         <v>2744</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1411</v>
       </c>
@@ -1461,25 +1041,10 @@
         <v>1056</v>
       </c>
       <c r="G28">
-        <v>497</v>
-      </c>
-      <c r="H28">
-        <v>467</v>
-      </c>
-      <c r="I28">
-        <v>426</v>
-      </c>
-      <c r="J28">
-        <v>418</v>
-      </c>
-      <c r="K28">
-        <v>2440</v>
-      </c>
-      <c r="L28">
         <v>2798</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>1932</v>
       </c>
@@ -1499,25 +1064,10 @@
         <v>750</v>
       </c>
       <c r="G29">
-        <v>382</v>
-      </c>
-      <c r="H29">
-        <v>323</v>
-      </c>
-      <c r="I29">
-        <v>412</v>
-      </c>
-      <c r="J29">
-        <v>363</v>
-      </c>
-      <c r="K29">
-        <v>2337</v>
-      </c>
-      <c r="L29">
         <v>2671</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2344</v>
       </c>
@@ -1537,25 +1087,10 @@
         <v>1568</v>
       </c>
       <c r="G30">
-        <v>1395</v>
-      </c>
-      <c r="H30">
-        <v>797</v>
-      </c>
-      <c r="I30">
-        <v>973</v>
-      </c>
-      <c r="J30">
-        <v>1403</v>
-      </c>
-      <c r="K30">
-        <v>3138</v>
-      </c>
-      <c r="L30">
         <v>2770</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>3525</v>
       </c>
@@ -1575,25 +1110,10 @@
         <v>2306</v>
       </c>
       <c r="G31">
-        <v>1520</v>
-      </c>
-      <c r="H31">
-        <v>1665</v>
-      </c>
-      <c r="I31">
-        <v>1587</v>
-      </c>
-      <c r="J31">
-        <v>1803</v>
-      </c>
-      <c r="K31">
-        <v>4077</v>
-      </c>
-      <c r="L31">
         <v>4061</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>4051</v>
       </c>
@@ -1613,25 +1133,10 @@
         <v>1708</v>
       </c>
       <c r="G32">
-        <v>1800</v>
-      </c>
-      <c r="H32">
-        <v>1915</v>
-      </c>
-      <c r="I32">
-        <v>1946</v>
-      </c>
-      <c r="J32">
-        <v>1546</v>
-      </c>
-      <c r="K32">
-        <v>4145</v>
-      </c>
-      <c r="L32">
         <v>4239</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>1339</v>
       </c>
@@ -1651,25 +1156,10 @@
         <v>800</v>
       </c>
       <c r="G33">
-        <v>476</v>
-      </c>
-      <c r="H33">
-        <v>604</v>
-      </c>
-      <c r="I33">
-        <v>405</v>
-      </c>
-      <c r="J33">
-        <v>690</v>
-      </c>
-      <c r="K33">
-        <v>3479</v>
-      </c>
-      <c r="L33">
         <v>3100</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>1511</v>
       </c>
@@ -1689,25 +1179,10 @@
         <v>356</v>
       </c>
       <c r="G34">
-        <v>315</v>
-      </c>
-      <c r="H34">
-        <v>300</v>
-      </c>
-      <c r="I34">
-        <v>258</v>
-      </c>
-      <c r="J34">
-        <v>268</v>
-      </c>
-      <c r="K34">
-        <v>1936</v>
-      </c>
-      <c r="L34">
         <v>2173</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>2235</v>
       </c>
@@ -1727,25 +1202,10 @@
         <v>852</v>
       </c>
       <c r="G35">
-        <v>627</v>
-      </c>
-      <c r="H35">
-        <v>490</v>
-      </c>
-      <c r="I35">
-        <v>671</v>
-      </c>
-      <c r="J35">
-        <v>823</v>
-      </c>
-      <c r="K35">
-        <v>2850</v>
-      </c>
-      <c r="L35">
         <v>2983</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>1099</v>
       </c>
@@ -1765,25 +1225,10 @@
         <v>437</v>
       </c>
       <c r="G36">
-        <v>48</v>
-      </c>
-      <c r="H36">
-        <v>21</v>
-      </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-      <c r="J36">
-        <v>217</v>
-      </c>
-      <c r="K36">
-        <v>1748</v>
-      </c>
-      <c r="L36">
         <v>3095</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>1059</v>
       </c>
@@ -1803,25 +1248,10 @@
         <v>392</v>
       </c>
       <c r="G37">
-        <v>239</v>
-      </c>
-      <c r="H37">
-        <v>338</v>
-      </c>
-      <c r="I37">
-        <v>333</v>
-      </c>
-      <c r="J37">
-        <v>263</v>
-      </c>
-      <c r="K37">
-        <v>1889</v>
-      </c>
-      <c r="L37">
         <v>2883</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>2126</v>
       </c>
@@ -1841,25 +1271,10 @@
         <v>1186</v>
       </c>
       <c r="G38">
-        <v>804</v>
-      </c>
-      <c r="H38">
-        <v>780</v>
-      </c>
-      <c r="I38">
-        <v>761</v>
-      </c>
-      <c r="J38">
-        <v>939</v>
-      </c>
-      <c r="K38">
-        <v>3047</v>
-      </c>
-      <c r="L38">
         <v>3270</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>2647</v>
       </c>
@@ -1879,25 +1294,10 @@
         <v>899</v>
       </c>
       <c r="G39">
-        <v>649</v>
-      </c>
-      <c r="H39">
-        <v>880</v>
-      </c>
-      <c r="I39">
-        <v>627</v>
-      </c>
-      <c r="J39">
-        <v>1150</v>
-      </c>
-      <c r="K39">
-        <v>2505</v>
-      </c>
-      <c r="L39">
         <v>3115</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2560</v>
       </c>
@@ -1917,25 +1317,10 @@
         <v>676</v>
       </c>
       <c r="G40">
-        <v>593</v>
-      </c>
-      <c r="H40">
-        <v>485</v>
-      </c>
-      <c r="I40">
-        <v>365</v>
-      </c>
-      <c r="J40">
-        <v>448</v>
-      </c>
-      <c r="K40">
-        <v>5004</v>
-      </c>
-      <c r="L40">
         <v>3019</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3176</v>
       </c>
@@ -1955,25 +1340,10 @@
         <v>1246</v>
       </c>
       <c r="G41">
-        <v>918</v>
-      </c>
-      <c r="H41">
-        <v>872</v>
-      </c>
-      <c r="I41">
-        <v>782</v>
-      </c>
-      <c r="J41">
-        <v>713</v>
-      </c>
-      <c r="K41">
-        <v>2325</v>
-      </c>
-      <c r="L41">
         <v>2997</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>3019</v>
       </c>
@@ -1993,25 +1363,10 @@
         <v>1916</v>
       </c>
       <c r="G42">
-        <v>586</v>
-      </c>
-      <c r="H42">
-        <v>525</v>
-      </c>
-      <c r="I42">
-        <v>826</v>
-      </c>
-      <c r="J42">
-        <v>671</v>
-      </c>
-      <c r="K42">
-        <v>2766</v>
-      </c>
-      <c r="L42">
         <v>3514</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>1601</v>
       </c>
@@ -2031,25 +1386,10 @@
         <v>361</v>
       </c>
       <c r="G43">
-        <v>276</v>
-      </c>
-      <c r="H43">
-        <v>115</v>
-      </c>
-      <c r="I43">
-        <v>241</v>
-      </c>
-      <c r="J43">
-        <v>319</v>
-      </c>
-      <c r="K43">
-        <v>2859</v>
-      </c>
-      <c r="L43">
         <v>2789</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>3128</v>
       </c>
@@ -2069,25 +1409,10 @@
         <v>982</v>
       </c>
       <c r="G44">
-        <v>378</v>
-      </c>
-      <c r="H44">
-        <v>243</v>
-      </c>
-      <c r="I44">
-        <v>492</v>
-      </c>
-      <c r="J44">
-        <v>415</v>
-      </c>
-      <c r="K44">
-        <v>3136</v>
-      </c>
-      <c r="L44">
         <v>2935</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>2600</v>
       </c>
@@ -2107,25 +1432,10 @@
         <v>1184</v>
       </c>
       <c r="G45">
-        <v>750</v>
-      </c>
-      <c r="H45">
-        <v>737</v>
-      </c>
-      <c r="I45">
-        <v>575</v>
-      </c>
-      <c r="J45">
-        <v>445</v>
-      </c>
-      <c r="K45">
-        <v>2186</v>
-      </c>
-      <c r="L45">
         <v>3404</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>2101</v>
       </c>
@@ -2145,25 +1455,10 @@
         <v>775</v>
       </c>
       <c r="G46">
-        <v>299</v>
-      </c>
-      <c r="H46">
-        <v>193</v>
-      </c>
-      <c r="I46">
-        <v>282</v>
-      </c>
-      <c r="J46">
-        <v>595</v>
-      </c>
-      <c r="K46">
-        <v>2579</v>
-      </c>
-      <c r="L46">
         <v>2580</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>2960</v>
       </c>
@@ -2183,25 +1478,10 @@
         <v>1630</v>
       </c>
       <c r="G47">
-        <v>970</v>
-      </c>
-      <c r="H47">
-        <v>731</v>
-      </c>
-      <c r="I47">
-        <v>604</v>
-      </c>
-      <c r="J47">
-        <v>799</v>
-      </c>
-      <c r="K47">
-        <v>3690</v>
-      </c>
-      <c r="L47">
         <v>3082</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>3534</v>
       </c>
@@ -2221,25 +1501,10 @@
         <v>1452</v>
       </c>
       <c r="G48">
-        <v>1155</v>
-      </c>
-      <c r="H48">
-        <v>1118</v>
-      </c>
-      <c r="I48">
-        <v>1360</v>
-      </c>
-      <c r="J48">
-        <v>1146</v>
-      </c>
-      <c r="K48">
-        <v>4627</v>
-      </c>
-      <c r="L48">
         <v>3928</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>1896</v>
       </c>
@@ -2259,25 +1524,10 @@
         <v>754</v>
       </c>
       <c r="G49">
-        <v>791</v>
-      </c>
-      <c r="H49">
-        <v>611</v>
-      </c>
-      <c r="I49">
-        <v>526</v>
-      </c>
-      <c r="J49">
-        <v>824</v>
-      </c>
-      <c r="K49">
-        <v>2462</v>
-      </c>
-      <c r="L49">
         <v>3260</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>2920</v>
       </c>
@@ -2297,25 +1547,10 @@
         <v>815</v>
       </c>
       <c r="G50">
-        <v>405</v>
-      </c>
-      <c r="H50">
-        <v>419</v>
-      </c>
-      <c r="I50">
-        <v>327</v>
-      </c>
-      <c r="J50">
-        <v>379</v>
-      </c>
-      <c r="K50">
-        <v>3398</v>
-      </c>
-      <c r="L50">
         <v>3228</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>840</v>
       </c>
@@ -2335,25 +1570,10 @@
         <v>306</v>
       </c>
       <c r="G51">
-        <v>21</v>
-      </c>
-      <c r="H51">
-        <v>21</v>
-      </c>
-      <c r="I51">
-        <v>48</v>
-      </c>
-      <c r="J51">
-        <v>45</v>
-      </c>
-      <c r="K51">
-        <v>1122</v>
-      </c>
-      <c r="L51">
         <v>1985</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>1249</v>
       </c>
@@ -2373,25 +1593,10 @@
         <v>845</v>
       </c>
       <c r="G52">
-        <v>824</v>
-      </c>
-      <c r="H52">
-        <v>402</v>
-      </c>
-      <c r="I52">
-        <v>458</v>
-      </c>
-      <c r="J52">
-        <v>452</v>
-      </c>
-      <c r="K52">
-        <v>2929</v>
-      </c>
-      <c r="L52">
         <v>3249</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>1848</v>
       </c>
@@ -2411,25 +1616,10 @@
         <v>988</v>
       </c>
       <c r="G53">
-        <v>395</v>
-      </c>
-      <c r="H53">
-        <v>446</v>
-      </c>
-      <c r="I53">
-        <v>490</v>
-      </c>
-      <c r="J53">
-        <v>447</v>
-      </c>
-      <c r="K53">
-        <v>3467</v>
-      </c>
-      <c r="L53">
         <v>3244</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>2258</v>
       </c>
@@ -2449,25 +1639,10 @@
         <v>706</v>
       </c>
       <c r="G54">
-        <v>606</v>
-      </c>
-      <c r="H54">
-        <v>524</v>
-      </c>
-      <c r="I54">
-        <v>582</v>
-      </c>
-      <c r="J54">
-        <v>575</v>
-      </c>
-      <c r="K54">
-        <v>2903</v>
-      </c>
-      <c r="L54">
         <v>3505</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>1742</v>
       </c>
@@ -2487,25 +1662,10 @@
         <v>991</v>
       </c>
       <c r="G55">
-        <v>365</v>
-      </c>
-      <c r="H55">
-        <v>410</v>
-      </c>
-      <c r="I55">
-        <v>291</v>
-      </c>
-      <c r="J55">
-        <v>611</v>
-      </c>
-      <c r="K55">
-        <v>3206</v>
-      </c>
-      <c r="L55">
         <v>2625</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>2416</v>
       </c>
@@ -2525,25 +1685,10 @@
         <v>1265</v>
       </c>
       <c r="G56">
-        <v>899</v>
-      </c>
-      <c r="H56">
-        <v>424</v>
-      </c>
-      <c r="I56">
-        <v>431</v>
-      </c>
-      <c r="J56">
-        <v>606</v>
-      </c>
-      <c r="K56">
-        <v>2253</v>
-      </c>
-      <c r="L56">
         <v>2580</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>1006</v>
       </c>
@@ -2563,25 +1708,10 @@
         <v>516</v>
       </c>
       <c r="G57">
-        <v>524</v>
-      </c>
-      <c r="H57">
-        <v>1051</v>
-      </c>
-      <c r="I57">
-        <v>892</v>
-      </c>
-      <c r="J57">
-        <v>762</v>
-      </c>
-      <c r="K57">
-        <v>2952</v>
-      </c>
-      <c r="L57">
         <v>3145</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>1611</v>
       </c>
@@ -2601,25 +1731,10 @@
         <v>503</v>
       </c>
       <c r="G58">
-        <v>913</v>
-      </c>
-      <c r="H58">
-        <v>1032</v>
-      </c>
-      <c r="I58">
-        <v>834</v>
-      </c>
-      <c r="J58">
-        <v>743</v>
-      </c>
-      <c r="K58">
-        <v>2418</v>
-      </c>
-      <c r="L58">
         <v>2842</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>2565</v>
       </c>
@@ -2639,25 +1754,10 @@
         <v>821</v>
       </c>
       <c r="G59">
-        <v>204</v>
-      </c>
-      <c r="H59">
-        <v>340</v>
-      </c>
-      <c r="I59">
-        <v>342</v>
-      </c>
-      <c r="J59">
-        <v>401</v>
-      </c>
-      <c r="K59">
-        <v>2453</v>
-      </c>
-      <c r="L59">
         <v>3067</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>3968</v>
       </c>
@@ -2677,25 +1777,10 @@
         <v>1385</v>
       </c>
       <c r="G60">
-        <v>1446</v>
-      </c>
-      <c r="H60">
-        <v>1453</v>
-      </c>
-      <c r="I60">
-        <v>741</v>
-      </c>
-      <c r="J60">
-        <v>1009</v>
-      </c>
-      <c r="K60">
-        <v>2821</v>
-      </c>
-      <c r="L60">
         <v>2933</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>2057</v>
       </c>
@@ -2715,25 +1800,10 @@
         <v>691</v>
       </c>
       <c r="G61">
-        <v>408</v>
-      </c>
-      <c r="H61">
-        <v>131</v>
-      </c>
-      <c r="I61">
-        <v>290</v>
-      </c>
-      <c r="J61">
-        <v>193</v>
-      </c>
-      <c r="K61">
-        <v>2306</v>
-      </c>
-      <c r="L61">
         <v>2696</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>2296</v>
       </c>
@@ -2753,25 +1823,10 @@
         <v>1426</v>
       </c>
       <c r="G62">
-        <v>547</v>
-      </c>
-      <c r="H62">
-        <v>833</v>
-      </c>
-      <c r="I62">
-        <v>568</v>
-      </c>
-      <c r="J62">
-        <v>543</v>
-      </c>
-      <c r="K62">
-        <v>3657</v>
-      </c>
-      <c r="L62">
         <v>2744</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>3124</v>
       </c>
@@ -2791,25 +1846,10 @@
         <v>2062</v>
       </c>
       <c r="G63">
-        <v>1173</v>
-      </c>
-      <c r="H63">
-        <v>1370</v>
-      </c>
-      <c r="I63">
-        <v>1554</v>
-      </c>
-      <c r="J63">
-        <v>1411</v>
-      </c>
-      <c r="K63">
-        <v>3586</v>
-      </c>
-      <c r="L63">
         <v>4326</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>1503</v>
       </c>
@@ -2829,25 +1869,10 @@
         <v>501</v>
       </c>
       <c r="G64">
-        <v>469</v>
-      </c>
-      <c r="H64">
-        <v>270</v>
-      </c>
-      <c r="I64">
-        <v>412</v>
-      </c>
-      <c r="J64">
-        <v>564</v>
-      </c>
-      <c r="K64">
-        <v>2460</v>
-      </c>
-      <c r="L64">
         <v>2589</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>2317</v>
       </c>
@@ -2867,25 +1892,10 @@
         <v>1075</v>
       </c>
       <c r="G65">
-        <v>287</v>
-      </c>
-      <c r="H65">
-        <v>315</v>
-      </c>
-      <c r="I65">
-        <v>520</v>
-      </c>
-      <c r="J65">
-        <v>358</v>
-      </c>
-      <c r="K65">
-        <v>2743</v>
-      </c>
-      <c r="L65">
         <v>3007</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>3951</v>
       </c>
@@ -2905,25 +1915,10 @@
         <v>2033</v>
       </c>
       <c r="G66">
-        <v>1605</v>
-      </c>
-      <c r="H66">
-        <v>1568</v>
-      </c>
-      <c r="I66">
-        <v>1546</v>
-      </c>
-      <c r="J66">
-        <v>1863</v>
-      </c>
-      <c r="K66">
-        <v>3613</v>
-      </c>
-      <c r="L66">
         <v>3935</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>1174</v>
       </c>
@@ -2943,25 +1938,10 @@
         <v>503</v>
       </c>
       <c r="G67">
-        <v>380</v>
-      </c>
-      <c r="H67">
-        <v>267</v>
-      </c>
-      <c r="I67">
-        <v>329</v>
-      </c>
-      <c r="J67">
-        <v>147</v>
-      </c>
-      <c r="K67">
-        <v>2820</v>
-      </c>
-      <c r="L67">
         <v>3418</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>1394</v>
       </c>
@@ -2981,25 +1961,10 @@
         <v>770</v>
       </c>
       <c r="G68">
-        <v>540</v>
-      </c>
-      <c r="H68">
-        <v>747</v>
-      </c>
-      <c r="I68">
-        <v>624</v>
-      </c>
-      <c r="J68">
-        <v>562</v>
-      </c>
-      <c r="K68">
-        <v>3204</v>
-      </c>
-      <c r="L68">
         <v>2872</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>3519</v>
       </c>
@@ -3019,25 +1984,10 @@
         <v>1648</v>
       </c>
       <c r="G69">
-        <v>1337</v>
-      </c>
-      <c r="H69">
-        <v>975</v>
-      </c>
-      <c r="I69">
-        <v>1234</v>
-      </c>
-      <c r="J69">
-        <v>1193</v>
-      </c>
-      <c r="K69">
-        <v>4056</v>
-      </c>
-      <c r="L69">
         <v>3685</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>3225</v>
       </c>
@@ -3057,25 +2007,10 @@
         <v>1935</v>
       </c>
       <c r="G70">
-        <v>1205</v>
-      </c>
-      <c r="H70">
-        <v>1403</v>
-      </c>
-      <c r="I70">
-        <v>1123</v>
-      </c>
-      <c r="J70">
-        <v>1377</v>
-      </c>
-      <c r="K70">
-        <v>3477</v>
-      </c>
-      <c r="L70">
         <v>3087</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>1945</v>
       </c>
@@ -3095,25 +2030,10 @@
         <v>430</v>
       </c>
       <c r="G71">
-        <v>317</v>
-      </c>
-      <c r="H71">
-        <v>361</v>
-      </c>
-      <c r="I71">
-        <v>405</v>
-      </c>
-      <c r="J71">
-        <v>686</v>
-      </c>
-      <c r="K71">
-        <v>3588</v>
-      </c>
-      <c r="L71">
         <v>2569</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>2646</v>
       </c>
@@ -3133,25 +2053,10 @@
         <v>1125</v>
       </c>
       <c r="G72">
-        <v>385</v>
-      </c>
-      <c r="H72">
-        <v>166</v>
-      </c>
-      <c r="I72">
-        <v>269</v>
-      </c>
-      <c r="J72">
-        <v>330</v>
-      </c>
-      <c r="K72">
-        <v>3354</v>
-      </c>
-      <c r="L72">
         <v>2997</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>1377</v>
       </c>
@@ -3171,25 +2076,10 @@
         <v>688</v>
       </c>
       <c r="G73">
-        <v>195</v>
-      </c>
-      <c r="H73">
-        <v>450</v>
-      </c>
-      <c r="I73">
-        <v>603</v>
-      </c>
-      <c r="J73">
-        <v>506</v>
-      </c>
-      <c r="K73">
-        <v>2830</v>
-      </c>
-      <c r="L73">
         <v>2993</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>4127</v>
       </c>
@@ -3209,25 +2099,10 @@
         <v>2261</v>
       </c>
       <c r="G74">
-        <v>1648</v>
-      </c>
-      <c r="H74">
-        <v>1380</v>
-      </c>
-      <c r="I74">
-        <v>1133</v>
-      </c>
-      <c r="J74">
-        <v>1669</v>
-      </c>
-      <c r="K74">
-        <v>3186</v>
-      </c>
-      <c r="L74">
         <v>3449</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>1626</v>
       </c>
@@ -3247,25 +2122,10 @@
         <v>954</v>
       </c>
       <c r="G75">
-        <v>215</v>
-      </c>
-      <c r="H75">
-        <v>37</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>47</v>
-      </c>
-      <c r="K75">
-        <v>2353</v>
-      </c>
-      <c r="L75">
         <v>2142</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>2162</v>
       </c>
@@ -3285,25 +2145,10 @@
         <v>925</v>
       </c>
       <c r="G76">
-        <v>779</v>
-      </c>
-      <c r="H76">
-        <v>581</v>
-      </c>
-      <c r="I76">
-        <v>606</v>
-      </c>
-      <c r="J76">
-        <v>796</v>
-      </c>
-      <c r="K76">
-        <v>3534</v>
-      </c>
-      <c r="L76">
         <v>4237</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>2945</v>
       </c>
@@ -3323,25 +2168,10 @@
         <v>670</v>
       </c>
       <c r="G77">
-        <v>430</v>
-      </c>
-      <c r="H77">
-        <v>510</v>
-      </c>
-      <c r="I77">
-        <v>490</v>
-      </c>
-      <c r="J77">
-        <v>796</v>
-      </c>
-      <c r="K77">
-        <v>2954</v>
-      </c>
-      <c r="L77">
         <v>2654</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>1993</v>
       </c>
@@ -3361,25 +2191,10 @@
         <v>887</v>
       </c>
       <c r="G78">
-        <v>1079</v>
-      </c>
-      <c r="H78">
-        <v>1268</v>
-      </c>
-      <c r="I78">
-        <v>1217</v>
-      </c>
-      <c r="J78">
-        <v>1496</v>
-      </c>
-      <c r="K78">
-        <v>4183</v>
-      </c>
-      <c r="L78">
         <v>3778</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>2121</v>
       </c>
@@ -3399,25 +2214,10 @@
         <v>627</v>
       </c>
       <c r="G79">
-        <v>454</v>
-      </c>
-      <c r="H79">
-        <v>419</v>
-      </c>
-      <c r="I79">
-        <v>398</v>
-      </c>
-      <c r="J79">
-        <v>559</v>
-      </c>
-      <c r="K79">
-        <v>2443</v>
-      </c>
-      <c r="L79">
         <v>2713</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>1774</v>
       </c>
@@ -3437,25 +2237,10 @@
         <v>837</v>
       </c>
       <c r="G80">
-        <v>602</v>
-      </c>
-      <c r="H80">
-        <v>789</v>
-      </c>
-      <c r="I80">
-        <v>678</v>
-      </c>
-      <c r="J80">
-        <v>773</v>
-      </c>
-      <c r="K80">
-        <v>2636</v>
-      </c>
-      <c r="L80">
         <v>3671</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>966</v>
       </c>
@@ -3475,25 +2260,10 @@
         <v>442</v>
       </c>
       <c r="G81">
-        <v>337</v>
-      </c>
-      <c r="H81">
-        <v>335</v>
-      </c>
-      <c r="I81">
-        <v>328</v>
-      </c>
-      <c r="J81">
-        <v>424</v>
-      </c>
-      <c r="K81">
-        <v>3026</v>
-      </c>
-      <c r="L81">
         <v>2868</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>2265</v>
       </c>
@@ -3513,25 +2283,10 @@
         <v>1185</v>
       </c>
       <c r="G82">
-        <v>950</v>
-      </c>
-      <c r="H82">
-        <v>811</v>
-      </c>
-      <c r="I82">
-        <v>795</v>
-      </c>
-      <c r="J82">
-        <v>1109</v>
-      </c>
-      <c r="K82">
-        <v>3733</v>
-      </c>
-      <c r="L82">
         <v>3093</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>1527</v>
       </c>
@@ -3551,25 +2306,10 @@
         <v>677</v>
       </c>
       <c r="G83">
-        <v>228</v>
-      </c>
-      <c r="H83">
-        <v>274</v>
-      </c>
-      <c r="I83">
-        <v>199</v>
-      </c>
-      <c r="J83">
-        <v>441</v>
-      </c>
-      <c r="K83">
-        <v>1353</v>
-      </c>
-      <c r="L83">
         <v>2720</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>1675</v>
       </c>
@@ -3589,25 +2329,10 @@
         <v>1296</v>
       </c>
       <c r="G84">
-        <v>683</v>
-      </c>
-      <c r="H84">
-        <v>697</v>
-      </c>
-      <c r="I84">
-        <v>609</v>
-      </c>
-      <c r="J84">
-        <v>693</v>
-      </c>
-      <c r="K84">
-        <v>2835</v>
-      </c>
-      <c r="L84">
         <v>2526</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>730</v>
       </c>
@@ -3627,25 +2352,10 @@
         <v>355</v>
       </c>
       <c r="G85">
-        <v>162</v>
-      </c>
-      <c r="H85">
-        <v>18</v>
-      </c>
-      <c r="I85">
-        <v>26</v>
-      </c>
-      <c r="J85">
-        <v>242</v>
-      </c>
-      <c r="K85">
-        <v>2260</v>
-      </c>
-      <c r="L85">
         <v>2374</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>2364</v>
       </c>
@@ -3665,25 +2375,10 @@
         <v>863</v>
       </c>
       <c r="G86">
-        <v>619</v>
-      </c>
-      <c r="H86">
-        <v>536</v>
-      </c>
-      <c r="I86">
-        <v>566</v>
-      </c>
-      <c r="J86">
-        <v>744</v>
-      </c>
-      <c r="K86">
-        <v>2997</v>
-      </c>
-      <c r="L86">
         <v>3003</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>3343</v>
       </c>
@@ -3703,25 +2398,10 @@
         <v>1456</v>
       </c>
       <c r="G87">
-        <v>919</v>
-      </c>
-      <c r="H87">
-        <v>528</v>
-      </c>
-      <c r="I87">
-        <v>617</v>
-      </c>
-      <c r="J87">
-        <v>1280</v>
-      </c>
-      <c r="K87">
-        <v>2937</v>
-      </c>
-      <c r="L87">
         <v>3281</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>4038</v>
       </c>
@@ -3741,25 +2421,10 @@
         <v>1670</v>
       </c>
       <c r="G88">
-        <v>1697</v>
-      </c>
-      <c r="H88">
-        <v>1269</v>
-      </c>
-      <c r="I88">
-        <v>1580</v>
-      </c>
-      <c r="J88">
-        <v>1706</v>
-      </c>
-      <c r="K88">
-        <v>3941</v>
-      </c>
-      <c r="L88">
         <v>3805</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>3527</v>
       </c>
@@ -3779,25 +2444,10 @@
         <v>1414</v>
       </c>
       <c r="G89">
-        <v>1029</v>
-      </c>
-      <c r="H89">
-        <v>889</v>
-      </c>
-      <c r="I89">
-        <v>768</v>
-      </c>
-      <c r="J89">
-        <v>1101</v>
-      </c>
-      <c r="K89">
-        <v>2378</v>
-      </c>
-      <c r="L89">
         <v>3058</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>512</v>
       </c>
@@ -3817,25 +2467,10 @@
         <v>305</v>
       </c>
       <c r="G90">
-        <v>696</v>
-      </c>
-      <c r="H90">
-        <v>836</v>
-      </c>
-      <c r="I90">
-        <v>760</v>
-      </c>
-      <c r="J90">
-        <v>721</v>
-      </c>
-      <c r="K90">
-        <v>2369</v>
-      </c>
-      <c r="L90">
         <v>2713</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>3145</v>
       </c>
@@ -3855,25 +2490,10 @@
         <v>1791</v>
       </c>
       <c r="G91">
-        <v>830</v>
-      </c>
-      <c r="H91">
-        <v>816</v>
-      </c>
-      <c r="I91">
-        <v>1053</v>
-      </c>
-      <c r="J91">
-        <v>721</v>
-      </c>
-      <c r="K91">
-        <v>4386</v>
-      </c>
-      <c r="L91">
         <v>3212</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>3060</v>
       </c>
@@ -3893,25 +2513,10 @@
         <v>2073</v>
       </c>
       <c r="G92">
-        <v>1436</v>
-      </c>
-      <c r="H92">
-        <v>1245</v>
-      </c>
-      <c r="I92">
-        <v>1460</v>
-      </c>
-      <c r="J92">
-        <v>1401</v>
-      </c>
-      <c r="K92">
-        <v>4167</v>
-      </c>
-      <c r="L92">
         <v>3511</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>4257</v>
       </c>
@@ -3931,25 +2536,10 @@
         <v>1233</v>
       </c>
       <c r="G93">
-        <v>1210</v>
-      </c>
-      <c r="H93">
-        <v>1115</v>
-      </c>
-      <c r="I93">
-        <v>977</v>
-      </c>
-      <c r="J93">
-        <v>1075</v>
-      </c>
-      <c r="K93">
-        <v>3150</v>
-      </c>
-      <c r="L93">
         <v>3315</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>2114</v>
       </c>
@@ -3969,25 +2559,10 @@
         <v>1070</v>
       </c>
       <c r="G94">
-        <v>680</v>
-      </c>
-      <c r="H94">
-        <v>197</v>
-      </c>
-      <c r="I94">
-        <v>297</v>
-      </c>
-      <c r="J94">
-        <v>450</v>
-      </c>
-      <c r="K94">
-        <v>2175</v>
-      </c>
-      <c r="L94">
         <v>2648</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>832</v>
       </c>
@@ -4007,25 +2582,10 @@
         <v>203</v>
       </c>
       <c r="G95">
-        <v>315</v>
-      </c>
-      <c r="H95">
-        <v>290</v>
-      </c>
-      <c r="I95">
-        <v>298</v>
-      </c>
-      <c r="J95">
-        <v>413</v>
-      </c>
-      <c r="K95">
-        <v>1743</v>
-      </c>
-      <c r="L95">
         <v>2569</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>4636</v>
       </c>
@@ -4045,25 +2605,10 @@
         <v>1954</v>
       </c>
       <c r="G96">
-        <v>1353</v>
-      </c>
-      <c r="H96">
-        <v>1790</v>
-      </c>
-      <c r="I96">
-        <v>1367</v>
-      </c>
-      <c r="J96">
-        <v>1520</v>
-      </c>
-      <c r="K96">
-        <v>3243</v>
-      </c>
-      <c r="L96">
         <v>3190</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>3410</v>
       </c>
@@ -4083,25 +2628,10 @@
         <v>2186</v>
       </c>
       <c r="G97">
-        <v>1456</v>
-      </c>
-      <c r="H97">
-        <v>1478</v>
-      </c>
-      <c r="I97">
-        <v>1627</v>
-      </c>
-      <c r="J97">
-        <v>1567</v>
-      </c>
-      <c r="K97">
-        <v>3736</v>
-      </c>
-      <c r="L97">
         <v>3876</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>2226</v>
       </c>
@@ -4121,25 +2651,10 @@
         <v>865</v>
       </c>
       <c r="G98">
-        <v>1120</v>
-      </c>
-      <c r="H98">
-        <v>1029</v>
-      </c>
-      <c r="I98">
-        <v>1148</v>
-      </c>
-      <c r="J98">
-        <v>918</v>
-      </c>
-      <c r="K98">
-        <v>3002</v>
-      </c>
-      <c r="L98">
         <v>2948</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>2710</v>
       </c>
@@ -4159,25 +2674,10 @@
         <v>1304</v>
       </c>
       <c r="G99">
-        <v>1529</v>
-      </c>
-      <c r="H99">
-        <v>1784</v>
-      </c>
-      <c r="I99">
-        <v>1746</v>
-      </c>
-      <c r="J99">
-        <v>1735</v>
-      </c>
-      <c r="K99">
-        <v>3821</v>
-      </c>
-      <c r="L99">
         <v>4012</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>3048</v>
       </c>
@@ -4197,25 +2697,10 @@
         <v>1318</v>
       </c>
       <c r="G100">
-        <v>866</v>
-      </c>
-      <c r="H100">
-        <v>1004</v>
-      </c>
-      <c r="I100">
-        <v>844</v>
-      </c>
-      <c r="J100">
-        <v>1101</v>
-      </c>
-      <c r="K100">
-        <v>3460</v>
-      </c>
-      <c r="L100">
         <v>3155</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>2326</v>
       </c>
@@ -4235,21 +2720,6 @@
         <v>576</v>
       </c>
       <c r="G101">
-        <v>487</v>
-      </c>
-      <c r="H101">
-        <v>192</v>
-      </c>
-      <c r="I101">
-        <v>339</v>
-      </c>
-      <c r="J101">
-        <v>187</v>
-      </c>
-      <c r="K101">
-        <v>2613</v>
-      </c>
-      <c r="L101">
         <v>2769</v>
       </c>
     </row>
@@ -4260,13 +2730,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4288,23 +2758,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>420</v>
       </c>
@@ -4324,25 +2779,10 @@
         <v>209</v>
       </c>
       <c r="G2">
-        <v>111</v>
-      </c>
-      <c r="H2">
-        <v>136</v>
-      </c>
-      <c r="I2">
-        <v>153</v>
-      </c>
-      <c r="J2">
-        <v>118</v>
-      </c>
-      <c r="K2">
-        <v>590</v>
-      </c>
-      <c r="L2">
         <v>682</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>402</v>
       </c>
@@ -4362,25 +2802,10 @@
         <v>261</v>
       </c>
       <c r="G3">
-        <v>160</v>
-      </c>
-      <c r="H3">
-        <v>145</v>
-      </c>
-      <c r="I3">
-        <v>139</v>
-      </c>
-      <c r="J3">
-        <v>128</v>
-      </c>
-      <c r="K3">
-        <v>493</v>
-      </c>
-      <c r="L3">
         <v>792</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>287</v>
       </c>
@@ -4400,25 +2825,10 @@
         <v>183</v>
       </c>
       <c r="G4">
-        <v>140</v>
-      </c>
-      <c r="H4">
-        <v>182</v>
-      </c>
-      <c r="I4">
-        <v>135</v>
-      </c>
-      <c r="J4">
-        <v>184</v>
-      </c>
-      <c r="K4">
-        <v>632</v>
-      </c>
-      <c r="L4">
         <v>746</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>308</v>
       </c>
@@ -4438,25 +2848,10 @@
         <v>122</v>
       </c>
       <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>120</v>
-      </c>
-      <c r="I5">
-        <v>115</v>
-      </c>
-      <c r="J5">
-        <v>93</v>
-      </c>
-      <c r="K5">
-        <v>348</v>
-      </c>
-      <c r="L5">
         <v>817</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>345</v>
       </c>
@@ -4476,25 +2871,10 @@
         <v>158</v>
       </c>
       <c r="G6">
-        <v>176</v>
-      </c>
-      <c r="H6">
-        <v>177</v>
-      </c>
-      <c r="I6">
-        <v>192</v>
-      </c>
-      <c r="J6">
-        <v>213</v>
-      </c>
-      <c r="K6">
-        <v>510</v>
-      </c>
-      <c r="L6">
         <v>722</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>239</v>
       </c>
@@ -4514,25 +2894,10 @@
         <v>168</v>
       </c>
       <c r="G7">
-        <v>147</v>
-      </c>
-      <c r="H7">
-        <v>168</v>
-      </c>
-      <c r="I7">
-        <v>107</v>
-      </c>
-      <c r="J7">
-        <v>115</v>
-      </c>
-      <c r="K7">
-        <v>691</v>
-      </c>
-      <c r="L7">
         <v>713</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>314</v>
       </c>
@@ -4552,25 +2917,10 @@
         <v>162</v>
       </c>
       <c r="G8">
-        <v>236</v>
-      </c>
-      <c r="H8">
-        <v>215</v>
-      </c>
-      <c r="I8">
-        <v>231</v>
-      </c>
-      <c r="J8">
-        <v>238</v>
-      </c>
-      <c r="K8">
-        <v>527</v>
-      </c>
-      <c r="L8">
         <v>831</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>334</v>
       </c>
@@ -4590,25 +2940,10 @@
         <v>95</v>
       </c>
       <c r="G9">
-        <v>99</v>
-      </c>
-      <c r="H9">
-        <v>27</v>
-      </c>
-      <c r="I9">
-        <v>49</v>
-      </c>
-      <c r="J9">
-        <v>57</v>
-      </c>
-      <c r="K9">
-        <v>269</v>
-      </c>
-      <c r="L9">
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>197</v>
       </c>
@@ -4628,25 +2963,10 @@
         <v>149</v>
       </c>
       <c r="G10">
-        <v>70</v>
-      </c>
-      <c r="H10">
-        <v>55</v>
-      </c>
-      <c r="I10">
-        <v>52</v>
-      </c>
-      <c r="J10">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>538</v>
-      </c>
-      <c r="L10">
         <v>686</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>206</v>
       </c>
@@ -4666,25 +2986,10 @@
         <v>29</v>
       </c>
       <c r="G11">
-        <v>69</v>
-      </c>
-      <c r="H11">
-        <v>54</v>
-      </c>
-      <c r="I11">
-        <v>59</v>
-      </c>
-      <c r="J11">
-        <v>105</v>
-      </c>
-      <c r="K11">
-        <v>613</v>
-      </c>
-      <c r="L11">
         <v>601</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>206</v>
       </c>
@@ -4704,25 +3009,10 @@
         <v>102</v>
       </c>
       <c r="G12">
-        <v>198</v>
-      </c>
-      <c r="H12">
-        <v>142</v>
-      </c>
-      <c r="I12">
-        <v>160</v>
-      </c>
-      <c r="J12">
-        <v>103</v>
-      </c>
-      <c r="K12">
-        <v>658</v>
-      </c>
-      <c r="L12">
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>447</v>
       </c>
@@ -4742,25 +3032,10 @@
         <v>173</v>
       </c>
       <c r="G13">
-        <v>140</v>
-      </c>
-      <c r="H13">
-        <v>134</v>
-      </c>
-      <c r="I13">
-        <v>155</v>
-      </c>
-      <c r="J13">
-        <v>165</v>
-      </c>
-      <c r="K13">
-        <v>390</v>
-      </c>
-      <c r="L13">
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>390</v>
       </c>
@@ -4780,25 +3055,10 @@
         <v>151</v>
       </c>
       <c r="G14">
-        <v>218</v>
-      </c>
-      <c r="H14">
-        <v>103</v>
-      </c>
-      <c r="I14">
-        <v>115</v>
-      </c>
-      <c r="J14">
-        <v>130</v>
-      </c>
-      <c r="K14">
-        <v>434</v>
-      </c>
-      <c r="L14">
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>443</v>
       </c>
@@ -4818,25 +3078,10 @@
         <v>160</v>
       </c>
       <c r="G15">
-        <v>146</v>
-      </c>
-      <c r="H15">
-        <v>143</v>
-      </c>
-      <c r="I15">
-        <v>128</v>
-      </c>
-      <c r="J15">
-        <v>129</v>
-      </c>
-      <c r="K15">
-        <v>601</v>
-      </c>
-      <c r="L15">
         <v>794</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>397</v>
       </c>
@@ -4856,25 +3101,10 @@
         <v>255</v>
       </c>
       <c r="G16">
-        <v>231</v>
-      </c>
-      <c r="H16">
-        <v>167</v>
-      </c>
-      <c r="I16">
-        <v>167</v>
-      </c>
-      <c r="J16">
-        <v>198</v>
-      </c>
-      <c r="K16">
-        <v>438</v>
-      </c>
-      <c r="L16">
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>416</v>
       </c>
@@ -4894,25 +3124,10 @@
         <v>190</v>
       </c>
       <c r="G17">
-        <v>206</v>
-      </c>
-      <c r="H17">
-        <v>140</v>
-      </c>
-      <c r="I17">
-        <v>133</v>
-      </c>
-      <c r="J17">
-        <v>171</v>
-      </c>
-      <c r="K17">
-        <v>445</v>
-      </c>
-      <c r="L17">
         <v>743</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>354</v>
       </c>
@@ -4932,25 +3147,10 @@
         <v>120</v>
       </c>
       <c r="G18">
-        <v>247</v>
-      </c>
-      <c r="H18">
-        <v>126</v>
-      </c>
-      <c r="I18">
-        <v>148</v>
-      </c>
-      <c r="J18">
-        <v>146</v>
-      </c>
-      <c r="K18">
-        <v>505</v>
-      </c>
-      <c r="L18">
         <v>638</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>174</v>
       </c>
@@ -4970,25 +3170,10 @@
         <v>177</v>
       </c>
       <c r="G19">
-        <v>145</v>
-      </c>
-      <c r="H19">
-        <v>89</v>
-      </c>
-      <c r="I19">
-        <v>121</v>
-      </c>
-      <c r="J19">
-        <v>115</v>
-      </c>
-      <c r="K19">
-        <v>506</v>
-      </c>
-      <c r="L19">
         <v>787</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>358</v>
       </c>
@@ -5008,25 +3193,10 @@
         <v>142</v>
       </c>
       <c r="G20">
-        <v>36</v>
-      </c>
-      <c r="H20">
-        <v>49</v>
-      </c>
-      <c r="I20">
-        <v>33</v>
-      </c>
-      <c r="J20">
-        <v>74</v>
-      </c>
-      <c r="K20">
-        <v>505</v>
-      </c>
-      <c r="L20">
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>527</v>
       </c>
@@ -5046,25 +3216,10 @@
         <v>213</v>
       </c>
       <c r="G21">
-        <v>262</v>
-      </c>
-      <c r="H21">
-        <v>200</v>
-      </c>
-      <c r="I21">
-        <v>253</v>
-      </c>
-      <c r="J21">
-        <v>227</v>
-      </c>
-      <c r="K21">
-        <v>623</v>
-      </c>
-      <c r="L21">
         <v>849</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>233</v>
       </c>
@@ -5084,25 +3239,10 @@
         <v>164</v>
       </c>
       <c r="G22">
-        <v>85</v>
-      </c>
-      <c r="H22">
-        <v>122</v>
-      </c>
-      <c r="I22">
-        <v>114</v>
-      </c>
-      <c r="J22">
-        <v>114</v>
-      </c>
-      <c r="K22">
-        <v>459</v>
-      </c>
-      <c r="L22">
         <v>779</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>252</v>
       </c>
@@ -5122,25 +3262,10 @@
         <v>113</v>
       </c>
       <c r="G23">
-        <v>56</v>
-      </c>
-      <c r="H23">
-        <v>56</v>
-      </c>
-      <c r="I23">
-        <v>56</v>
-      </c>
-      <c r="J23">
-        <v>56</v>
-      </c>
-      <c r="K23">
-        <v>580</v>
-      </c>
-      <c r="L23">
         <v>747</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>375</v>
       </c>
@@ -5160,25 +3285,10 @@
         <v>135</v>
       </c>
       <c r="G24">
-        <v>142</v>
-      </c>
-      <c r="H24">
-        <v>135</v>
-      </c>
-      <c r="I24">
-        <v>83</v>
-      </c>
-      <c r="J24">
-        <v>123</v>
-      </c>
-      <c r="K24">
-        <v>570</v>
-      </c>
-      <c r="L24">
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>403</v>
       </c>
@@ -5198,25 +3308,10 @@
         <v>222</v>
       </c>
       <c r="G25">
-        <v>175</v>
-      </c>
-      <c r="H25">
-        <v>103</v>
-      </c>
-      <c r="I25">
-        <v>132</v>
-      </c>
-      <c r="J25">
-        <v>88</v>
-      </c>
-      <c r="K25">
-        <v>384</v>
-      </c>
-      <c r="L25">
         <v>695</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>388</v>
       </c>
@@ -5236,25 +3331,10 @@
         <v>193</v>
       </c>
       <c r="G26">
-        <v>265</v>
-      </c>
-      <c r="H26">
-        <v>196</v>
-      </c>
-      <c r="I26">
-        <v>179</v>
-      </c>
-      <c r="J26">
-        <v>196</v>
-      </c>
-      <c r="K26">
-        <v>555</v>
-      </c>
-      <c r="L26">
         <v>746</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>299</v>
       </c>
@@ -5274,25 +3354,10 @@
         <v>98</v>
       </c>
       <c r="G27">
-        <v>157</v>
-      </c>
-      <c r="H27">
-        <v>154</v>
-      </c>
-      <c r="I27">
-        <v>155</v>
-      </c>
-      <c r="J27">
-        <v>157</v>
-      </c>
-      <c r="K27">
-        <v>561</v>
-      </c>
-      <c r="L27">
         <v>760</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>164</v>
       </c>
@@ -5312,25 +3377,10 @@
         <v>191</v>
       </c>
       <c r="G28">
-        <v>110</v>
-      </c>
-      <c r="H28">
-        <v>136</v>
-      </c>
-      <c r="I28">
-        <v>158</v>
-      </c>
-      <c r="J28">
-        <v>113</v>
-      </c>
-      <c r="K28">
-        <v>529</v>
-      </c>
-      <c r="L28">
         <v>797</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>252</v>
       </c>
@@ -5350,25 +3400,10 @@
         <v>138</v>
       </c>
       <c r="G29">
-        <v>150</v>
-      </c>
-      <c r="H29">
-        <v>117</v>
-      </c>
-      <c r="I29">
-        <v>160</v>
-      </c>
-      <c r="J29">
-        <v>120</v>
-      </c>
-      <c r="K29">
-        <v>455</v>
-      </c>
-      <c r="L29">
         <v>681</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>325</v>
       </c>
@@ -5388,25 +3423,10 @@
         <v>257</v>
       </c>
       <c r="G30">
-        <v>290</v>
-      </c>
-      <c r="H30">
-        <v>92</v>
-      </c>
-      <c r="I30">
-        <v>142</v>
-      </c>
-      <c r="J30">
-        <v>262</v>
-      </c>
-      <c r="K30">
-        <v>498</v>
-      </c>
-      <c r="L30">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>361</v>
       </c>
@@ -5426,25 +3446,10 @@
         <v>244</v>
       </c>
       <c r="G31">
-        <v>185</v>
-      </c>
-      <c r="H31">
-        <v>174</v>
-      </c>
-      <c r="I31">
-        <v>203</v>
-      </c>
-      <c r="J31">
-        <v>200</v>
-      </c>
-      <c r="K31">
-        <v>542</v>
-      </c>
-      <c r="L31">
         <v>859</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>452</v>
       </c>
@@ -5464,25 +3469,10 @@
         <v>258</v>
       </c>
       <c r="G32">
-        <v>262</v>
-      </c>
-      <c r="H32">
-        <v>185</v>
-      </c>
-      <c r="I32">
-        <v>226</v>
-      </c>
-      <c r="J32">
-        <v>167</v>
-      </c>
-      <c r="K32">
-        <v>513</v>
-      </c>
-      <c r="L32">
         <v>661</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>209</v>
       </c>
@@ -5502,25 +3492,10 @@
         <v>104</v>
       </c>
       <c r="G33">
-        <v>132</v>
-      </c>
-      <c r="H33">
-        <v>132</v>
-      </c>
-      <c r="I33">
-        <v>132</v>
-      </c>
-      <c r="J33">
-        <v>125</v>
-      </c>
-      <c r="K33">
-        <v>665</v>
-      </c>
-      <c r="L33">
         <v>812</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>346</v>
       </c>
@@ -5540,25 +3515,10 @@
         <v>94</v>
       </c>
       <c r="G34">
-        <v>135</v>
-      </c>
-      <c r="H34">
-        <v>121</v>
-      </c>
-      <c r="I34">
-        <v>121</v>
-      </c>
-      <c r="J34">
-        <v>124</v>
-      </c>
-      <c r="K34">
-        <v>711</v>
-      </c>
-      <c r="L34">
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>335</v>
       </c>
@@ -5578,25 +3538,10 @@
         <v>160</v>
       </c>
       <c r="G35">
-        <v>130</v>
-      </c>
-      <c r="H35">
-        <v>109</v>
-      </c>
-      <c r="I35">
-        <v>96</v>
-      </c>
-      <c r="J35">
-        <v>147</v>
-      </c>
-      <c r="K35">
-        <v>653</v>
-      </c>
-      <c r="L35">
         <v>765</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>203</v>
       </c>
@@ -5616,25 +3561,10 @@
         <v>105</v>
       </c>
       <c r="G36">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <v>21</v>
-      </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-      <c r="J36">
-        <v>80</v>
-      </c>
-      <c r="K36">
-        <v>375</v>
-      </c>
-      <c r="L36">
         <v>666</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>371</v>
       </c>
@@ -5654,25 +3584,10 @@
         <v>112</v>
       </c>
       <c r="G37">
-        <v>106</v>
-      </c>
-      <c r="H37">
-        <v>95</v>
-      </c>
-      <c r="I37">
-        <v>140</v>
-      </c>
-      <c r="J37">
-        <v>104</v>
-      </c>
-      <c r="K37">
-        <v>443</v>
-      </c>
-      <c r="L37">
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>393</v>
       </c>
@@ -5692,25 +3607,10 @@
         <v>207</v>
       </c>
       <c r="G38">
-        <v>145</v>
-      </c>
-      <c r="H38">
-        <v>119</v>
-      </c>
-      <c r="I38">
-        <v>121</v>
-      </c>
-      <c r="J38">
-        <v>202</v>
-      </c>
-      <c r="K38">
-        <v>626</v>
-      </c>
-      <c r="L38">
         <v>673</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>370</v>
       </c>
@@ -5730,25 +3630,10 @@
         <v>136</v>
       </c>
       <c r="G39">
-        <v>138</v>
-      </c>
-      <c r="H39">
-        <v>143</v>
-      </c>
-      <c r="I39">
-        <v>125</v>
-      </c>
-      <c r="J39">
-        <v>173</v>
-      </c>
-      <c r="K39">
-        <v>407</v>
-      </c>
-      <c r="L39">
         <v>759</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>299</v>
       </c>
@@ -5768,25 +3653,10 @@
         <v>155</v>
       </c>
       <c r="G40">
-        <v>137</v>
-      </c>
-      <c r="H40">
-        <v>123</v>
-      </c>
-      <c r="I40">
-        <v>123</v>
-      </c>
-      <c r="J40">
-        <v>123</v>
-      </c>
-      <c r="K40">
-        <v>620</v>
-      </c>
-      <c r="L40">
         <v>668</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>472</v>
       </c>
@@ -5806,25 +3676,10 @@
         <v>197</v>
       </c>
       <c r="G41">
-        <v>188</v>
-      </c>
-      <c r="H41">
-        <v>178</v>
-      </c>
-      <c r="I41">
-        <v>187</v>
-      </c>
-      <c r="J41">
-        <v>92</v>
-      </c>
-      <c r="K41">
-        <v>464</v>
-      </c>
-      <c r="L41">
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>373</v>
       </c>
@@ -5844,25 +3699,10 @@
         <v>334</v>
       </c>
       <c r="G42">
-        <v>91</v>
-      </c>
-      <c r="H42">
-        <v>116</v>
-      </c>
-      <c r="I42">
-        <v>159</v>
-      </c>
-      <c r="J42">
-        <v>124</v>
-      </c>
-      <c r="K42">
-        <v>610</v>
-      </c>
-      <c r="L42">
         <v>791</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>327</v>
       </c>
@@ -5882,25 +3722,10 @@
         <v>80</v>
       </c>
       <c r="G43">
-        <v>80</v>
-      </c>
-      <c r="H43">
-        <v>55</v>
-      </c>
-      <c r="I43">
-        <v>74</v>
-      </c>
-      <c r="J43">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>531</v>
-      </c>
-      <c r="L43">
         <v>667</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>386</v>
       </c>
@@ -5920,25 +3745,10 @@
         <v>181</v>
       </c>
       <c r="G44">
-        <v>139</v>
-      </c>
-      <c r="H44">
-        <v>73</v>
-      </c>
-      <c r="I44">
-        <v>99</v>
-      </c>
-      <c r="J44">
-        <v>134</v>
-      </c>
-      <c r="K44">
-        <v>398</v>
-      </c>
-      <c r="L44">
         <v>747</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>409</v>
       </c>
@@ -5958,25 +3768,10 @@
         <v>229</v>
       </c>
       <c r="G45">
-        <v>159</v>
-      </c>
-      <c r="H45">
-        <v>132</v>
-      </c>
-      <c r="I45">
-        <v>119</v>
-      </c>
-      <c r="J45">
-        <v>97</v>
-      </c>
-      <c r="K45">
-        <v>358</v>
-      </c>
-      <c r="L45">
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>390</v>
       </c>
@@ -5996,25 +3791,10 @@
         <v>130</v>
       </c>
       <c r="G46">
-        <v>56</v>
-      </c>
-      <c r="H46">
-        <v>67</v>
-      </c>
-      <c r="I46">
-        <v>96</v>
-      </c>
-      <c r="J46">
-        <v>79</v>
-      </c>
-      <c r="K46">
-        <v>630</v>
-      </c>
-      <c r="L46">
         <v>699</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>357</v>
       </c>
@@ -6034,25 +3814,10 @@
         <v>265</v>
       </c>
       <c r="G47">
-        <v>144</v>
-      </c>
-      <c r="H47">
-        <v>82</v>
-      </c>
-      <c r="I47">
-        <v>86</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
-      <c r="K47">
-        <v>471</v>
-      </c>
-      <c r="L47">
         <v>656</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>351</v>
       </c>
@@ -6072,25 +3837,10 @@
         <v>196</v>
       </c>
       <c r="G48">
-        <v>182</v>
-      </c>
-      <c r="H48">
-        <v>135</v>
-      </c>
-      <c r="I48">
-        <v>132</v>
-      </c>
-      <c r="J48">
-        <v>165</v>
-      </c>
-      <c r="K48">
-        <v>559</v>
-      </c>
-      <c r="L48">
         <v>784</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>255</v>
       </c>
@@ -6110,25 +3860,10 @@
         <v>150</v>
       </c>
       <c r="G49">
-        <v>129</v>
-      </c>
-      <c r="H49">
-        <v>181</v>
-      </c>
-      <c r="I49">
-        <v>127</v>
-      </c>
-      <c r="J49">
-        <v>147</v>
-      </c>
-      <c r="K49">
-        <v>403</v>
-      </c>
-      <c r="L49">
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>511</v>
       </c>
@@ -6148,25 +3883,10 @@
         <v>199</v>
       </c>
       <c r="G50">
-        <v>107</v>
-      </c>
-      <c r="H50">
-        <v>92</v>
-      </c>
-      <c r="I50">
-        <v>59</v>
-      </c>
-      <c r="J50">
-        <v>84</v>
-      </c>
-      <c r="K50">
-        <v>466</v>
-      </c>
-      <c r="L50">
         <v>758</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>243</v>
       </c>
@@ -6186,25 +3906,10 @@
         <v>84</v>
       </c>
       <c r="G51">
-        <v>21</v>
-      </c>
-      <c r="H51">
-        <v>21</v>
-      </c>
-      <c r="I51">
-        <v>34</v>
-      </c>
-      <c r="J51">
-        <v>25</v>
-      </c>
-      <c r="K51">
-        <v>301</v>
-      </c>
-      <c r="L51">
         <v>611</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>233</v>
       </c>
@@ -6224,25 +3929,10 @@
         <v>218</v>
       </c>
       <c r="G52">
-        <v>171</v>
-      </c>
-      <c r="H52">
-        <v>88</v>
-      </c>
-      <c r="I52">
-        <v>95</v>
-      </c>
-      <c r="J52">
-        <v>83</v>
-      </c>
-      <c r="K52">
-        <v>423</v>
-      </c>
-      <c r="L52">
         <v>792</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>354</v>
       </c>
@@ -6262,25 +3952,10 @@
         <v>198</v>
       </c>
       <c r="G53">
-        <v>101</v>
-      </c>
-      <c r="H53">
-        <v>120</v>
-      </c>
-      <c r="I53">
-        <v>129</v>
-      </c>
-      <c r="J53">
-        <v>159</v>
-      </c>
-      <c r="K53">
-        <v>637</v>
-      </c>
-      <c r="L53">
         <v>747</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>319</v>
       </c>
@@ -6300,25 +3975,10 @@
         <v>154</v>
       </c>
       <c r="G54">
-        <v>145</v>
-      </c>
-      <c r="H54">
-        <v>93</v>
-      </c>
-      <c r="I54">
-        <v>148</v>
-      </c>
-      <c r="J54">
-        <v>148</v>
-      </c>
-      <c r="K54">
-        <v>579</v>
-      </c>
-      <c r="L54">
         <v>724</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>365</v>
       </c>
@@ -6338,25 +3998,10 @@
         <v>254</v>
       </c>
       <c r="G55">
-        <v>123</v>
-      </c>
-      <c r="H55">
-        <v>86</v>
-      </c>
-      <c r="I55">
-        <v>86</v>
-      </c>
-      <c r="J55">
-        <v>98</v>
-      </c>
-      <c r="K55">
-        <v>451</v>
-      </c>
-      <c r="L55">
         <v>604</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>286</v>
       </c>
@@ -6376,25 +4021,10 @@
         <v>196</v>
       </c>
       <c r="G56">
-        <v>141</v>
-      </c>
-      <c r="H56">
-        <v>169</v>
-      </c>
-      <c r="I56">
-        <v>169</v>
-      </c>
-      <c r="J56">
-        <v>123</v>
-      </c>
-      <c r="K56">
-        <v>484</v>
-      </c>
-      <c r="L56">
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>186</v>
       </c>
@@ -6414,25 +4044,10 @@
         <v>110</v>
       </c>
       <c r="G57">
-        <v>114</v>
-      </c>
-      <c r="H57">
-        <v>181</v>
-      </c>
-      <c r="I57">
-        <v>198</v>
-      </c>
-      <c r="J57">
-        <v>190</v>
-      </c>
-      <c r="K57">
-        <v>476</v>
-      </c>
-      <c r="L57">
         <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>380</v>
       </c>
@@ -6452,25 +4067,10 @@
         <v>116</v>
       </c>
       <c r="G58">
-        <v>120</v>
-      </c>
-      <c r="H58">
-        <v>134</v>
-      </c>
-      <c r="I58">
-        <v>155</v>
-      </c>
-      <c r="J58">
-        <v>128</v>
-      </c>
-      <c r="K58">
-        <v>430</v>
-      </c>
-      <c r="L58">
         <v>702</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>350</v>
       </c>
@@ -6490,25 +4090,10 @@
         <v>254</v>
       </c>
       <c r="G59">
-        <v>70</v>
-      </c>
-      <c r="H59">
-        <v>127</v>
-      </c>
-      <c r="I59">
-        <v>99</v>
-      </c>
-      <c r="J59">
-        <v>98</v>
-      </c>
-      <c r="K59">
-        <v>369</v>
-      </c>
-      <c r="L59">
         <v>808</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>409</v>
       </c>
@@ -6528,25 +4113,10 @@
         <v>224</v>
       </c>
       <c r="G60">
-        <v>225</v>
-      </c>
-      <c r="H60">
-        <v>162</v>
-      </c>
-      <c r="I60">
-        <v>79</v>
-      </c>
-      <c r="J60">
-        <v>125</v>
-      </c>
-      <c r="K60">
-        <v>377</v>
-      </c>
-      <c r="L60">
         <v>638</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>501</v>
       </c>
@@ -6566,25 +4136,10 @@
         <v>169</v>
       </c>
       <c r="G61">
-        <v>113</v>
-      </c>
-      <c r="H61">
-        <v>98</v>
-      </c>
-      <c r="I61">
-        <v>108</v>
-      </c>
-      <c r="J61">
-        <v>121</v>
-      </c>
-      <c r="K61">
-        <v>384</v>
-      </c>
-      <c r="L61">
         <v>623</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>630</v>
       </c>
@@ -6604,25 +4159,10 @@
         <v>254</v>
       </c>
       <c r="G62">
-        <v>146</v>
-      </c>
-      <c r="H62">
-        <v>174</v>
-      </c>
-      <c r="I62">
-        <v>172</v>
-      </c>
-      <c r="J62">
-        <v>172</v>
-      </c>
-      <c r="K62">
-        <v>563</v>
-      </c>
-      <c r="L62">
         <v>739</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>501</v>
       </c>
@@ -6642,25 +4182,10 @@
         <v>199</v>
       </c>
       <c r="G63">
-        <v>174</v>
-      </c>
-      <c r="H63">
-        <v>223</v>
-      </c>
-      <c r="I63">
-        <v>174</v>
-      </c>
-      <c r="J63">
-        <v>179</v>
-      </c>
-      <c r="K63">
-        <v>755</v>
-      </c>
-      <c r="L63">
         <v>774</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>308</v>
       </c>
@@ -6680,25 +4205,10 @@
         <v>130</v>
       </c>
       <c r="G64">
-        <v>98</v>
-      </c>
-      <c r="H64">
-        <v>72</v>
-      </c>
-      <c r="I64">
-        <v>82</v>
-      </c>
-      <c r="J64">
-        <v>132</v>
-      </c>
-      <c r="K64">
-        <v>517</v>
-      </c>
-      <c r="L64">
         <v>781</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>327</v>
       </c>
@@ -6718,25 +4228,10 @@
         <v>161</v>
       </c>
       <c r="G65">
-        <v>101</v>
-      </c>
-      <c r="H65">
-        <v>90</v>
-      </c>
-      <c r="I65">
-        <v>116</v>
-      </c>
-      <c r="J65">
-        <v>91</v>
-      </c>
-      <c r="K65">
-        <v>478</v>
-      </c>
-      <c r="L65">
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>535</v>
       </c>
@@ -6756,25 +4251,10 @@
         <v>289</v>
       </c>
       <c r="G66">
-        <v>215</v>
-      </c>
-      <c r="H66">
-        <v>225</v>
-      </c>
-      <c r="I66">
-        <v>167</v>
-      </c>
-      <c r="J66">
-        <v>253</v>
-      </c>
-      <c r="K66">
-        <v>688</v>
-      </c>
-      <c r="L66">
         <v>724</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>376</v>
       </c>
@@ -6794,25 +4274,10 @@
         <v>137</v>
       </c>
       <c r="G67">
-        <v>215</v>
-      </c>
-      <c r="H67">
-        <v>55</v>
-      </c>
-      <c r="I67">
-        <v>86</v>
-      </c>
-      <c r="J67">
-        <v>53</v>
-      </c>
-      <c r="K67">
-        <v>551</v>
-      </c>
-      <c r="L67">
         <v>704</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>267</v>
       </c>
@@ -6832,25 +4297,10 @@
         <v>147</v>
       </c>
       <c r="G68">
-        <v>168</v>
-      </c>
-      <c r="H68">
-        <v>119</v>
-      </c>
-      <c r="I68">
-        <v>87</v>
-      </c>
-      <c r="J68">
-        <v>115</v>
-      </c>
-      <c r="K68">
-        <v>478</v>
-      </c>
-      <c r="L68">
         <v>820</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>415</v>
       </c>
@@ -6870,25 +4320,10 @@
         <v>237</v>
       </c>
       <c r="G69">
-        <v>191</v>
-      </c>
-      <c r="H69">
-        <v>125</v>
-      </c>
-      <c r="I69">
-        <v>165</v>
-      </c>
-      <c r="J69">
-        <v>140</v>
-      </c>
-      <c r="K69">
-        <v>633</v>
-      </c>
-      <c r="L69">
         <v>808</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>333</v>
       </c>
@@ -6908,25 +4343,10 @@
         <v>299</v>
       </c>
       <c r="G70">
-        <v>195</v>
-      </c>
-      <c r="H70">
-        <v>190</v>
-      </c>
-      <c r="I70">
-        <v>145</v>
-      </c>
-      <c r="J70">
-        <v>148</v>
-      </c>
-      <c r="K70">
-        <v>471</v>
-      </c>
-      <c r="L70">
         <v>705</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>256</v>
       </c>
@@ -6946,25 +4366,10 @@
         <v>111</v>
       </c>
       <c r="G71">
-        <v>96</v>
-      </c>
-      <c r="H71">
-        <v>123</v>
-      </c>
-      <c r="I71">
-        <v>113</v>
-      </c>
-      <c r="J71">
-        <v>119</v>
-      </c>
-      <c r="K71">
-        <v>424</v>
-      </c>
-      <c r="L71">
         <v>669</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>298</v>
       </c>
@@ -6984,25 +4389,10 @@
         <v>206</v>
       </c>
       <c r="G72">
-        <v>141</v>
-      </c>
-      <c r="H72">
-        <v>82</v>
-      </c>
-      <c r="I72">
-        <v>72</v>
-      </c>
-      <c r="J72">
-        <v>60</v>
-      </c>
-      <c r="K72">
-        <v>589</v>
-      </c>
-      <c r="L72">
         <v>654</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>264</v>
       </c>
@@ -7022,25 +4412,10 @@
         <v>118</v>
       </c>
       <c r="G73">
-        <v>95</v>
-      </c>
-      <c r="H73">
-        <v>87</v>
-      </c>
-      <c r="I73">
-        <v>127</v>
-      </c>
-      <c r="J73">
-        <v>117</v>
-      </c>
-      <c r="K73">
-        <v>558</v>
-      </c>
-      <c r="L73">
         <v>692</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>376</v>
       </c>
@@ -7060,25 +4435,10 @@
         <v>234</v>
       </c>
       <c r="G74">
-        <v>169</v>
-      </c>
-      <c r="H74">
-        <v>176</v>
-      </c>
-      <c r="I74">
-        <v>168</v>
-      </c>
-      <c r="J74">
-        <v>217</v>
-      </c>
-      <c r="K74">
-        <v>456</v>
-      </c>
-      <c r="L74">
         <v>843</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>416</v>
       </c>
@@ -7098,25 +4458,10 @@
         <v>167</v>
       </c>
       <c r="G75">
-        <v>88</v>
-      </c>
-      <c r="H75">
-        <v>22</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>22</v>
-      </c>
-      <c r="K75">
-        <v>420</v>
-      </c>
-      <c r="L75">
         <v>503</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>349</v>
       </c>
@@ -7136,25 +4481,10 @@
         <v>164</v>
       </c>
       <c r="G76">
-        <v>152</v>
-      </c>
-      <c r="H76">
-        <v>126</v>
-      </c>
-      <c r="I76">
-        <v>126</v>
-      </c>
-      <c r="J76">
-        <v>149</v>
-      </c>
-      <c r="K76">
-        <v>546</v>
-      </c>
-      <c r="L76">
         <v>841</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>389</v>
       </c>
@@ -7174,25 +4504,10 @@
         <v>149</v>
       </c>
       <c r="G77">
-        <v>126</v>
-      </c>
-      <c r="H77">
-        <v>128</v>
-      </c>
-      <c r="I77">
-        <v>80</v>
-      </c>
-      <c r="J77">
-        <v>120</v>
-      </c>
-      <c r="K77">
-        <v>443</v>
-      </c>
-      <c r="L77">
         <v>656</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>310</v>
       </c>
@@ -7212,25 +4527,10 @@
         <v>162</v>
       </c>
       <c r="G78">
-        <v>266</v>
-      </c>
-      <c r="H78">
-        <v>181</v>
-      </c>
-      <c r="I78">
-        <v>176</v>
-      </c>
-      <c r="J78">
-        <v>234</v>
-      </c>
-      <c r="K78">
-        <v>587</v>
-      </c>
-      <c r="L78">
         <v>709</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>361</v>
       </c>
@@ -7250,25 +4550,10 @@
         <v>172</v>
       </c>
       <c r="G79">
-        <v>107</v>
-      </c>
-      <c r="H79">
-        <v>93</v>
-      </c>
-      <c r="I79">
-        <v>135</v>
-      </c>
-      <c r="J79">
-        <v>159</v>
-      </c>
-      <c r="K79">
-        <v>427</v>
-      </c>
-      <c r="L79">
         <v>729</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>234</v>
       </c>
@@ -7288,25 +4573,10 @@
         <v>159</v>
       </c>
       <c r="G80">
-        <v>149</v>
-      </c>
-      <c r="H80">
-        <v>161</v>
-      </c>
-      <c r="I80">
-        <v>136</v>
-      </c>
-      <c r="J80">
-        <v>141</v>
-      </c>
-      <c r="K80">
-        <v>547</v>
-      </c>
-      <c r="L80">
         <v>675</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>319</v>
       </c>
@@ -7326,25 +4596,10 @@
         <v>143</v>
       </c>
       <c r="G81">
-        <v>114</v>
-      </c>
-      <c r="H81">
-        <v>128</v>
-      </c>
-      <c r="I81">
-        <v>114</v>
-      </c>
-      <c r="J81">
-        <v>102</v>
-      </c>
-      <c r="K81">
-        <v>605</v>
-      </c>
-      <c r="L81">
         <v>704</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>380</v>
       </c>
@@ -7364,25 +4619,10 @@
         <v>206</v>
       </c>
       <c r="G82">
-        <v>210</v>
-      </c>
-      <c r="H82">
-        <v>178</v>
-      </c>
-      <c r="I82">
-        <v>174</v>
-      </c>
-      <c r="J82">
-        <v>222</v>
-      </c>
-      <c r="K82">
-        <v>656</v>
-      </c>
-      <c r="L82">
         <v>840</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>299</v>
       </c>
@@ -7402,25 +4642,10 @@
         <v>178</v>
       </c>
       <c r="G83">
-        <v>126</v>
-      </c>
-      <c r="H83">
-        <v>125</v>
-      </c>
-      <c r="I83">
-        <v>139</v>
-      </c>
-      <c r="J83">
-        <v>177</v>
-      </c>
-      <c r="K83">
-        <v>431</v>
-      </c>
-      <c r="L83">
         <v>861</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>406</v>
       </c>
@@ -7440,25 +4665,10 @@
         <v>233</v>
       </c>
       <c r="G84">
-        <v>129</v>
-      </c>
-      <c r="H84">
-        <v>147</v>
-      </c>
-      <c r="I84">
-        <v>132</v>
-      </c>
-      <c r="J84">
-        <v>132</v>
-      </c>
-      <c r="K84">
-        <v>560</v>
-      </c>
-      <c r="L84">
         <v>828</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>188</v>
       </c>
@@ -7478,25 +4688,10 @@
         <v>136</v>
       </c>
       <c r="G85">
-        <v>68</v>
-      </c>
-      <c r="H85">
-        <v>12</v>
-      </c>
-      <c r="I85">
-        <v>17</v>
-      </c>
-      <c r="J85">
-        <v>73</v>
-      </c>
-      <c r="K85">
-        <v>486</v>
-      </c>
-      <c r="L85">
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>338</v>
       </c>
@@ -7516,25 +4711,10 @@
         <v>227</v>
       </c>
       <c r="G86">
-        <v>107</v>
-      </c>
-      <c r="H86">
-        <v>100</v>
-      </c>
-      <c r="I86">
-        <v>124</v>
-      </c>
-      <c r="J86">
-        <v>102</v>
-      </c>
-      <c r="K86">
-        <v>325</v>
-      </c>
-      <c r="L86">
         <v>698</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>473</v>
       </c>
@@ -7554,25 +4734,10 @@
         <v>208</v>
       </c>
       <c r="G87">
-        <v>125</v>
-      </c>
-      <c r="H87">
-        <v>107</v>
-      </c>
-      <c r="I87">
-        <v>107</v>
-      </c>
-      <c r="J87">
-        <v>132</v>
-      </c>
-      <c r="K87">
-        <v>442</v>
-      </c>
-      <c r="L87">
         <v>719</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>512</v>
       </c>
@@ -7592,25 +4757,10 @@
         <v>222</v>
       </c>
       <c r="G88">
-        <v>232</v>
-      </c>
-      <c r="H88">
-        <v>161</v>
-      </c>
-      <c r="I88">
-        <v>239</v>
-      </c>
-      <c r="J88">
-        <v>189</v>
-      </c>
-      <c r="K88">
-        <v>755</v>
-      </c>
-      <c r="L88">
         <v>723</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>337</v>
       </c>
@@ -7630,25 +4780,10 @@
         <v>194</v>
       </c>
       <c r="G89">
-        <v>166</v>
-      </c>
-      <c r="H89">
-        <v>105</v>
-      </c>
-      <c r="I89">
-        <v>103</v>
-      </c>
-      <c r="J89">
-        <v>181</v>
-      </c>
-      <c r="K89">
-        <v>449</v>
-      </c>
-      <c r="L89">
         <v>696</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>189</v>
       </c>
@@ -7668,25 +4803,10 @@
         <v>79</v>
       </c>
       <c r="G90">
-        <v>144</v>
-      </c>
-      <c r="H90">
-        <v>147</v>
-      </c>
-      <c r="I90">
-        <v>184</v>
-      </c>
-      <c r="J90">
-        <v>135</v>
-      </c>
-      <c r="K90">
-        <v>523</v>
-      </c>
-      <c r="L90">
         <v>668</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>394</v>
       </c>
@@ -7706,25 +4826,10 @@
         <v>239</v>
       </c>
       <c r="G91">
-        <v>102</v>
-      </c>
-      <c r="H91">
-        <v>101</v>
-      </c>
-      <c r="I91">
-        <v>132</v>
-      </c>
-      <c r="J91">
-        <v>147</v>
-      </c>
-      <c r="K91">
-        <v>781</v>
-      </c>
-      <c r="L91">
         <v>831</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>362</v>
       </c>
@@ -7744,25 +4849,10 @@
         <v>440</v>
       </c>
       <c r="G92">
-        <v>176</v>
-      </c>
-      <c r="H92">
-        <v>126</v>
-      </c>
-      <c r="I92">
-        <v>205</v>
-      </c>
-      <c r="J92">
-        <v>269</v>
-      </c>
-      <c r="K92">
-        <v>509</v>
-      </c>
-      <c r="L92">
         <v>730</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>441</v>
       </c>
@@ -7782,25 +4872,10 @@
         <v>139</v>
       </c>
       <c r="G93">
-        <v>165</v>
-      </c>
-      <c r="H93">
-        <v>170</v>
-      </c>
-      <c r="I93">
-        <v>210</v>
-      </c>
-      <c r="J93">
-        <v>154</v>
-      </c>
-      <c r="K93">
-        <v>418</v>
-      </c>
-      <c r="L93">
         <v>665</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>450</v>
       </c>
@@ -7820,25 +4895,10 @@
         <v>180</v>
       </c>
       <c r="G94">
-        <v>145</v>
-      </c>
-      <c r="H94">
-        <v>115</v>
-      </c>
-      <c r="I94">
-        <v>103</v>
-      </c>
-      <c r="J94">
-        <v>112</v>
-      </c>
-      <c r="K94">
-        <v>471</v>
-      </c>
-      <c r="L94">
         <v>759</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>361</v>
       </c>
@@ -7858,25 +4918,10 @@
         <v>104</v>
       </c>
       <c r="G95">
-        <v>150</v>
-      </c>
-      <c r="H95">
-        <v>187</v>
-      </c>
-      <c r="I95">
-        <v>127</v>
-      </c>
-      <c r="J95">
-        <v>226</v>
-      </c>
-      <c r="K95">
-        <v>370</v>
-      </c>
-      <c r="L95">
         <v>787</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>438</v>
       </c>
@@ -7896,25 +4941,10 @@
         <v>441</v>
       </c>
       <c r="G96">
-        <v>238</v>
-      </c>
-      <c r="H96">
-        <v>173</v>
-      </c>
-      <c r="I96">
-        <v>148</v>
-      </c>
-      <c r="J96">
-        <v>173</v>
-      </c>
-      <c r="K96">
-        <v>618</v>
-      </c>
-      <c r="L96">
         <v>816</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>361</v>
       </c>
@@ -7934,25 +4964,10 @@
         <v>257</v>
       </c>
       <c r="G97">
-        <v>149</v>
-      </c>
-      <c r="H97">
-        <v>133</v>
-      </c>
-      <c r="I97">
-        <v>181</v>
-      </c>
-      <c r="J97">
-        <v>211</v>
-      </c>
-      <c r="K97">
-        <v>544</v>
-      </c>
-      <c r="L97">
         <v>617</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>261</v>
       </c>
@@ -7972,25 +4987,10 @@
         <v>245</v>
       </c>
       <c r="G98">
-        <v>172</v>
-      </c>
-      <c r="H98">
-        <v>158</v>
-      </c>
-      <c r="I98">
-        <v>158</v>
-      </c>
-      <c r="J98">
-        <v>127</v>
-      </c>
-      <c r="K98">
-        <v>535</v>
-      </c>
-      <c r="L98">
         <v>784</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>405</v>
       </c>
@@ -8010,25 +5010,10 @@
         <v>155</v>
       </c>
       <c r="G99">
-        <v>217</v>
-      </c>
-      <c r="H99">
-        <v>205</v>
-      </c>
-      <c r="I99">
-        <v>217</v>
-      </c>
-      <c r="J99">
-        <v>226</v>
-      </c>
-      <c r="K99">
-        <v>595</v>
-      </c>
-      <c r="L99">
         <v>675</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>405</v>
       </c>
@@ -8048,25 +5033,10 @@
         <v>191</v>
       </c>
       <c r="G100">
-        <v>131</v>
-      </c>
-      <c r="H100">
-        <v>131</v>
-      </c>
-      <c r="I100">
-        <v>131</v>
-      </c>
-      <c r="J100">
-        <v>155</v>
-      </c>
-      <c r="K100">
-        <v>460</v>
-      </c>
-      <c r="L100">
         <v>766</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>312</v>
       </c>
@@ -8086,21 +5056,6 @@
         <v>129</v>
       </c>
       <c r="G101">
-        <v>116</v>
-      </c>
-      <c r="H101">
-        <v>53</v>
-      </c>
-      <c r="I101">
-        <v>53</v>
-      </c>
-      <c r="J101">
-        <v>48</v>
-      </c>
-      <c r="K101">
-        <v>373</v>
-      </c>
-      <c r="L101">
         <v>609</v>
       </c>
     </row>
@@ -8111,13 +5066,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8139,23 +5094,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.5714285714285714</v>
       </c>
@@ -8175,25 +5115,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="H2">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="I2">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J2">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="K2">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L2">
         <v>0.3214285714285715</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.6785714285714286</v>
       </c>
@@ -8213,25 +5138,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G3">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H3">
         <v>0.6785714285714286</v>
       </c>
-      <c r="I3">
-        <v>0.75</v>
-      </c>
-      <c r="J3">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="K3">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="L3">
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.4642857142857143</v>
       </c>
@@ -8251,25 +5161,10 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G4">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="H4">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="I4">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J4">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K4">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L4">
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.2857142857142857</v>
       </c>
@@ -8289,25 +5184,10 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G5">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="H5">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="I5">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="J5">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="K5">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L5">
         <v>0.3928571428571428</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.4642857142857143</v>
       </c>
@@ -8327,25 +5207,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G6">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H6">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="I6">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J6">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="K6">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.5357142857142857</v>
       </c>
@@ -8365,25 +5230,10 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G7">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="H7">
         <v>0.3214285714285715</v>
       </c>
-      <c r="I7">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="J7">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K7">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L7">
-        <v>0.3214285714285715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.5357142857142857</v>
       </c>
@@ -8403,25 +5253,10 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
-      </c>
-      <c r="H8">
         <v>0.5714285714285714</v>
       </c>
-      <c r="I8">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="J8">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="K8">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L8">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.1785714285714286</v>
       </c>
@@ -8441,25 +5276,10 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G9">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="H9">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="I9">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="J9">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="K9">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L9">
         <v>0.3214285714285715</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.25</v>
       </c>
@@ -8479,25 +5299,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="G10">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="H10">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="I10">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="J10">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="K10">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="L10">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.3928571428571428</v>
       </c>
@@ -8517,25 +5322,10 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G11">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="H11">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="I11">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="J11">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="K11">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="L11">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.1428571428571428</v>
       </c>
@@ -8557,23 +5347,8 @@
       <c r="G12">
         <v>0.1785714285714286</v>
       </c>
-      <c r="H12">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="I12">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="J12">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="K12">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L12">
-        <v>0.1785714285714286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.7142857142857143</v>
       </c>
@@ -8595,23 +5370,8 @@
       <c r="G13">
         <v>0.5</v>
       </c>
-      <c r="H13">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="I13">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="J13">
-        <v>0.5</v>
-      </c>
-      <c r="K13">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.4642857142857143</v>
       </c>
@@ -8631,25 +5391,10 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G14">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="H14">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="I14">
-        <v>0.25</v>
-      </c>
-      <c r="J14">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
-      </c>
-      <c r="L14">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.6071428571428571</v>
       </c>
@@ -8669,25 +5414,10 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G15">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H15">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="I15">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="J15">
         <v>0.5</v>
       </c>
-      <c r="K15">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.7142857142857143</v>
       </c>
@@ -8707,25 +5437,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
-      </c>
-      <c r="H16">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="I16">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="J16">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="K16">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L16">
         <v>0.3928571428571428</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>0.4285714285714285</v>
       </c>
@@ -8745,25 +5460,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G17">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H17">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="I17">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="J17">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K17">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L17">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>0.5714285714285714</v>
       </c>
@@ -8783,25 +5483,10 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G18">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H18">
         <v>0.6428571428571429</v>
       </c>
-      <c r="I18">
-        <v>0.75</v>
-      </c>
-      <c r="J18">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="K18">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L18">
-        <v>0.6428571428571429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>0.3928571428571428</v>
       </c>
@@ -8823,23 +5508,8 @@
       <c r="G19">
         <v>0.25</v>
       </c>
-      <c r="H19">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="I19">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="J19">
-        <v>0.25</v>
-      </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>0.5714285714285714</v>
       </c>
@@ -8859,25 +5529,10 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="H20">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="I20">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="J20">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="K20">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L20">
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>0.6785714285714286</v>
       </c>
@@ -8897,25 +5552,10 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="G21">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="H21">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="I21">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J21">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="K21">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L21">
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>0.3214285714285715</v>
       </c>
@@ -8935,25 +5575,10 @@
         <v>0.1071428571428571</v>
       </c>
       <c r="G22">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="H22">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="I22">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="J22">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="K22">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L22">
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>0.2857142857142857</v>
       </c>
@@ -8973,25 +5598,10 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G23">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H23">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="I23">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="J23">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="K23">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L23">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -9011,25 +5621,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G24">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H24">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="I24">
-        <v>0.5</v>
-      </c>
-      <c r="J24">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="K24">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L24">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>0.7142857142857143</v>
       </c>
@@ -9049,25 +5644,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G25">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="H25">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="I25">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="J25">
-        <v>0.75</v>
-      </c>
-      <c r="K25">
         <v>0.6785714285714286</v>
       </c>
-      <c r="L25">
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>0.6071428571428571</v>
       </c>
@@ -9087,25 +5667,10 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="G26">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H26">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="I26">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="J26">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K26">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>0.4642857142857143</v>
       </c>
@@ -9125,25 +5690,10 @@
         <v>0.25</v>
       </c>
       <c r="G27">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="H27">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="I27">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J27">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="K27">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="L27">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>0.6785714285714286</v>
       </c>
@@ -9163,25 +5713,10 @@
         <v>0.5</v>
       </c>
       <c r="G28">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="H28">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I28">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J28">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K28">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="L28">
         <v>0.4285714285714285</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>0.5</v>
       </c>
@@ -9201,25 +5736,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G29">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="H29">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="I29">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="J29">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="K29">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="L29">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>0.5714285714285714</v>
       </c>
@@ -9241,23 +5761,8 @@
       <c r="G30">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H30">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="I30">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="J30">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="K30">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L30">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>0.6428571428571429</v>
       </c>
@@ -9277,25 +5782,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G31">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="H31">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="I31">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J31">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="K31">
-        <v>0.5</v>
-      </c>
-      <c r="L31">
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>0.6428571428571429</v>
       </c>
@@ -9315,25 +5805,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G32">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H32">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="I32">
-        <v>0.75</v>
-      </c>
-      <c r="J32">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="K32">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L32">
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>0.4642857142857143</v>
       </c>
@@ -9353,25 +5828,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G33">
-        <v>0.25</v>
-      </c>
-      <c r="H33">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="I33">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="J33">
-        <v>0.5</v>
-      </c>
-      <c r="K33">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L33">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>0.3571428571428572</v>
       </c>
@@ -9391,25 +5851,10 @@
         <v>0.25</v>
       </c>
       <c r="G34">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="H34">
-        <v>0.25</v>
-      </c>
-      <c r="I34">
-        <v>0.25</v>
-      </c>
-      <c r="J34">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="K34">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L34">
         <v>0.2142857142857143</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>0.5357142857142857</v>
       </c>
@@ -9429,25 +5874,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G35">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="H35">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="I35">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="J35">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="K35">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L35">
         <v>0.3214285714285715</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>0.3928571428571428</v>
       </c>
@@ -9467,25 +5897,10 @@
         <v>0.25</v>
       </c>
       <c r="G36">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H36">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="I36">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="J36">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="K36">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L36">
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>0.3214285714285715</v>
       </c>
@@ -9505,25 +5920,10 @@
         <v>0.25</v>
       </c>
       <c r="G37">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H37">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="I37">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="J37">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="K37">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L37">
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>0.5357142857142857</v>
       </c>
@@ -9543,25 +5943,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G38">
-        <v>0.5</v>
-      </c>
-      <c r="H38">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="I38">
-        <v>0.5</v>
-      </c>
-      <c r="J38">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K38">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L38">
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>0.5</v>
       </c>
@@ -9581,25 +5966,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G39">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="H39">
         <v>0.4642857142857143</v>
       </c>
-      <c r="I39">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="J39">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="K39">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L39">
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>0.6428571428571429</v>
       </c>
@@ -9619,25 +5989,10 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G40">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="H40">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="I40">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J40">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="K40">
-        <v>0.5</v>
-      </c>
-      <c r="L40">
         <v>0.3928571428571428</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>0.6071428571428571</v>
       </c>
@@ -9657,25 +6012,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G41">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="H41">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="I41">
-        <v>0.5</v>
-      </c>
-      <c r="J41">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K41">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L41">
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>0.6785714285714286</v>
       </c>
@@ -9695,25 +6035,10 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G42">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H42">
         <v>0.3571428571428572</v>
       </c>
-      <c r="I42">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="J42">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="K42">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L42">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>0.5714285714285714</v>
       </c>
@@ -9733,25 +6058,10 @@
         <v>0.25</v>
       </c>
       <c r="G43">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="H43">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="I43">
-        <v>0.25</v>
-      </c>
-      <c r="J43">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K43">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L43">
         <v>0.4285714285714285</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>0.5357142857142857</v>
       </c>
@@ -9771,25 +6081,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G44">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="H44">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="I44">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="J44">
-        <v>0.5</v>
-      </c>
-      <c r="K44">
         <v>0.5357142857142857</v>
       </c>
-      <c r="L44">
-        <v>0.5357142857142857</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>0.6071428571428571</v>
       </c>
@@ -9809,25 +6104,10 @@
         <v>0.5</v>
       </c>
       <c r="G45">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="H45">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="I45">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="J45">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K45">
-        <v>0.5</v>
-      </c>
-      <c r="L45">
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>0.5357142857142857</v>
       </c>
@@ -9847,25 +6127,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G46">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="H46">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="I46">
         <v>0.2857142857142857</v>
       </c>
-      <c r="J46">
-        <v>0.5</v>
-      </c>
-      <c r="K46">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L46">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>0.6428571428571429</v>
       </c>
@@ -9885,25 +6150,10 @@
         <v>0.5</v>
       </c>
       <c r="G47">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="H47">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="I47">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="J47">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="K47">
-        <v>0.5</v>
-      </c>
-      <c r="L47">
         <v>0.4285714285714285</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>0.6071428571428571</v>
       </c>
@@ -9925,23 +6175,8 @@
       <c r="G48">
         <v>0.5714285714285714</v>
       </c>
-      <c r="H48">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="I48">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="J48">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="K48">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L48">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>0.4285714285714285</v>
       </c>
@@ -9961,25 +6196,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G49">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="H49">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I49">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="J49">
         <v>0.3571428571428572</v>
       </c>
-      <c r="K49">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L49">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>0.5357142857142857</v>
       </c>
@@ -9999,25 +6219,10 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G50">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="H50">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I50">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="J50">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="K50">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L50">
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>0.3214285714285715</v>
       </c>
@@ -10037,25 +6242,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G51">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="H51">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="I51">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="J51">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="K51">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L51">
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>0.4642857142857143</v>
       </c>
@@ -10077,23 +6267,8 @@
       <c r="G52">
         <v>0.3928571428571428</v>
       </c>
-      <c r="H52">
-        <v>0.25</v>
-      </c>
-      <c r="I52">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="J52">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K52">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L52">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>0.4285714285714285</v>
       </c>
@@ -10113,25 +6288,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G53">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="H53">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="I53">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J53">
         <v>0.2857142857142857</v>
       </c>
-      <c r="K53">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L53">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>0.5357142857142857</v>
       </c>
@@ -10151,25 +6311,10 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G54">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="H54">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="I54">
         <v>0.3571428571428572</v>
       </c>
-      <c r="J54">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="K54">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L54">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>0.5357142857142857</v>
       </c>
@@ -10189,25 +6334,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G55">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H55">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="I55">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="J55">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K55">
-        <v>0.5</v>
-      </c>
-      <c r="L55">
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>0.5</v>
       </c>
@@ -10227,25 +6357,10 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G56">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H56">
-        <v>0.25</v>
-      </c>
-      <c r="I56">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J56">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="K56">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L56">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>0.4642857142857143</v>
       </c>
@@ -10265,25 +6380,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G57">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="H57">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="I57">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="J57">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="K57">
-        <v>0.5</v>
-      </c>
-      <c r="L57">
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>0.4285714285714285</v>
       </c>
@@ -10303,25 +6403,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G58">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H58">
-        <v>0.5</v>
-      </c>
-      <c r="I58">
-        <v>0.5</v>
-      </c>
-      <c r="J58">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K58">
-        <v>0.5</v>
-      </c>
-      <c r="L58">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>0.4642857142857143</v>
       </c>
@@ -10341,25 +6426,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G59">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="H59">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="I59">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J59">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="K59">
         <v>0.4285714285714285</v>
       </c>
-      <c r="L59">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>0.8214285714285714</v>
       </c>
@@ -10379,25 +6449,10 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G60">
-        <v>0.5</v>
-      </c>
-      <c r="H60">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="I60">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="J60">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="K60">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L60">
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>0.4642857142857143</v>
       </c>
@@ -10417,25 +6472,10 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G61">
-        <v>0.25</v>
-      </c>
-      <c r="H61">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="I61">
         <v>0.3214285714285715</v>
       </c>
-      <c r="J61">
-        <v>0.25</v>
-      </c>
-      <c r="K61">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L61">
-        <v>0.3214285714285715</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>0.5</v>
       </c>
@@ -10455,25 +6495,10 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G62">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="H62">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="I62">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="J62">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="K62">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L62">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>0.6071428571428571</v>
       </c>
@@ -10493,25 +6518,10 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G63">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H63">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="I63">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="J63">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="K63">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L63">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>0.4642857142857143</v>
       </c>
@@ -10531,25 +6541,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G64">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H64">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="I64">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="J64">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="K64">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L64">
         <v>0.3928571428571428</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>0.6428571428571429</v>
       </c>
@@ -10569,25 +6564,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G65">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="H65">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="I65">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="J65">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K65">
         <v>0.3928571428571428</v>
       </c>
-      <c r="L65">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>0.6785714285714286</v>
       </c>
@@ -10607,25 +6587,10 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G66">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="H66">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="I66">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J66">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K66">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L66">
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>0.3571428571428572</v>
       </c>
@@ -10645,25 +6610,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G67">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H67">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="I67">
-        <v>0.25</v>
-      </c>
-      <c r="J67">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K67">
-        <v>0.5</v>
-      </c>
-      <c r="L67">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>0.3928571428571428</v>
       </c>
@@ -10683,25 +6633,10 @@
         <v>0.5</v>
       </c>
       <c r="G68">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H68">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="I68">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="J68">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K68">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L68">
         <v>0.3928571428571428</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>0.7142857142857143</v>
       </c>
@@ -10721,25 +6656,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G69">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H69">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="I69">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="J69">
-        <v>0.75</v>
-      </c>
-      <c r="K69">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L69">
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>0.75</v>
       </c>
@@ -10759,25 +6679,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G70">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H70">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="I70">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="J70">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K70">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L70">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>0.6071428571428571</v>
       </c>
@@ -10797,25 +6702,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G71">
-        <v>0.25</v>
-      </c>
-      <c r="H71">
         <v>0.3214285714285715</v>
       </c>
-      <c r="I71">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="J71">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K71">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L71">
-        <v>0.3214285714285715</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>0.6071428571428571</v>
       </c>
@@ -10835,25 +6725,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G72">
-        <v>0.25</v>
-      </c>
-      <c r="H72">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="I72">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="J72">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="K72">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L72">
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>0.5</v>
       </c>
@@ -10873,25 +6748,10 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G73">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="H73">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="I73">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J73">
         <v>0.3928571428571428</v>
       </c>
-      <c r="K73">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="L73">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>0.75</v>
       </c>
@@ -10911,25 +6771,10 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="G74">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="H74">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="I74">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="J74">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="K74">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L74">
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>0.3928571428571428</v>
       </c>
@@ -10949,25 +6794,10 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G75">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="H75">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="K75">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="L75">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>0.5</v>
       </c>
@@ -10989,23 +6819,8 @@
       <c r="G76">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H76">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I76">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J76">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="K76">
-        <v>0.5</v>
-      </c>
-      <c r="L76">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>0.7142857142857143</v>
       </c>
@@ -11025,25 +6840,10 @@
         <v>0.5</v>
       </c>
       <c r="G77">
-        <v>0.25</v>
-      </c>
-      <c r="H77">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="I77">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="J77">
-        <v>0.5</v>
-      </c>
-      <c r="K77">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L77">
         <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>0.5714285714285714</v>
       </c>
@@ -11063,25 +6863,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G78">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H78">
-        <v>0.5</v>
-      </c>
-      <c r="I78">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="J78">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K78">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L78">
         <v>0.3928571428571428</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>0.5714285714285714</v>
       </c>
@@ -11103,23 +6888,8 @@
       <c r="G79">
         <v>0.3571428571428572</v>
       </c>
-      <c r="H79">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="I79">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="J79">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K79">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L79">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>0.3928571428571428</v>
       </c>
@@ -11139,25 +6909,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G80">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="H80">
-        <v>0.25</v>
-      </c>
-      <c r="I80">
-        <v>0.25</v>
-      </c>
-      <c r="J80">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="K80">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="L80">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>0.2142857142857143</v>
       </c>
@@ -11177,25 +6932,10 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G81">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="H81">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="I81">
-        <v>0.25</v>
-      </c>
-      <c r="J81">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K81">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L81">
         <v>0.3214285714285715</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>0.5</v>
       </c>
@@ -11215,25 +6955,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G82">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="H82">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I82">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="J82">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="K82">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L82">
         <v>0.3928571428571428</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>0.3928571428571428</v>
       </c>
@@ -11253,25 +6978,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G83">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H83">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="I83">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="J83">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="K83">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L83">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>0.4285714285714285</v>
       </c>
@@ -11291,25 +7001,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G84">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="H84">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="I84">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J84">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="K84">
-        <v>0.5</v>
-      </c>
-      <c r="L84">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>0.3928571428571428</v>
       </c>
@@ -11329,25 +7024,10 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G85">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H85">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="I85">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="J85">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="K85">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L85">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>0.5714285714285714</v>
       </c>
@@ -11367,25 +7047,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G86">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H86">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="I86">
         <v>0.5</v>
       </c>
-      <c r="J86">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="K86">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L86">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>0.7142857142857143</v>
       </c>
@@ -11405,25 +7070,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G87">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="H87">
-        <v>0.5</v>
-      </c>
-      <c r="I87">
-        <v>0.5</v>
-      </c>
-      <c r="J87">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="K87">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L87">
         <v>0.4285714285714285</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>0.6785714285714286</v>
       </c>
@@ -11443,25 +7093,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G88">
-        <v>0.75</v>
-      </c>
-      <c r="H88">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="I88">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J88">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="K88">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L88">
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>0.7142857142857143</v>
       </c>
@@ -11481,25 +7116,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G89">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="H89">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="I89">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="J89">
-        <v>0.75</v>
-      </c>
-      <c r="K89">
-        <v>0.5</v>
-      </c>
-      <c r="L89">
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>0.1785714285714286</v>
       </c>
@@ -11519,25 +7139,10 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G90">
-        <v>0.25</v>
-      </c>
-      <c r="H90">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I90">
-        <v>0.25</v>
-      </c>
-      <c r="J90">
-        <v>0.25</v>
-      </c>
-      <c r="K90">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="L90">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>0.5714285714285714</v>
       </c>
@@ -11557,25 +7162,10 @@
         <v>0.5</v>
       </c>
       <c r="G91">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H91">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="I91">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="J91">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K91">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L91">
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>0.6071428571428571</v>
       </c>
@@ -11595,25 +7185,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G92">
-        <v>0.5</v>
-      </c>
-      <c r="H92">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="I92">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="J92">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="K92">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L92">
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>0.75</v>
       </c>
@@ -11633,25 +7208,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G93">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H93">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="I93">
-        <v>0.5</v>
-      </c>
-      <c r="J93">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="K93">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L93">
         <v>0.4285714285714285</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>0.5357142857142857</v>
       </c>
@@ -11671,25 +7231,10 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G94">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H94">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="I94">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="J94">
         <v>0.3928571428571428</v>
       </c>
-      <c r="K94">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="L94">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>0.25</v>
       </c>
@@ -11709,25 +7254,10 @@
         <v>0.1071428571428571</v>
       </c>
       <c r="G95">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H95">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="I95">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="J95">
-        <v>0.25</v>
-      </c>
-      <c r="K95">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="L95">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>0.7857142857142857</v>
       </c>
@@ -11747,25 +7277,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G96">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="H96">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="I96">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="J96">
-        <v>0.75</v>
-      </c>
-      <c r="K96">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L96">
         <v>0.4285714285714285</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>0.6071428571428571</v>
       </c>
@@ -11785,25 +7300,10 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="G97">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="H97">
-        <v>0.75</v>
-      </c>
-      <c r="I97">
-        <v>0.75</v>
-      </c>
-      <c r="J97">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K97">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L97">
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>0.5357142857142857</v>
       </c>
@@ -11823,25 +7323,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G98">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H98">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="I98">
-        <v>0.5</v>
-      </c>
-      <c r="J98">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="K98">
-        <v>0.5</v>
-      </c>
-      <c r="L98">
         <v>0.3928571428571428</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>0.5357142857142857</v>
       </c>
@@ -11863,23 +7348,8 @@
       <c r="G99">
         <v>0.3928571428571428</v>
       </c>
-      <c r="H99">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="I99">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="J99">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K99">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L99">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>0.5714285714285714</v>
       </c>
@@ -11899,25 +7369,10 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G100">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H100">
         <v>0.4642857142857143</v>
       </c>
-      <c r="I100">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="J100">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K100">
-        <v>0.5</v>
-      </c>
-      <c r="L100">
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>0.6785714285714286</v>
       </c>
@@ -11937,21 +7392,6 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G101">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="H101">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I101">
-        <v>0.5</v>
-      </c>
-      <c r="J101">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K101">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L101">
         <v>0.4285714285714285</v>
       </c>
     </row>

--- a/experiment/jsp/my_tardy_result70.xlsx
+++ b/experiment/jsp/my_tardy_result70.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>FIFO</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>deep MARL-RS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>SRO</t>
+  </si>
+  <si>
+    <t>EDD</t>
   </si>
   <si>
     <t>RL</t>
@@ -394,13 +406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +434,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>2838</v>
       </c>
@@ -443,10 +467,22 @@
         <v>1081</v>
       </c>
       <c r="G2">
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>893</v>
+      </c>
+      <c r="H2">
+        <v>625</v>
+      </c>
+      <c r="I2">
+        <v>736</v>
+      </c>
+      <c r="J2">
+        <v>765</v>
+      </c>
+      <c r="K2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>3386</v>
       </c>
@@ -466,10 +502,22 @@
         <v>2076</v>
       </c>
       <c r="G3">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1412</v>
+      </c>
+      <c r="H3">
+        <v>1626</v>
+      </c>
+      <c r="I3">
+        <v>1462</v>
+      </c>
+      <c r="J3">
+        <v>1378</v>
+      </c>
+      <c r="K3">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1365</v>
       </c>
@@ -489,10 +537,22 @@
         <v>723</v>
       </c>
       <c r="G4">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1065</v>
+      </c>
+      <c r="H4">
+        <v>1103</v>
+      </c>
+      <c r="I4">
+        <v>647</v>
+      </c>
+      <c r="J4">
+        <v>773</v>
+      </c>
+      <c r="K4">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1053</v>
       </c>
@@ -512,10 +572,22 @@
         <v>792</v>
       </c>
       <c r="G5">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H5">
+        <v>96</v>
+      </c>
+      <c r="I5">
+        <v>141</v>
+      </c>
+      <c r="J5">
+        <v>153</v>
+      </c>
+      <c r="K5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1973</v>
       </c>
@@ -535,10 +607,22 @@
         <v>1022</v>
       </c>
       <c r="G6">
-        <v>3627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>775</v>
+      </c>
+      <c r="H6">
+        <v>966</v>
+      </c>
+      <c r="I6">
+        <v>949</v>
+      </c>
+      <c r="J6">
+        <v>889</v>
+      </c>
+      <c r="K6">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1710</v>
       </c>
@@ -558,10 +642,22 @@
         <v>971</v>
       </c>
       <c r="G7">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>283</v>
+      </c>
+      <c r="H7">
+        <v>238</v>
+      </c>
+      <c r="I7">
+        <v>107</v>
+      </c>
+      <c r="J7">
+        <v>467</v>
+      </c>
+      <c r="K7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2151</v>
       </c>
@@ -581,10 +677,22 @@
         <v>1227</v>
       </c>
       <c r="G8">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1716</v>
+      </c>
+      <c r="H8">
+        <v>1215</v>
+      </c>
+      <c r="I8">
+        <v>1178</v>
+      </c>
+      <c r="J8">
+        <v>1409</v>
+      </c>
+      <c r="K8">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>671</v>
       </c>
@@ -604,10 +712,22 @@
         <v>307</v>
       </c>
       <c r="G9">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>172</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>284</v>
+      </c>
+      <c r="K9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>735</v>
       </c>
@@ -627,10 +747,22 @@
         <v>233</v>
       </c>
       <c r="G10">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="H10">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>89</v>
+      </c>
+      <c r="J10">
+        <v>155</v>
+      </c>
+      <c r="K10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>1068</v>
       </c>
@@ -650,10 +782,22 @@
         <v>108</v>
       </c>
       <c r="G11">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>187</v>
+      </c>
+      <c r="H11">
+        <v>291</v>
+      </c>
+      <c r="I11">
+        <v>157</v>
+      </c>
+      <c r="J11">
+        <v>244</v>
+      </c>
+      <c r="K11">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>543</v>
       </c>
@@ -673,10 +817,22 @@
         <v>234</v>
       </c>
       <c r="G12">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>358</v>
+      </c>
+      <c r="H12">
+        <v>269</v>
+      </c>
+      <c r="I12">
+        <v>264</v>
+      </c>
+      <c r="J12">
+        <v>499</v>
+      </c>
+      <c r="K12">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>3421</v>
       </c>
@@ -696,10 +852,22 @@
         <v>1271</v>
       </c>
       <c r="G13">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1009</v>
+      </c>
+      <c r="H13">
+        <v>1010</v>
+      </c>
+      <c r="I13">
+        <v>1108</v>
+      </c>
+      <c r="J13">
+        <v>1151</v>
+      </c>
+      <c r="K13">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2110</v>
       </c>
@@ -719,10 +887,22 @@
         <v>700</v>
       </c>
       <c r="G14">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>246</v>
+      </c>
+      <c r="H14">
+        <v>448</v>
+      </c>
+      <c r="I14">
+        <v>332</v>
+      </c>
+      <c r="J14">
+        <v>242</v>
+      </c>
+      <c r="K14">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2916</v>
       </c>
@@ -742,10 +922,22 @@
         <v>786</v>
       </c>
       <c r="G15">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>468</v>
+      </c>
+      <c r="H15">
+        <v>560</v>
+      </c>
+      <c r="I15">
+        <v>438</v>
+      </c>
+      <c r="J15">
+        <v>922</v>
+      </c>
+      <c r="K15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>4114</v>
       </c>
@@ -765,10 +957,22 @@
         <v>2406</v>
       </c>
       <c r="G16">
-        <v>3659</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1466</v>
+      </c>
+      <c r="H16">
+        <v>1426</v>
+      </c>
+      <c r="I16">
+        <v>1343</v>
+      </c>
+      <c r="J16">
+        <v>1326</v>
+      </c>
+      <c r="K16">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2462</v>
       </c>
@@ -788,10 +992,22 @@
         <v>1274</v>
       </c>
       <c r="G17">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>699</v>
+      </c>
+      <c r="H17">
+        <v>872</v>
+      </c>
+      <c r="I17">
+        <v>869</v>
+      </c>
+      <c r="J17">
+        <v>1068</v>
+      </c>
+      <c r="K17">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>3008</v>
       </c>
@@ -811,10 +1027,22 @@
         <v>847</v>
       </c>
       <c r="G18">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1058</v>
+      </c>
+      <c r="H18">
+        <v>1053</v>
+      </c>
+      <c r="I18">
+        <v>1004</v>
+      </c>
+      <c r="J18">
+        <v>1548</v>
+      </c>
+      <c r="K18">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>1154</v>
       </c>
@@ -834,10 +1062,22 @@
         <v>1012</v>
       </c>
       <c r="G19">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>228</v>
+      </c>
+      <c r="H19">
+        <v>387</v>
+      </c>
+      <c r="I19">
+        <v>324</v>
+      </c>
+      <c r="J19">
+        <v>408</v>
+      </c>
+      <c r="K19">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>2043</v>
       </c>
@@ -857,10 +1097,22 @@
         <v>875</v>
       </c>
       <c r="G20">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>53</v>
+      </c>
+      <c r="K20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>4108</v>
       </c>
@@ -880,10 +1132,22 @@
         <v>1971</v>
       </c>
       <c r="G21">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>2388</v>
+      </c>
+      <c r="H21">
+        <v>1996</v>
+      </c>
+      <c r="I21">
+        <v>2058</v>
+      </c>
+      <c r="J21">
+        <v>2139</v>
+      </c>
+      <c r="K21">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>1250</v>
       </c>
@@ -903,10 +1167,22 @@
         <v>276</v>
       </c>
       <c r="G22">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>277</v>
+      </c>
+      <c r="H22">
+        <v>282</v>
+      </c>
+      <c r="I22">
+        <v>285</v>
+      </c>
+      <c r="J22">
+        <v>233</v>
+      </c>
+      <c r="K22">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>996</v>
       </c>
@@ -926,10 +1202,22 @@
         <v>348</v>
       </c>
       <c r="G23">
-        <v>3183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>116</v>
+      </c>
+      <c r="H23">
+        <v>159</v>
+      </c>
+      <c r="I23">
+        <v>217</v>
+      </c>
+      <c r="J23">
+        <v>155</v>
+      </c>
+      <c r="K23">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>1668</v>
       </c>
@@ -949,10 +1237,22 @@
         <v>767</v>
       </c>
       <c r="G24">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>653</v>
+      </c>
+      <c r="H24">
+        <v>605</v>
+      </c>
+      <c r="I24">
+        <v>571</v>
+      </c>
+      <c r="J24">
+        <v>672</v>
+      </c>
+      <c r="K24">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>3700</v>
       </c>
@@ -972,10 +1272,22 @@
         <v>1582</v>
       </c>
       <c r="G25">
-        <v>3677</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>1158</v>
+      </c>
+      <c r="H25">
+        <v>1005</v>
+      </c>
+      <c r="I25">
+        <v>1413</v>
+      </c>
+      <c r="J25">
+        <v>953</v>
+      </c>
+      <c r="K25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>3631</v>
       </c>
@@ -995,10 +1307,22 @@
         <v>1627</v>
       </c>
       <c r="G26">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>1244</v>
+      </c>
+      <c r="H26">
+        <v>1413</v>
+      </c>
+      <c r="I26">
+        <v>1548</v>
+      </c>
+      <c r="J26">
+        <v>1154</v>
+      </c>
+      <c r="K26">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>1434</v>
       </c>
@@ -1018,10 +1342,22 @@
         <v>303</v>
       </c>
       <c r="G27">
-        <v>2744</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>870</v>
+      </c>
+      <c r="H27">
+        <v>488</v>
+      </c>
+      <c r="I27">
+        <v>650</v>
+      </c>
+      <c r="J27">
+        <v>693</v>
+      </c>
+      <c r="K27">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>1411</v>
       </c>
@@ -1041,10 +1377,22 @@
         <v>1056</v>
       </c>
       <c r="G28">
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>467</v>
+      </c>
+      <c r="H28">
+        <v>418</v>
+      </c>
+      <c r="I28">
+        <v>426</v>
+      </c>
+      <c r="J28">
+        <v>497</v>
+      </c>
+      <c r="K28">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>1932</v>
       </c>
@@ -1064,10 +1412,22 @@
         <v>750</v>
       </c>
       <c r="G29">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>323</v>
+      </c>
+      <c r="H29">
+        <v>363</v>
+      </c>
+      <c r="I29">
+        <v>412</v>
+      </c>
+      <c r="J29">
+        <v>382</v>
+      </c>
+      <c r="K29">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>2344</v>
       </c>
@@ -1087,10 +1447,22 @@
         <v>1568</v>
       </c>
       <c r="G30">
-        <v>2770</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>797</v>
+      </c>
+      <c r="H30">
+        <v>1403</v>
+      </c>
+      <c r="I30">
+        <v>973</v>
+      </c>
+      <c r="J30">
+        <v>1395</v>
+      </c>
+      <c r="K30">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>3525</v>
       </c>
@@ -1110,10 +1482,22 @@
         <v>2306</v>
       </c>
       <c r="G31">
-        <v>4061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>1665</v>
+      </c>
+      <c r="H31">
+        <v>1803</v>
+      </c>
+      <c r="I31">
+        <v>1587</v>
+      </c>
+      <c r="J31">
+        <v>1520</v>
+      </c>
+      <c r="K31">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>4051</v>
       </c>
@@ -1133,10 +1517,22 @@
         <v>1708</v>
       </c>
       <c r="G32">
-        <v>4239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>1915</v>
+      </c>
+      <c r="H32">
+        <v>1546</v>
+      </c>
+      <c r="I32">
+        <v>1946</v>
+      </c>
+      <c r="J32">
+        <v>1800</v>
+      </c>
+      <c r="K32">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>1339</v>
       </c>
@@ -1156,10 +1552,22 @@
         <v>800</v>
       </c>
       <c r="G33">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>604</v>
+      </c>
+      <c r="H33">
+        <v>690</v>
+      </c>
+      <c r="I33">
+        <v>405</v>
+      </c>
+      <c r="J33">
+        <v>476</v>
+      </c>
+      <c r="K33">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>1511</v>
       </c>
@@ -1179,10 +1587,22 @@
         <v>356</v>
       </c>
       <c r="G34">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>300</v>
+      </c>
+      <c r="H34">
+        <v>268</v>
+      </c>
+      <c r="I34">
+        <v>258</v>
+      </c>
+      <c r="J34">
+        <v>315</v>
+      </c>
+      <c r="K34">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>2235</v>
       </c>
@@ -1202,10 +1622,22 @@
         <v>852</v>
       </c>
       <c r="G35">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>490</v>
+      </c>
+      <c r="H35">
+        <v>823</v>
+      </c>
+      <c r="I35">
+        <v>671</v>
+      </c>
+      <c r="J35">
+        <v>627</v>
+      </c>
+      <c r="K35">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>1099</v>
       </c>
@@ -1225,10 +1657,22 @@
         <v>437</v>
       </c>
       <c r="G36">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H36">
+        <v>217</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>1059</v>
       </c>
@@ -1248,10 +1692,22 @@
         <v>392</v>
       </c>
       <c r="G37">
-        <v>2883</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>338</v>
+      </c>
+      <c r="H37">
+        <v>263</v>
+      </c>
+      <c r="I37">
+        <v>333</v>
+      </c>
+      <c r="J37">
+        <v>239</v>
+      </c>
+      <c r="K37">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>2126</v>
       </c>
@@ -1271,10 +1727,22 @@
         <v>1186</v>
       </c>
       <c r="G38">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>780</v>
+      </c>
+      <c r="H38">
+        <v>939</v>
+      </c>
+      <c r="I38">
+        <v>761</v>
+      </c>
+      <c r="J38">
+        <v>804</v>
+      </c>
+      <c r="K38">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>2647</v>
       </c>
@@ -1294,10 +1762,22 @@
         <v>899</v>
       </c>
       <c r="G39">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>880</v>
+      </c>
+      <c r="H39">
+        <v>1150</v>
+      </c>
+      <c r="I39">
+        <v>627</v>
+      </c>
+      <c r="J39">
+        <v>649</v>
+      </c>
+      <c r="K39">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>2560</v>
       </c>
@@ -1317,10 +1797,22 @@
         <v>676</v>
       </c>
       <c r="G40">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>485</v>
+      </c>
+      <c r="H40">
+        <v>448</v>
+      </c>
+      <c r="I40">
+        <v>365</v>
+      </c>
+      <c r="J40">
+        <v>593</v>
+      </c>
+      <c r="K40">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>3176</v>
       </c>
@@ -1340,10 +1832,22 @@
         <v>1246</v>
       </c>
       <c r="G41">
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>872</v>
+      </c>
+      <c r="H41">
+        <v>713</v>
+      </c>
+      <c r="I41">
+        <v>782</v>
+      </c>
+      <c r="J41">
+        <v>918</v>
+      </c>
+      <c r="K41">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>3019</v>
       </c>
@@ -1363,10 +1867,22 @@
         <v>1916</v>
       </c>
       <c r="G42">
-        <v>3514</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>525</v>
+      </c>
+      <c r="H42">
+        <v>671</v>
+      </c>
+      <c r="I42">
+        <v>826</v>
+      </c>
+      <c r="J42">
+        <v>586</v>
+      </c>
+      <c r="K42">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>1601</v>
       </c>
@@ -1386,10 +1902,22 @@
         <v>361</v>
       </c>
       <c r="G43">
-        <v>2789</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H43">
+        <v>319</v>
+      </c>
+      <c r="I43">
+        <v>241</v>
+      </c>
+      <c r="J43">
+        <v>276</v>
+      </c>
+      <c r="K43">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>3128</v>
       </c>
@@ -1409,10 +1937,22 @@
         <v>982</v>
       </c>
       <c r="G44">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>243</v>
+      </c>
+      <c r="H44">
+        <v>415</v>
+      </c>
+      <c r="I44">
+        <v>492</v>
+      </c>
+      <c r="J44">
+        <v>378</v>
+      </c>
+      <c r="K44">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>2600</v>
       </c>
@@ -1432,10 +1972,22 @@
         <v>1184</v>
       </c>
       <c r="G45">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>737</v>
+      </c>
+      <c r="H45">
+        <v>445</v>
+      </c>
+      <c r="I45">
+        <v>575</v>
+      </c>
+      <c r="J45">
+        <v>750</v>
+      </c>
+      <c r="K45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>2101</v>
       </c>
@@ -1455,10 +2007,22 @@
         <v>775</v>
       </c>
       <c r="G46">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>193</v>
+      </c>
+      <c r="H46">
+        <v>595</v>
+      </c>
+      <c r="I46">
+        <v>282</v>
+      </c>
+      <c r="J46">
+        <v>299</v>
+      </c>
+      <c r="K46">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>2960</v>
       </c>
@@ -1478,10 +2042,22 @@
         <v>1630</v>
       </c>
       <c r="G47">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>731</v>
+      </c>
+      <c r="H47">
+        <v>799</v>
+      </c>
+      <c r="I47">
+        <v>604</v>
+      </c>
+      <c r="J47">
+        <v>970</v>
+      </c>
+      <c r="K47">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>3534</v>
       </c>
@@ -1501,10 +2077,22 @@
         <v>1452</v>
       </c>
       <c r="G48">
-        <v>3928</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>1118</v>
+      </c>
+      <c r="H48">
+        <v>1146</v>
+      </c>
+      <c r="I48">
+        <v>1360</v>
+      </c>
+      <c r="J48">
+        <v>1155</v>
+      </c>
+      <c r="K48">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>1896</v>
       </c>
@@ -1524,10 +2112,22 @@
         <v>754</v>
       </c>
       <c r="G49">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>611</v>
+      </c>
+      <c r="H49">
+        <v>824</v>
+      </c>
+      <c r="I49">
+        <v>526</v>
+      </c>
+      <c r="J49">
+        <v>791</v>
+      </c>
+      <c r="K49">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>2920</v>
       </c>
@@ -1547,10 +2147,22 @@
         <v>815</v>
       </c>
       <c r="G50">
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>419</v>
+      </c>
+      <c r="H50">
+        <v>379</v>
+      </c>
+      <c r="I50">
+        <v>327</v>
+      </c>
+      <c r="J50">
+        <v>405</v>
+      </c>
+      <c r="K50">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>840</v>
       </c>
@@ -1570,10 +2182,22 @@
         <v>306</v>
       </c>
       <c r="G51">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H51">
+        <v>45</v>
+      </c>
+      <c r="I51">
+        <v>48</v>
+      </c>
+      <c r="J51">
+        <v>21</v>
+      </c>
+      <c r="K51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>1249</v>
       </c>
@@ -1593,10 +2217,22 @@
         <v>845</v>
       </c>
       <c r="G52">
-        <v>3249</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>402</v>
+      </c>
+      <c r="H52">
+        <v>452</v>
+      </c>
+      <c r="I52">
+        <v>458</v>
+      </c>
+      <c r="J52">
+        <v>824</v>
+      </c>
+      <c r="K52">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>1848</v>
       </c>
@@ -1616,10 +2252,22 @@
         <v>988</v>
       </c>
       <c r="G53">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>446</v>
+      </c>
+      <c r="H53">
+        <v>447</v>
+      </c>
+      <c r="I53">
+        <v>490</v>
+      </c>
+      <c r="J53">
+        <v>395</v>
+      </c>
+      <c r="K53">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>2258</v>
       </c>
@@ -1639,10 +2287,22 @@
         <v>706</v>
       </c>
       <c r="G54">
-        <v>3505</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>524</v>
+      </c>
+      <c r="H54">
+        <v>575</v>
+      </c>
+      <c r="I54">
+        <v>582</v>
+      </c>
+      <c r="J54">
+        <v>606</v>
+      </c>
+      <c r="K54">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>1742</v>
       </c>
@@ -1662,10 +2322,22 @@
         <v>991</v>
       </c>
       <c r="G55">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>410</v>
+      </c>
+      <c r="H55">
+        <v>611</v>
+      </c>
+      <c r="I55">
+        <v>291</v>
+      </c>
+      <c r="J55">
+        <v>365</v>
+      </c>
+      <c r="K55">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>2416</v>
       </c>
@@ -1685,10 +2357,22 @@
         <v>1265</v>
       </c>
       <c r="G56">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>424</v>
+      </c>
+      <c r="H56">
+        <v>606</v>
+      </c>
+      <c r="I56">
+        <v>431</v>
+      </c>
+      <c r="J56">
+        <v>899</v>
+      </c>
+      <c r="K56">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>1006</v>
       </c>
@@ -1708,10 +2392,22 @@
         <v>516</v>
       </c>
       <c r="G57">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1051</v>
+      </c>
+      <c r="H57">
+        <v>762</v>
+      </c>
+      <c r="I57">
+        <v>892</v>
+      </c>
+      <c r="J57">
+        <v>524</v>
+      </c>
+      <c r="K57">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>1611</v>
       </c>
@@ -1731,10 +2427,22 @@
         <v>503</v>
       </c>
       <c r="G58">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>1032</v>
+      </c>
+      <c r="H58">
+        <v>743</v>
+      </c>
+      <c r="I58">
+        <v>834</v>
+      </c>
+      <c r="J58">
+        <v>913</v>
+      </c>
+      <c r="K58">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>2565</v>
       </c>
@@ -1754,10 +2462,22 @@
         <v>821</v>
       </c>
       <c r="G59">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>340</v>
+      </c>
+      <c r="H59">
+        <v>401</v>
+      </c>
+      <c r="I59">
+        <v>342</v>
+      </c>
+      <c r="J59">
+        <v>204</v>
+      </c>
+      <c r="K59">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>3968</v>
       </c>
@@ -1777,10 +2497,22 @@
         <v>1385</v>
       </c>
       <c r="G60">
-        <v>2933</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>1453</v>
+      </c>
+      <c r="H60">
+        <v>1009</v>
+      </c>
+      <c r="I60">
+        <v>741</v>
+      </c>
+      <c r="J60">
+        <v>1446</v>
+      </c>
+      <c r="K60">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>2057</v>
       </c>
@@ -1800,10 +2532,22 @@
         <v>691</v>
       </c>
       <c r="G61">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="H61">
+        <v>193</v>
+      </c>
+      <c r="I61">
+        <v>290</v>
+      </c>
+      <c r="J61">
+        <v>408</v>
+      </c>
+      <c r="K61">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>2296</v>
       </c>
@@ -1823,10 +2567,22 @@
         <v>1426</v>
       </c>
       <c r="G62">
-        <v>2744</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>833</v>
+      </c>
+      <c r="H62">
+        <v>543</v>
+      </c>
+      <c r="I62">
+        <v>568</v>
+      </c>
+      <c r="J62">
+        <v>547</v>
+      </c>
+      <c r="K62">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>3124</v>
       </c>
@@ -1846,10 +2602,22 @@
         <v>2062</v>
       </c>
       <c r="G63">
-        <v>4326</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>1370</v>
+      </c>
+      <c r="H63">
+        <v>1411</v>
+      </c>
+      <c r="I63">
+        <v>1554</v>
+      </c>
+      <c r="J63">
+        <v>1173</v>
+      </c>
+      <c r="K63">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>1503</v>
       </c>
@@ -1869,10 +2637,22 @@
         <v>501</v>
       </c>
       <c r="G64">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="H64">
+        <v>564</v>
+      </c>
+      <c r="I64">
+        <v>412</v>
+      </c>
+      <c r="J64">
+        <v>469</v>
+      </c>
+      <c r="K64">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>2317</v>
       </c>
@@ -1892,10 +2672,22 @@
         <v>1075</v>
       </c>
       <c r="G65">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>315</v>
+      </c>
+      <c r="H65">
+        <v>358</v>
+      </c>
+      <c r="I65">
+        <v>520</v>
+      </c>
+      <c r="J65">
+        <v>287</v>
+      </c>
+      <c r="K65">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>3951</v>
       </c>
@@ -1915,10 +2707,22 @@
         <v>2033</v>
       </c>
       <c r="G66">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>1568</v>
+      </c>
+      <c r="H66">
+        <v>1863</v>
+      </c>
+      <c r="I66">
+        <v>1546</v>
+      </c>
+      <c r="J66">
+        <v>1605</v>
+      </c>
+      <c r="K66">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>1174</v>
       </c>
@@ -1938,10 +2742,22 @@
         <v>503</v>
       </c>
       <c r="G67">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H67">
+        <v>147</v>
+      </c>
+      <c r="I67">
+        <v>329</v>
+      </c>
+      <c r="J67">
+        <v>380</v>
+      </c>
+      <c r="K67">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>1394</v>
       </c>
@@ -1961,10 +2777,22 @@
         <v>770</v>
       </c>
       <c r="G68">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>747</v>
+      </c>
+      <c r="H68">
+        <v>562</v>
+      </c>
+      <c r="I68">
+        <v>624</v>
+      </c>
+      <c r="J68">
+        <v>540</v>
+      </c>
+      <c r="K68">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>3519</v>
       </c>
@@ -1984,10 +2812,22 @@
         <v>1648</v>
       </c>
       <c r="G69">
-        <v>3685</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>975</v>
+      </c>
+      <c r="H69">
+        <v>1193</v>
+      </c>
+      <c r="I69">
+        <v>1234</v>
+      </c>
+      <c r="J69">
+        <v>1337</v>
+      </c>
+      <c r="K69">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>3225</v>
       </c>
@@ -2007,10 +2847,22 @@
         <v>1935</v>
       </c>
       <c r="G70">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>1403</v>
+      </c>
+      <c r="H70">
+        <v>1377</v>
+      </c>
+      <c r="I70">
+        <v>1123</v>
+      </c>
+      <c r="J70">
+        <v>1205</v>
+      </c>
+      <c r="K70">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>1945</v>
       </c>
@@ -2030,10 +2882,22 @@
         <v>430</v>
       </c>
       <c r="G71">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>361</v>
+      </c>
+      <c r="H71">
+        <v>686</v>
+      </c>
+      <c r="I71">
+        <v>405</v>
+      </c>
+      <c r="J71">
+        <v>317</v>
+      </c>
+      <c r="K71">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>2646</v>
       </c>
@@ -2053,10 +2917,22 @@
         <v>1125</v>
       </c>
       <c r="G72">
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>166</v>
+      </c>
+      <c r="H72">
+        <v>330</v>
+      </c>
+      <c r="I72">
+        <v>269</v>
+      </c>
+      <c r="J72">
+        <v>385</v>
+      </c>
+      <c r="K72">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>1377</v>
       </c>
@@ -2076,10 +2952,22 @@
         <v>688</v>
       </c>
       <c r="G73">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>450</v>
+      </c>
+      <c r="H73">
+        <v>506</v>
+      </c>
+      <c r="I73">
+        <v>603</v>
+      </c>
+      <c r="J73">
+        <v>195</v>
+      </c>
+      <c r="K73">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>4127</v>
       </c>
@@ -2099,10 +2987,22 @@
         <v>2261</v>
       </c>
       <c r="G74">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>1380</v>
+      </c>
+      <c r="H74">
+        <v>1669</v>
+      </c>
+      <c r="I74">
+        <v>1133</v>
+      </c>
+      <c r="J74">
+        <v>1648</v>
+      </c>
+      <c r="K74">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>1626</v>
       </c>
@@ -2122,10 +3022,22 @@
         <v>954</v>
       </c>
       <c r="G75">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="H75">
+        <v>47</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>215</v>
+      </c>
+      <c r="K75">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>2162</v>
       </c>
@@ -2145,10 +3057,22 @@
         <v>925</v>
       </c>
       <c r="G76">
-        <v>4237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>581</v>
+      </c>
+      <c r="H76">
+        <v>796</v>
+      </c>
+      <c r="I76">
+        <v>606</v>
+      </c>
+      <c r="J76">
+        <v>779</v>
+      </c>
+      <c r="K76">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>2945</v>
       </c>
@@ -2168,10 +3092,22 @@
         <v>670</v>
       </c>
       <c r="G77">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>510</v>
+      </c>
+      <c r="H77">
+        <v>796</v>
+      </c>
+      <c r="I77">
+        <v>490</v>
+      </c>
+      <c r="J77">
+        <v>430</v>
+      </c>
+      <c r="K77">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>1993</v>
       </c>
@@ -2191,10 +3127,22 @@
         <v>887</v>
       </c>
       <c r="G78">
-        <v>3778</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>1268</v>
+      </c>
+      <c r="H78">
+        <v>1496</v>
+      </c>
+      <c r="I78">
+        <v>1217</v>
+      </c>
+      <c r="J78">
+        <v>1079</v>
+      </c>
+      <c r="K78">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>2121</v>
       </c>
@@ -2214,10 +3162,22 @@
         <v>627</v>
       </c>
       <c r="G79">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>419</v>
+      </c>
+      <c r="H79">
+        <v>559</v>
+      </c>
+      <c r="I79">
+        <v>398</v>
+      </c>
+      <c r="J79">
+        <v>454</v>
+      </c>
+      <c r="K79">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>1774</v>
       </c>
@@ -2237,10 +3197,22 @@
         <v>837</v>
       </c>
       <c r="G80">
-        <v>3671</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>789</v>
+      </c>
+      <c r="H80">
+        <v>773</v>
+      </c>
+      <c r="I80">
+        <v>678</v>
+      </c>
+      <c r="J80">
+        <v>602</v>
+      </c>
+      <c r="K80">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>966</v>
       </c>
@@ -2260,10 +3232,22 @@
         <v>442</v>
       </c>
       <c r="G81">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>335</v>
+      </c>
+      <c r="H81">
+        <v>424</v>
+      </c>
+      <c r="I81">
+        <v>328</v>
+      </c>
+      <c r="J81">
+        <v>337</v>
+      </c>
+      <c r="K81">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>2265</v>
       </c>
@@ -2283,10 +3267,22 @@
         <v>1185</v>
       </c>
       <c r="G82">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>811</v>
+      </c>
+      <c r="H82">
+        <v>1109</v>
+      </c>
+      <c r="I82">
+        <v>795</v>
+      </c>
+      <c r="J82">
+        <v>950</v>
+      </c>
+      <c r="K82">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>1527</v>
       </c>
@@ -2306,10 +3302,22 @@
         <v>677</v>
       </c>
       <c r="G83">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H83">
+        <v>441</v>
+      </c>
+      <c r="I83">
+        <v>199</v>
+      </c>
+      <c r="J83">
+        <v>228</v>
+      </c>
+      <c r="K83">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>1675</v>
       </c>
@@ -2329,10 +3337,22 @@
         <v>1296</v>
       </c>
       <c r="G84">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>697</v>
+      </c>
+      <c r="H84">
+        <v>693</v>
+      </c>
+      <c r="I84">
+        <v>609</v>
+      </c>
+      <c r="J84">
+        <v>683</v>
+      </c>
+      <c r="K84">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>730</v>
       </c>
@@ -2352,10 +3372,22 @@
         <v>355</v>
       </c>
       <c r="G85">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H85">
+        <v>242</v>
+      </c>
+      <c r="I85">
+        <v>26</v>
+      </c>
+      <c r="J85">
+        <v>162</v>
+      </c>
+      <c r="K85">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>2364</v>
       </c>
@@ -2375,10 +3407,22 @@
         <v>863</v>
       </c>
       <c r="G86">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>536</v>
+      </c>
+      <c r="H86">
+        <v>744</v>
+      </c>
+      <c r="I86">
+        <v>566</v>
+      </c>
+      <c r="J86">
+        <v>619</v>
+      </c>
+      <c r="K86">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>3343</v>
       </c>
@@ -2398,10 +3442,22 @@
         <v>1456</v>
       </c>
       <c r="G87">
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>528</v>
+      </c>
+      <c r="H87">
+        <v>1280</v>
+      </c>
+      <c r="I87">
+        <v>617</v>
+      </c>
+      <c r="J87">
+        <v>919</v>
+      </c>
+      <c r="K87">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>4038</v>
       </c>
@@ -2421,10 +3477,22 @@
         <v>1670</v>
       </c>
       <c r="G88">
-        <v>3805</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>1269</v>
+      </c>
+      <c r="H88">
+        <v>1706</v>
+      </c>
+      <c r="I88">
+        <v>1580</v>
+      </c>
+      <c r="J88">
+        <v>1697</v>
+      </c>
+      <c r="K88">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>3527</v>
       </c>
@@ -2444,10 +3512,22 @@
         <v>1414</v>
       </c>
       <c r="G89">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>889</v>
+      </c>
+      <c r="H89">
+        <v>1101</v>
+      </c>
+      <c r="I89">
+        <v>768</v>
+      </c>
+      <c r="J89">
+        <v>1029</v>
+      </c>
+      <c r="K89">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>512</v>
       </c>
@@ -2467,10 +3547,22 @@
         <v>305</v>
       </c>
       <c r="G90">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>836</v>
+      </c>
+      <c r="H90">
+        <v>721</v>
+      </c>
+      <c r="I90">
+        <v>760</v>
+      </c>
+      <c r="J90">
+        <v>696</v>
+      </c>
+      <c r="K90">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>3145</v>
       </c>
@@ -2490,10 +3582,22 @@
         <v>1791</v>
       </c>
       <c r="G91">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>816</v>
+      </c>
+      <c r="H91">
+        <v>721</v>
+      </c>
+      <c r="I91">
+        <v>1053</v>
+      </c>
+      <c r="J91">
+        <v>830</v>
+      </c>
+      <c r="K91">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>3060</v>
       </c>
@@ -2513,10 +3617,22 @@
         <v>2073</v>
       </c>
       <c r="G92">
-        <v>3511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>1245</v>
+      </c>
+      <c r="H92">
+        <v>1401</v>
+      </c>
+      <c r="I92">
+        <v>1460</v>
+      </c>
+      <c r="J92">
+        <v>1436</v>
+      </c>
+      <c r="K92">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>4257</v>
       </c>
@@ -2536,10 +3652,22 @@
         <v>1233</v>
       </c>
       <c r="G93">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>1115</v>
+      </c>
+      <c r="H93">
+        <v>1075</v>
+      </c>
+      <c r="I93">
+        <v>977</v>
+      </c>
+      <c r="J93">
+        <v>1210</v>
+      </c>
+      <c r="K93">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>2114</v>
       </c>
@@ -2559,10 +3687,22 @@
         <v>1070</v>
       </c>
       <c r="G94">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>197</v>
+      </c>
+      <c r="H94">
+        <v>450</v>
+      </c>
+      <c r="I94">
+        <v>297</v>
+      </c>
+      <c r="J94">
+        <v>680</v>
+      </c>
+      <c r="K94">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>832</v>
       </c>
@@ -2582,10 +3722,22 @@
         <v>203</v>
       </c>
       <c r="G95">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>290</v>
+      </c>
+      <c r="H95">
+        <v>413</v>
+      </c>
+      <c r="I95">
+        <v>298</v>
+      </c>
+      <c r="J95">
+        <v>315</v>
+      </c>
+      <c r="K95">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>4636</v>
       </c>
@@ -2605,10 +3757,22 @@
         <v>1954</v>
       </c>
       <c r="G96">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>1790</v>
+      </c>
+      <c r="H96">
+        <v>1520</v>
+      </c>
+      <c r="I96">
+        <v>1367</v>
+      </c>
+      <c r="J96">
+        <v>1353</v>
+      </c>
+      <c r="K96">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>3410</v>
       </c>
@@ -2628,10 +3792,22 @@
         <v>2186</v>
       </c>
       <c r="G97">
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>1478</v>
+      </c>
+      <c r="H97">
+        <v>1567</v>
+      </c>
+      <c r="I97">
+        <v>1627</v>
+      </c>
+      <c r="J97">
+        <v>1456</v>
+      </c>
+      <c r="K97">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>2226</v>
       </c>
@@ -2651,10 +3827,22 @@
         <v>865</v>
       </c>
       <c r="G98">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>1029</v>
+      </c>
+      <c r="H98">
+        <v>918</v>
+      </c>
+      <c r="I98">
+        <v>1148</v>
+      </c>
+      <c r="J98">
+        <v>1120</v>
+      </c>
+      <c r="K98">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>2710</v>
       </c>
@@ -2674,10 +3862,22 @@
         <v>1304</v>
       </c>
       <c r="G99">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>1784</v>
+      </c>
+      <c r="H99">
+        <v>1735</v>
+      </c>
+      <c r="I99">
+        <v>1746</v>
+      </c>
+      <c r="J99">
+        <v>1529</v>
+      </c>
+      <c r="K99">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>3048</v>
       </c>
@@ -2697,10 +3897,22 @@
         <v>1318</v>
       </c>
       <c r="G100">
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>1004</v>
+      </c>
+      <c r="H100">
+        <v>1101</v>
+      </c>
+      <c r="I100">
+        <v>844</v>
+      </c>
+      <c r="J100">
+        <v>866</v>
+      </c>
+      <c r="K100">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>2326</v>
       </c>
@@ -2720,7 +3932,19 @@
         <v>576</v>
       </c>
       <c r="G101">
-        <v>2769</v>
+        <v>192</v>
+      </c>
+      <c r="H101">
+        <v>187</v>
+      </c>
+      <c r="I101">
+        <v>339</v>
+      </c>
+      <c r="J101">
+        <v>487</v>
+      </c>
+      <c r="K101">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2730,13 +3954,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2758,8 +3982,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>420</v>
       </c>
@@ -2779,10 +4015,22 @@
         <v>209</v>
       </c>
       <c r="G2">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H2">
+        <v>118</v>
+      </c>
+      <c r="I2">
+        <v>153</v>
+      </c>
+      <c r="J2">
+        <v>111</v>
+      </c>
+      <c r="K2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>402</v>
       </c>
@@ -2802,10 +4050,22 @@
         <v>261</v>
       </c>
       <c r="G3">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H3">
+        <v>128</v>
+      </c>
+      <c r="I3">
+        <v>139</v>
+      </c>
+      <c r="J3">
+        <v>160</v>
+      </c>
+      <c r="K3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>287</v>
       </c>
@@ -2825,10 +4085,22 @@
         <v>183</v>
       </c>
       <c r="G4">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>182</v>
+      </c>
+      <c r="H4">
+        <v>184</v>
+      </c>
+      <c r="I4">
+        <v>135</v>
+      </c>
+      <c r="J4">
+        <v>140</v>
+      </c>
+      <c r="K4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>308</v>
       </c>
@@ -2848,10 +4120,22 @@
         <v>122</v>
       </c>
       <c r="G5">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="H5">
+        <v>93</v>
+      </c>
+      <c r="I5">
+        <v>115</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>345</v>
       </c>
@@ -2871,10 +4155,22 @@
         <v>158</v>
       </c>
       <c r="G6">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>177</v>
+      </c>
+      <c r="H6">
+        <v>213</v>
+      </c>
+      <c r="I6">
+        <v>192</v>
+      </c>
+      <c r="J6">
+        <v>176</v>
+      </c>
+      <c r="K6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>239</v>
       </c>
@@ -2894,10 +4190,22 @@
         <v>168</v>
       </c>
       <c r="G7">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>168</v>
+      </c>
+      <c r="H7">
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <v>107</v>
+      </c>
+      <c r="J7">
+        <v>147</v>
+      </c>
+      <c r="K7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>314</v>
       </c>
@@ -2917,10 +4225,22 @@
         <v>162</v>
       </c>
       <c r="G8">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H8">
+        <v>238</v>
+      </c>
+      <c r="I8">
+        <v>231</v>
+      </c>
+      <c r="J8">
+        <v>236</v>
+      </c>
+      <c r="K8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>334</v>
       </c>
@@ -2940,10 +4260,22 @@
         <v>95</v>
       </c>
       <c r="G9">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <v>99</v>
+      </c>
+      <c r="K9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>197</v>
       </c>
@@ -2963,10 +4295,22 @@
         <v>149</v>
       </c>
       <c r="G10">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>52</v>
+      </c>
+      <c r="J10">
+        <v>70</v>
+      </c>
+      <c r="K10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>206</v>
       </c>
@@ -2986,10 +4330,22 @@
         <v>29</v>
       </c>
       <c r="G11">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>105</v>
+      </c>
+      <c r="I11">
+        <v>59</v>
+      </c>
+      <c r="J11">
+        <v>69</v>
+      </c>
+      <c r="K11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>206</v>
       </c>
@@ -3009,10 +4365,22 @@
         <v>102</v>
       </c>
       <c r="G12">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>142</v>
+      </c>
+      <c r="H12">
+        <v>103</v>
+      </c>
+      <c r="I12">
+        <v>160</v>
+      </c>
+      <c r="J12">
+        <v>198</v>
+      </c>
+      <c r="K12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>447</v>
       </c>
@@ -3032,10 +4400,22 @@
         <v>173</v>
       </c>
       <c r="G13">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>134</v>
+      </c>
+      <c r="H13">
+        <v>165</v>
+      </c>
+      <c r="I13">
+        <v>155</v>
+      </c>
+      <c r="J13">
+        <v>140</v>
+      </c>
+      <c r="K13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>390</v>
       </c>
@@ -3055,10 +4435,22 @@
         <v>151</v>
       </c>
       <c r="G14">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="H14">
+        <v>130</v>
+      </c>
+      <c r="I14">
+        <v>115</v>
+      </c>
+      <c r="J14">
+        <v>218</v>
+      </c>
+      <c r="K14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>443</v>
       </c>
@@ -3078,10 +4470,22 @@
         <v>160</v>
       </c>
       <c r="G15">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="H15">
+        <v>129</v>
+      </c>
+      <c r="I15">
+        <v>128</v>
+      </c>
+      <c r="J15">
+        <v>146</v>
+      </c>
+      <c r="K15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>397</v>
       </c>
@@ -3101,10 +4505,22 @@
         <v>255</v>
       </c>
       <c r="G16">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>167</v>
+      </c>
+      <c r="H16">
+        <v>198</v>
+      </c>
+      <c r="I16">
+        <v>167</v>
+      </c>
+      <c r="J16">
+        <v>231</v>
+      </c>
+      <c r="K16">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>416</v>
       </c>
@@ -3124,10 +4540,22 @@
         <v>190</v>
       </c>
       <c r="G17">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>140</v>
+      </c>
+      <c r="H17">
+        <v>171</v>
+      </c>
+      <c r="I17">
+        <v>133</v>
+      </c>
+      <c r="J17">
+        <v>206</v>
+      </c>
+      <c r="K17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>354</v>
       </c>
@@ -3147,10 +4575,22 @@
         <v>120</v>
       </c>
       <c r="G18">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <v>146</v>
+      </c>
+      <c r="I18">
+        <v>148</v>
+      </c>
+      <c r="J18">
+        <v>247</v>
+      </c>
+      <c r="K18">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>174</v>
       </c>
@@ -3170,10 +4610,22 @@
         <v>177</v>
       </c>
       <c r="G19">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>89</v>
+      </c>
+      <c r="H19">
+        <v>115</v>
+      </c>
+      <c r="I19">
+        <v>121</v>
+      </c>
+      <c r="J19">
+        <v>145</v>
+      </c>
+      <c r="K19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>358</v>
       </c>
@@ -3193,10 +4645,22 @@
         <v>142</v>
       </c>
       <c r="G20">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="H20">
+        <v>74</v>
+      </c>
+      <c r="I20">
+        <v>33</v>
+      </c>
+      <c r="J20">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>527</v>
       </c>
@@ -3216,10 +4680,22 @@
         <v>213</v>
       </c>
       <c r="G21">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>200</v>
+      </c>
+      <c r="H21">
+        <v>227</v>
+      </c>
+      <c r="I21">
+        <v>253</v>
+      </c>
+      <c r="J21">
+        <v>262</v>
+      </c>
+      <c r="K21">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>233</v>
       </c>
@@ -3239,10 +4715,22 @@
         <v>164</v>
       </c>
       <c r="G22">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="H22">
+        <v>114</v>
+      </c>
+      <c r="I22">
+        <v>114</v>
+      </c>
+      <c r="J22">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>252</v>
       </c>
@@ -3262,10 +4750,22 @@
         <v>113</v>
       </c>
       <c r="G23">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>56</v>
+      </c>
+      <c r="H23">
+        <v>56</v>
+      </c>
+      <c r="I23">
+        <v>56</v>
+      </c>
+      <c r="J23">
+        <v>56</v>
+      </c>
+      <c r="K23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>375</v>
       </c>
@@ -3285,10 +4785,22 @@
         <v>135</v>
       </c>
       <c r="G24">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>135</v>
+      </c>
+      <c r="H24">
+        <v>123</v>
+      </c>
+      <c r="I24">
+        <v>83</v>
+      </c>
+      <c r="J24">
+        <v>142</v>
+      </c>
+      <c r="K24">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>403</v>
       </c>
@@ -3308,10 +4820,22 @@
         <v>222</v>
       </c>
       <c r="G25">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="H25">
+        <v>88</v>
+      </c>
+      <c r="I25">
+        <v>132</v>
+      </c>
+      <c r="J25">
+        <v>175</v>
+      </c>
+      <c r="K25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>388</v>
       </c>
@@ -3331,10 +4855,22 @@
         <v>193</v>
       </c>
       <c r="G26">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>196</v>
+      </c>
+      <c r="H26">
+        <v>196</v>
+      </c>
+      <c r="I26">
+        <v>179</v>
+      </c>
+      <c r="J26">
+        <v>265</v>
+      </c>
+      <c r="K26">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>299</v>
       </c>
@@ -3354,10 +4890,22 @@
         <v>98</v>
       </c>
       <c r="G27">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>154</v>
+      </c>
+      <c r="H27">
+        <v>157</v>
+      </c>
+      <c r="I27">
+        <v>155</v>
+      </c>
+      <c r="J27">
+        <v>157</v>
+      </c>
+      <c r="K27">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>164</v>
       </c>
@@ -3377,10 +4925,22 @@
         <v>191</v>
       </c>
       <c r="G28">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H28">
+        <v>113</v>
+      </c>
+      <c r="I28">
+        <v>158</v>
+      </c>
+      <c r="J28">
+        <v>110</v>
+      </c>
+      <c r="K28">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>252</v>
       </c>
@@ -3400,10 +4960,22 @@
         <v>138</v>
       </c>
       <c r="G29">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H29">
+        <v>120</v>
+      </c>
+      <c r="I29">
+        <v>160</v>
+      </c>
+      <c r="J29">
+        <v>150</v>
+      </c>
+      <c r="K29">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>325</v>
       </c>
@@ -3423,10 +4995,22 @@
         <v>257</v>
       </c>
       <c r="G30">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H30">
+        <v>262</v>
+      </c>
+      <c r="I30">
+        <v>142</v>
+      </c>
+      <c r="J30">
+        <v>290</v>
+      </c>
+      <c r="K30">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>361</v>
       </c>
@@ -3446,10 +5030,22 @@
         <v>244</v>
       </c>
       <c r="G31">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>174</v>
+      </c>
+      <c r="H31">
+        <v>200</v>
+      </c>
+      <c r="I31">
+        <v>203</v>
+      </c>
+      <c r="J31">
+        <v>185</v>
+      </c>
+      <c r="K31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>452</v>
       </c>
@@ -3469,10 +5065,22 @@
         <v>258</v>
       </c>
       <c r="G32">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>185</v>
+      </c>
+      <c r="H32">
+        <v>167</v>
+      </c>
+      <c r="I32">
+        <v>226</v>
+      </c>
+      <c r="J32">
+        <v>262</v>
+      </c>
+      <c r="K32">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>209</v>
       </c>
@@ -3492,10 +5100,22 @@
         <v>104</v>
       </c>
       <c r="G33">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>132</v>
+      </c>
+      <c r="H33">
+        <v>125</v>
+      </c>
+      <c r="I33">
+        <v>132</v>
+      </c>
+      <c r="J33">
+        <v>132</v>
+      </c>
+      <c r="K33">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>346</v>
       </c>
@@ -3515,10 +5135,22 @@
         <v>94</v>
       </c>
       <c r="G34">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>121</v>
+      </c>
+      <c r="H34">
+        <v>124</v>
+      </c>
+      <c r="I34">
+        <v>121</v>
+      </c>
+      <c r="J34">
+        <v>135</v>
+      </c>
+      <c r="K34">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>335</v>
       </c>
@@ -3538,10 +5170,22 @@
         <v>160</v>
       </c>
       <c r="G35">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="H35">
+        <v>147</v>
+      </c>
+      <c r="I35">
+        <v>96</v>
+      </c>
+      <c r="J35">
+        <v>130</v>
+      </c>
+      <c r="K35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>203</v>
       </c>
@@ -3561,10 +5205,22 @@
         <v>105</v>
       </c>
       <c r="G36">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H36">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>17</v>
+      </c>
+      <c r="K36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>371</v>
       </c>
@@ -3584,10 +5240,22 @@
         <v>112</v>
       </c>
       <c r="G37">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H37">
+        <v>104</v>
+      </c>
+      <c r="I37">
+        <v>140</v>
+      </c>
+      <c r="J37">
+        <v>106</v>
+      </c>
+      <c r="K37">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>393</v>
       </c>
@@ -3607,10 +5275,22 @@
         <v>207</v>
       </c>
       <c r="G38">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>119</v>
+      </c>
+      <c r="H38">
+        <v>202</v>
+      </c>
+      <c r="I38">
+        <v>121</v>
+      </c>
+      <c r="J38">
+        <v>145</v>
+      </c>
+      <c r="K38">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>370</v>
       </c>
@@ -3630,10 +5310,22 @@
         <v>136</v>
       </c>
       <c r="G39">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="H39">
+        <v>173</v>
+      </c>
+      <c r="I39">
+        <v>125</v>
+      </c>
+      <c r="J39">
+        <v>138</v>
+      </c>
+      <c r="K39">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>299</v>
       </c>
@@ -3653,10 +5345,22 @@
         <v>155</v>
       </c>
       <c r="G40">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>123</v>
+      </c>
+      <c r="H40">
+        <v>123</v>
+      </c>
+      <c r="I40">
+        <v>123</v>
+      </c>
+      <c r="J40">
+        <v>137</v>
+      </c>
+      <c r="K40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>472</v>
       </c>
@@ -3676,10 +5380,22 @@
         <v>197</v>
       </c>
       <c r="G41">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>178</v>
+      </c>
+      <c r="H41">
+        <v>92</v>
+      </c>
+      <c r="I41">
+        <v>187</v>
+      </c>
+      <c r="J41">
+        <v>188</v>
+      </c>
+      <c r="K41">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>373</v>
       </c>
@@ -3699,10 +5415,22 @@
         <v>334</v>
       </c>
       <c r="G42">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>116</v>
+      </c>
+      <c r="H42">
+        <v>124</v>
+      </c>
+      <c r="I42">
+        <v>159</v>
+      </c>
+      <c r="J42">
+        <v>91</v>
+      </c>
+      <c r="K42">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>327</v>
       </c>
@@ -3722,10 +5450,22 @@
         <v>80</v>
       </c>
       <c r="G43">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H43">
+        <v>83</v>
+      </c>
+      <c r="I43">
+        <v>74</v>
+      </c>
+      <c r="J43">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>386</v>
       </c>
@@ -3745,10 +5485,22 @@
         <v>181</v>
       </c>
       <c r="G44">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H44">
+        <v>134</v>
+      </c>
+      <c r="I44">
+        <v>99</v>
+      </c>
+      <c r="J44">
+        <v>139</v>
+      </c>
+      <c r="K44">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>409</v>
       </c>
@@ -3768,10 +5520,22 @@
         <v>229</v>
       </c>
       <c r="G45">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>132</v>
+      </c>
+      <c r="H45">
+        <v>97</v>
+      </c>
+      <c r="I45">
+        <v>119</v>
+      </c>
+      <c r="J45">
+        <v>159</v>
+      </c>
+      <c r="K45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>390</v>
       </c>
@@ -3791,10 +5555,22 @@
         <v>130</v>
       </c>
       <c r="G46">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H46">
+        <v>79</v>
+      </c>
+      <c r="I46">
+        <v>96</v>
+      </c>
+      <c r="J46">
+        <v>56</v>
+      </c>
+      <c r="K46">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>357</v>
       </c>
@@ -3814,10 +5590,22 @@
         <v>265</v>
       </c>
       <c r="G47">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>82</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>86</v>
+      </c>
+      <c r="J47">
+        <v>144</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>351</v>
       </c>
@@ -3837,10 +5625,22 @@
         <v>196</v>
       </c>
       <c r="G48">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>135</v>
+      </c>
+      <c r="H48">
+        <v>165</v>
+      </c>
+      <c r="I48">
+        <v>132</v>
+      </c>
+      <c r="J48">
+        <v>182</v>
+      </c>
+      <c r="K48">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>255</v>
       </c>
@@ -3860,10 +5660,22 @@
         <v>150</v>
       </c>
       <c r="G49">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>181</v>
+      </c>
+      <c r="H49">
+        <v>147</v>
+      </c>
+      <c r="I49">
+        <v>127</v>
+      </c>
+      <c r="J49">
+        <v>129</v>
+      </c>
+      <c r="K49">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>511</v>
       </c>
@@ -3883,10 +5695,22 @@
         <v>199</v>
       </c>
       <c r="G50">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H50">
+        <v>84</v>
+      </c>
+      <c r="I50">
+        <v>59</v>
+      </c>
+      <c r="J50">
+        <v>107</v>
+      </c>
+      <c r="K50">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>243</v>
       </c>
@@ -3906,10 +5730,22 @@
         <v>84</v>
       </c>
       <c r="G51">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H51">
+        <v>25</v>
+      </c>
+      <c r="I51">
+        <v>34</v>
+      </c>
+      <c r="J51">
+        <v>21</v>
+      </c>
+      <c r="K51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>233</v>
       </c>
@@ -3929,10 +5765,22 @@
         <v>218</v>
       </c>
       <c r="G52">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H52">
+        <v>83</v>
+      </c>
+      <c r="I52">
+        <v>95</v>
+      </c>
+      <c r="J52">
+        <v>171</v>
+      </c>
+      <c r="K52">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>354</v>
       </c>
@@ -3952,10 +5800,22 @@
         <v>198</v>
       </c>
       <c r="G53">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="H53">
+        <v>159</v>
+      </c>
+      <c r="I53">
+        <v>129</v>
+      </c>
+      <c r="J53">
+        <v>101</v>
+      </c>
+      <c r="K53">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>319</v>
       </c>
@@ -3975,10 +5835,22 @@
         <v>154</v>
       </c>
       <c r="G54">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H54">
+        <v>148</v>
+      </c>
+      <c r="I54">
+        <v>148</v>
+      </c>
+      <c r="J54">
+        <v>145</v>
+      </c>
+      <c r="K54">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>365</v>
       </c>
@@ -3998,10 +5870,22 @@
         <v>254</v>
       </c>
       <c r="G55">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H55">
+        <v>98</v>
+      </c>
+      <c r="I55">
+        <v>86</v>
+      </c>
+      <c r="J55">
+        <v>123</v>
+      </c>
+      <c r="K55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>286</v>
       </c>
@@ -4021,10 +5905,22 @@
         <v>196</v>
       </c>
       <c r="G56">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>169</v>
+      </c>
+      <c r="H56">
+        <v>123</v>
+      </c>
+      <c r="I56">
+        <v>169</v>
+      </c>
+      <c r="J56">
+        <v>141</v>
+      </c>
+      <c r="K56">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>186</v>
       </c>
@@ -4044,10 +5940,22 @@
         <v>110</v>
       </c>
       <c r="G57">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>181</v>
+      </c>
+      <c r="H57">
+        <v>190</v>
+      </c>
+      <c r="I57">
+        <v>198</v>
+      </c>
+      <c r="J57">
+        <v>114</v>
+      </c>
+      <c r="K57">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>380</v>
       </c>
@@ -4067,10 +5975,22 @@
         <v>116</v>
       </c>
       <c r="G58">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>134</v>
+      </c>
+      <c r="H58">
+        <v>128</v>
+      </c>
+      <c r="I58">
+        <v>155</v>
+      </c>
+      <c r="J58">
+        <v>120</v>
+      </c>
+      <c r="K58">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>350</v>
       </c>
@@ -4090,10 +6010,22 @@
         <v>254</v>
       </c>
       <c r="G59">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H59">
+        <v>98</v>
+      </c>
+      <c r="I59">
+        <v>99</v>
+      </c>
+      <c r="J59">
+        <v>70</v>
+      </c>
+      <c r="K59">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>409</v>
       </c>
@@ -4113,10 +6045,22 @@
         <v>224</v>
       </c>
       <c r="G60">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>162</v>
+      </c>
+      <c r="H60">
+        <v>125</v>
+      </c>
+      <c r="I60">
+        <v>79</v>
+      </c>
+      <c r="J60">
+        <v>225</v>
+      </c>
+      <c r="K60">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>501</v>
       </c>
@@ -4136,10 +6080,22 @@
         <v>169</v>
       </c>
       <c r="G61">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="H61">
+        <v>121</v>
+      </c>
+      <c r="I61">
+        <v>108</v>
+      </c>
+      <c r="J61">
+        <v>113</v>
+      </c>
+      <c r="K61">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>630</v>
       </c>
@@ -4159,10 +6115,22 @@
         <v>254</v>
       </c>
       <c r="G62">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>174</v>
+      </c>
+      <c r="H62">
+        <v>172</v>
+      </c>
+      <c r="I62">
+        <v>172</v>
+      </c>
+      <c r="J62">
+        <v>146</v>
+      </c>
+      <c r="K62">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>501</v>
       </c>
@@ -4182,10 +6150,22 @@
         <v>199</v>
       </c>
       <c r="G63">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="H63">
+        <v>179</v>
+      </c>
+      <c r="I63">
+        <v>174</v>
+      </c>
+      <c r="J63">
+        <v>174</v>
+      </c>
+      <c r="K63">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>308</v>
       </c>
@@ -4205,10 +6185,22 @@
         <v>130</v>
       </c>
       <c r="G64">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H64">
+        <v>132</v>
+      </c>
+      <c r="I64">
+        <v>82</v>
+      </c>
+      <c r="J64">
+        <v>98</v>
+      </c>
+      <c r="K64">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>327</v>
       </c>
@@ -4228,10 +6220,22 @@
         <v>161</v>
       </c>
       <c r="G65">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>90</v>
+      </c>
+      <c r="H65">
+        <v>91</v>
+      </c>
+      <c r="I65">
+        <v>116</v>
+      </c>
+      <c r="J65">
+        <v>101</v>
+      </c>
+      <c r="K65">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>535</v>
       </c>
@@ -4251,10 +6255,22 @@
         <v>289</v>
       </c>
       <c r="G66">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>225</v>
+      </c>
+      <c r="H66">
+        <v>253</v>
+      </c>
+      <c r="I66">
+        <v>167</v>
+      </c>
+      <c r="J66">
+        <v>215</v>
+      </c>
+      <c r="K66">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>376</v>
       </c>
@@ -4274,10 +6290,22 @@
         <v>137</v>
       </c>
       <c r="G67">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H67">
+        <v>53</v>
+      </c>
+      <c r="I67">
+        <v>86</v>
+      </c>
+      <c r="J67">
+        <v>215</v>
+      </c>
+      <c r="K67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>267</v>
       </c>
@@ -4297,10 +6325,22 @@
         <v>147</v>
       </c>
       <c r="G68">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>119</v>
+      </c>
+      <c r="H68">
+        <v>115</v>
+      </c>
+      <c r="I68">
+        <v>87</v>
+      </c>
+      <c r="J68">
+        <v>168</v>
+      </c>
+      <c r="K68">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>415</v>
       </c>
@@ -4320,10 +6360,22 @@
         <v>237</v>
       </c>
       <c r="G69">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>125</v>
+      </c>
+      <c r="H69">
+        <v>140</v>
+      </c>
+      <c r="I69">
+        <v>165</v>
+      </c>
+      <c r="J69">
+        <v>191</v>
+      </c>
+      <c r="K69">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>333</v>
       </c>
@@ -4343,10 +6395,22 @@
         <v>299</v>
       </c>
       <c r="G70">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>190</v>
+      </c>
+      <c r="H70">
+        <v>148</v>
+      </c>
+      <c r="I70">
+        <v>145</v>
+      </c>
+      <c r="J70">
+        <v>195</v>
+      </c>
+      <c r="K70">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>256</v>
       </c>
@@ -4366,10 +6430,22 @@
         <v>111</v>
       </c>
       <c r="G71">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>123</v>
+      </c>
+      <c r="H71">
+        <v>119</v>
+      </c>
+      <c r="I71">
+        <v>113</v>
+      </c>
+      <c r="J71">
+        <v>96</v>
+      </c>
+      <c r="K71">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>298</v>
       </c>
@@ -4389,10 +6465,22 @@
         <v>206</v>
       </c>
       <c r="G72">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>82</v>
+      </c>
+      <c r="H72">
+        <v>60</v>
+      </c>
+      <c r="I72">
+        <v>72</v>
+      </c>
+      <c r="J72">
+        <v>141</v>
+      </c>
+      <c r="K72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>264</v>
       </c>
@@ -4412,10 +6500,22 @@
         <v>118</v>
       </c>
       <c r="G73">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>87</v>
+      </c>
+      <c r="H73">
+        <v>117</v>
+      </c>
+      <c r="I73">
+        <v>127</v>
+      </c>
+      <c r="J73">
+        <v>95</v>
+      </c>
+      <c r="K73">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>376</v>
       </c>
@@ -4435,10 +6535,22 @@
         <v>234</v>
       </c>
       <c r="G74">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>176</v>
+      </c>
+      <c r="H74">
+        <v>217</v>
+      </c>
+      <c r="I74">
+        <v>168</v>
+      </c>
+      <c r="J74">
+        <v>169</v>
+      </c>
+      <c r="K74">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>416</v>
       </c>
@@ -4458,10 +6570,22 @@
         <v>167</v>
       </c>
       <c r="G75">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H75">
+        <v>22</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>88</v>
+      </c>
+      <c r="K75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>349</v>
       </c>
@@ -4481,10 +6605,22 @@
         <v>164</v>
       </c>
       <c r="G76">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="H76">
+        <v>149</v>
+      </c>
+      <c r="I76">
+        <v>126</v>
+      </c>
+      <c r="J76">
+        <v>152</v>
+      </c>
+      <c r="K76">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>389</v>
       </c>
@@ -4504,10 +6640,22 @@
         <v>149</v>
       </c>
       <c r="G77">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="H77">
+        <v>120</v>
+      </c>
+      <c r="I77">
+        <v>80</v>
+      </c>
+      <c r="J77">
+        <v>126</v>
+      </c>
+      <c r="K77">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>310</v>
       </c>
@@ -4527,10 +6675,22 @@
         <v>162</v>
       </c>
       <c r="G78">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>181</v>
+      </c>
+      <c r="H78">
+        <v>234</v>
+      </c>
+      <c r="I78">
+        <v>176</v>
+      </c>
+      <c r="J78">
+        <v>266</v>
+      </c>
+      <c r="K78">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>361</v>
       </c>
@@ -4550,10 +6710,22 @@
         <v>172</v>
       </c>
       <c r="G79">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="H79">
+        <v>159</v>
+      </c>
+      <c r="I79">
+        <v>135</v>
+      </c>
+      <c r="J79">
+        <v>107</v>
+      </c>
+      <c r="K79">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>234</v>
       </c>
@@ -4573,10 +6745,22 @@
         <v>159</v>
       </c>
       <c r="G80">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="H80">
+        <v>141</v>
+      </c>
+      <c r="I80">
+        <v>136</v>
+      </c>
+      <c r="J80">
+        <v>149</v>
+      </c>
+      <c r="K80">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>319</v>
       </c>
@@ -4596,10 +6780,22 @@
         <v>143</v>
       </c>
       <c r="G81">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="H81">
+        <v>102</v>
+      </c>
+      <c r="I81">
+        <v>114</v>
+      </c>
+      <c r="J81">
+        <v>114</v>
+      </c>
+      <c r="K81">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>380</v>
       </c>
@@ -4619,10 +6815,22 @@
         <v>206</v>
       </c>
       <c r="G82">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>178</v>
+      </c>
+      <c r="H82">
+        <v>222</v>
+      </c>
+      <c r="I82">
+        <v>174</v>
+      </c>
+      <c r="J82">
+        <v>210</v>
+      </c>
+      <c r="K82">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>299</v>
       </c>
@@ -4642,10 +6850,22 @@
         <v>178</v>
       </c>
       <c r="G83">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>125</v>
+      </c>
+      <c r="H83">
+        <v>177</v>
+      </c>
+      <c r="I83">
+        <v>139</v>
+      </c>
+      <c r="J83">
+        <v>126</v>
+      </c>
+      <c r="K83">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>406</v>
       </c>
@@ -4665,10 +6885,22 @@
         <v>233</v>
       </c>
       <c r="G84">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>147</v>
+      </c>
+      <c r="H84">
+        <v>132</v>
+      </c>
+      <c r="I84">
+        <v>132</v>
+      </c>
+      <c r="J84">
+        <v>129</v>
+      </c>
+      <c r="K84">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>188</v>
       </c>
@@ -4688,10 +6920,22 @@
         <v>136</v>
       </c>
       <c r="G85">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H85">
+        <v>73</v>
+      </c>
+      <c r="I85">
+        <v>17</v>
+      </c>
+      <c r="J85">
+        <v>68</v>
+      </c>
+      <c r="K85">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>338</v>
       </c>
@@ -4711,10 +6955,22 @@
         <v>227</v>
       </c>
       <c r="G86">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>102</v>
+      </c>
+      <c r="I86">
+        <v>124</v>
+      </c>
+      <c r="J86">
+        <v>107</v>
+      </c>
+      <c r="K86">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>473</v>
       </c>
@@ -4734,10 +6990,22 @@
         <v>208</v>
       </c>
       <c r="G87">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="H87">
+        <v>132</v>
+      </c>
+      <c r="I87">
+        <v>107</v>
+      </c>
+      <c r="J87">
+        <v>125</v>
+      </c>
+      <c r="K87">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>512</v>
       </c>
@@ -4757,10 +7025,22 @@
         <v>222</v>
       </c>
       <c r="G88">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="H88">
+        <v>189</v>
+      </c>
+      <c r="I88">
+        <v>239</v>
+      </c>
+      <c r="J88">
+        <v>232</v>
+      </c>
+      <c r="K88">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>337</v>
       </c>
@@ -4780,10 +7060,22 @@
         <v>194</v>
       </c>
       <c r="G89">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="H89">
+        <v>181</v>
+      </c>
+      <c r="I89">
+        <v>103</v>
+      </c>
+      <c r="J89">
+        <v>166</v>
+      </c>
+      <c r="K89">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>189</v>
       </c>
@@ -4803,10 +7095,22 @@
         <v>79</v>
       </c>
       <c r="G90">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>147</v>
+      </c>
+      <c r="H90">
+        <v>135</v>
+      </c>
+      <c r="I90">
+        <v>184</v>
+      </c>
+      <c r="J90">
+        <v>144</v>
+      </c>
+      <c r="K90">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>394</v>
       </c>
@@ -4826,10 +7130,22 @@
         <v>239</v>
       </c>
       <c r="G91">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H91">
+        <v>147</v>
+      </c>
+      <c r="I91">
+        <v>132</v>
+      </c>
+      <c r="J91">
+        <v>102</v>
+      </c>
+      <c r="K91">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>362</v>
       </c>
@@ -4849,10 +7165,22 @@
         <v>440</v>
       </c>
       <c r="G92">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="H92">
+        <v>269</v>
+      </c>
+      <c r="I92">
+        <v>205</v>
+      </c>
+      <c r="J92">
+        <v>176</v>
+      </c>
+      <c r="K92">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>441</v>
       </c>
@@ -4872,10 +7200,22 @@
         <v>139</v>
       </c>
       <c r="G93">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>170</v>
+      </c>
+      <c r="H93">
+        <v>154</v>
+      </c>
+      <c r="I93">
+        <v>210</v>
+      </c>
+      <c r="J93">
+        <v>165</v>
+      </c>
+      <c r="K93">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>450</v>
       </c>
@@ -4895,10 +7235,22 @@
         <v>180</v>
       </c>
       <c r="G94">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H94">
+        <v>112</v>
+      </c>
+      <c r="I94">
+        <v>103</v>
+      </c>
+      <c r="J94">
+        <v>145</v>
+      </c>
+      <c r="K94">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>361</v>
       </c>
@@ -4918,10 +7270,22 @@
         <v>104</v>
       </c>
       <c r="G95">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>187</v>
+      </c>
+      <c r="H95">
+        <v>226</v>
+      </c>
+      <c r="I95">
+        <v>127</v>
+      </c>
+      <c r="J95">
+        <v>150</v>
+      </c>
+      <c r="K95">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>438</v>
       </c>
@@ -4941,10 +7305,22 @@
         <v>441</v>
       </c>
       <c r="G96">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H96">
+        <v>173</v>
+      </c>
+      <c r="I96">
+        <v>148</v>
+      </c>
+      <c r="J96">
+        <v>238</v>
+      </c>
+      <c r="K96">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>361</v>
       </c>
@@ -4964,10 +7340,22 @@
         <v>257</v>
       </c>
       <c r="G97">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>133</v>
+      </c>
+      <c r="H97">
+        <v>211</v>
+      </c>
+      <c r="I97">
+        <v>181</v>
+      </c>
+      <c r="J97">
+        <v>149</v>
+      </c>
+      <c r="K97">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>261</v>
       </c>
@@ -4987,10 +7375,22 @@
         <v>245</v>
       </c>
       <c r="G98">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>158</v>
+      </c>
+      <c r="H98">
+        <v>127</v>
+      </c>
+      <c r="I98">
+        <v>158</v>
+      </c>
+      <c r="J98">
+        <v>172</v>
+      </c>
+      <c r="K98">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>405</v>
       </c>
@@ -5010,10 +7410,22 @@
         <v>155</v>
       </c>
       <c r="G99">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>205</v>
+      </c>
+      <c r="H99">
+        <v>226</v>
+      </c>
+      <c r="I99">
+        <v>217</v>
+      </c>
+      <c r="J99">
+        <v>217</v>
+      </c>
+      <c r="K99">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>405</v>
       </c>
@@ -5033,10 +7445,22 @@
         <v>191</v>
       </c>
       <c r="G100">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="H100">
+        <v>155</v>
+      </c>
+      <c r="I100">
+        <v>131</v>
+      </c>
+      <c r="J100">
+        <v>131</v>
+      </c>
+      <c r="K100">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>312</v>
       </c>
@@ -5056,7 +7480,19 @@
         <v>129</v>
       </c>
       <c r="G101">
-        <v>609</v>
+        <v>53</v>
+      </c>
+      <c r="H101">
+        <v>48</v>
+      </c>
+      <c r="I101">
+        <v>53</v>
+      </c>
+      <c r="J101">
+        <v>116</v>
+      </c>
+      <c r="K101">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5066,13 +7502,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5094,8 +7530,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0.5714285714285714</v>
       </c>
@@ -5115,10 +7563,22 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3214285714285715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H2">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="I2">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J2">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="K2">
+        <v>0.3928571428571428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0.6785714285714286</v>
       </c>
@@ -5140,8 +7600,20 @@
       <c r="G3">
         <v>0.6785714285714286</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="I3">
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K3">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>0.4642857142857143</v>
       </c>
@@ -5161,10 +7633,22 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G4">
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H4">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I4">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J4">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="K4">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>0.2857142857142857</v>
       </c>
@@ -5184,10 +7668,22 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G5">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H5">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="I5">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="J5">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="K5">
+        <v>0.07142857142857142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>0.4642857142857143</v>
       </c>
@@ -5207,10 +7703,22 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="H6">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="I6">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J6">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K6">
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>0.5357142857142857</v>
       </c>
@@ -5232,8 +7740,20 @@
       <c r="G7">
         <v>0.3214285714285715</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I7">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="J7">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="K7">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>0.5357142857142857</v>
       </c>
@@ -5255,8 +7775,20 @@
       <c r="G8">
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I8">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>0.1785714285714286</v>
       </c>
@@ -5276,10 +7808,22 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G9">
-        <v>0.3214285714285715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H9">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="I9">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="J9">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="K9">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>0.25</v>
       </c>
@@ -5299,10 +7843,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="G10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="H10">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="I10">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="J10">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="K10">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>0.3928571428571428</v>
       </c>
@@ -5322,10 +7878,22 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G11">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H11">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="I11">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J11">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="K11">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>0.1428571428571428</v>
       </c>
@@ -5347,8 +7915,20 @@
       <c r="G12">
         <v>0.1785714285714286</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="I12">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J12">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="K12">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>0.7142857142857143</v>
       </c>
@@ -5368,10 +7948,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G13">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="H13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>0.4642857142857143</v>
       </c>
@@ -5391,10 +7983,22 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G14">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="H14">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I14">
+        <v>0.25</v>
+      </c>
+      <c r="J14">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="K14">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>0.6071428571428571</v>
       </c>
@@ -5414,10 +8018,22 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G15">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="J15">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>0.7142857142857143</v>
       </c>
@@ -5437,10 +8053,22 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G16">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="H16">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="I16">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>0.4285714285714285</v>
       </c>
@@ -5460,10 +8088,22 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G17">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H17">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I17">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="J17">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K17">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>0.5714285714285714</v>
       </c>
@@ -5485,8 +8125,20 @@
       <c r="G18">
         <v>0.6428571428571429</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="I18">
+        <v>0.75</v>
+      </c>
+      <c r="J18">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K18">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>0.3928571428571428</v>
       </c>
@@ -5506,10 +8158,22 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G19">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H19">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="J19">
+        <v>0.25</v>
+      </c>
+      <c r="K19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>0.5714285714285714</v>
       </c>
@@ -5529,10 +8193,22 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.6071428571428571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="H20">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="I20">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J20">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="K20">
+        <v>0.3571428571428572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>0.6785714285714286</v>
       </c>
@@ -5552,10 +8228,22 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="G21">
-        <v>0.6071428571428571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H21">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="I21">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J21">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="K21">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>0.3214285714285715</v>
       </c>
@@ -5575,10 +8263,22 @@
         <v>0.1071428571428571</v>
       </c>
       <c r="G22">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="H22">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="I22">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="J22">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="K22">
+        <v>0.1071428571428571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>0.2857142857142857</v>
       </c>
@@ -5598,10 +8298,22 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G23">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="H23">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="I23">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="J23">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K23">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -5621,10 +8333,22 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G24">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H24">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K24">
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>0.7142857142857143</v>
       </c>
@@ -5644,10 +8368,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G25">
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H25">
+        <v>0.75</v>
+      </c>
+      <c r="I25">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="J25">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="K25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>0.6071428571428571</v>
       </c>
@@ -5667,10 +8403,22 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="G26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H26">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I26">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J26">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="K26">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>0.4642857142857143</v>
       </c>
@@ -5690,10 +8438,22 @@
         <v>0.25</v>
       </c>
       <c r="G27">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H27">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="I27">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J27">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="K27">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>0.6785714285714286</v>
       </c>
@@ -5713,10 +8473,22 @@
         <v>0.5</v>
       </c>
       <c r="G28">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H28">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I28">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J28">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="K28">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>0.5</v>
       </c>
@@ -5736,10 +8508,22 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G29">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H29">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="I29">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J29">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="K29">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>0.5714285714285714</v>
       </c>
@@ -5759,10 +8543,22 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G30">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H30">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="I30">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J30">
         <v>0.4285714285714285</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="K30">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>0.6428571428571429</v>
       </c>
@@ -5782,10 +8578,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G31">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H31">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="I31">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J31">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="K31">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>0.6428571428571429</v>
       </c>
@@ -5805,10 +8613,22 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G32">
-        <v>0.5357142857142857</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H32">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="I32">
+        <v>0.75</v>
+      </c>
+      <c r="J32">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K32">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>0.4642857142857143</v>
       </c>
@@ -5828,10 +8648,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G33">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="J33">
+        <v>0.25</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>0.3571428571428572</v>
       </c>
@@ -5851,10 +8683,22 @@
         <v>0.25</v>
       </c>
       <c r="G34">
-        <v>0.2142857142857143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.25</v>
+      </c>
+      <c r="H34">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="I34">
+        <v>0.25</v>
+      </c>
+      <c r="J34">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="K34">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>0.5357142857142857</v>
       </c>
@@ -5874,10 +8718,22 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G35">
-        <v>0.3214285714285715</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="H35">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="I35">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J35">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="K35">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>0.3928571428571428</v>
       </c>
@@ -5897,10 +8753,22 @@
         <v>0.25</v>
       </c>
       <c r="G36">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="H36">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="I36">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="J36">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K36">
+        <v>0.3214285714285715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>0.3214285714285715</v>
       </c>
@@ -5920,10 +8788,22 @@
         <v>0.25</v>
       </c>
       <c r="G37">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H37">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="I37">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J37">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K37">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>0.5357142857142857</v>
       </c>
@@ -5943,10 +8823,22 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G38">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H38">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>0.5</v>
       </c>
@@ -5968,8 +8860,20 @@
       <c r="G39">
         <v>0.4642857142857143</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="I39">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="J39">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="K39">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>0.6428571428571429</v>
       </c>
@@ -5989,10 +8893,22 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G40">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H40">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="I40">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J40">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="K40">
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>0.6071428571428571</v>
       </c>
@@ -6012,10 +8928,22 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G41">
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="H41">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="K41">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>0.6785714285714286</v>
       </c>
@@ -6037,8 +8965,20 @@
       <c r="G42">
         <v>0.3571428571428572</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="I42">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="J42">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="K42">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>0.5714285714285714</v>
       </c>
@@ -6058,10 +8998,22 @@
         <v>0.25</v>
       </c>
       <c r="G43">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="H43">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I43">
+        <v>0.25</v>
+      </c>
+      <c r="J43">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="K43">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>0.5357142857142857</v>
       </c>
@@ -6081,10 +9033,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G44">
-        <v>0.5357142857142857</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="J44">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="K44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>0.6071428571428571</v>
       </c>
@@ -6104,10 +9068,22 @@
         <v>0.5</v>
       </c>
       <c r="G45">
-        <v>0.6071428571428571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="H45">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I45">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="J45">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="K45">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>0.5357142857142857</v>
       </c>
@@ -6127,10 +9103,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G46">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="J46">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>0.6428571428571429</v>
       </c>
@@ -6150,10 +9138,22 @@
         <v>0.5</v>
       </c>
       <c r="G47">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H47">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I47">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J47">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="K47">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>0.6071428571428571</v>
       </c>
@@ -6173,10 +9173,22 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G48">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="H48">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="I48">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J48">
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="K48">
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>0.4285714285714285</v>
       </c>
@@ -6196,10 +9208,22 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G49">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H49">
         <v>0.3571428571428572</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="J49">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="K49">
+        <v>0.3571428571428572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>0.5357142857142857</v>
       </c>
@@ -6219,10 +9243,22 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G50">
-        <v>0.5357142857142857</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H50">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="I50">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="J50">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="K50">
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>0.3214285714285715</v>
       </c>
@@ -6242,10 +9278,22 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G51">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="H51">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="I51">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="J51">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="K51">
+        <v>0.1071428571428571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>0.4642857142857143</v>
       </c>
@@ -6265,10 +9313,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G52">
+        <v>0.25</v>
+      </c>
+      <c r="H52">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I52">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="J52">
         <v>0.3928571428571428</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="K52">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>0.4285714285714285</v>
       </c>
@@ -6288,10 +9348,22 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G53">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H53">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J53">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="K53">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>0.5357142857142857</v>
       </c>
@@ -6311,10 +9383,22 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G54">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H54">
         <v>0.3571428571428572</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J54">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="K54">
+        <v>0.3571428571428572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>0.5357142857142857</v>
       </c>
@@ -6334,10 +9418,22 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G55">
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H55">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I55">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="J55">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K55">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>0.5</v>
       </c>
@@ -6357,10 +9453,22 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G56">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.25</v>
+      </c>
+      <c r="H56">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="I56">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J56">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="K56">
+        <v>0.3214285714285715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>0.4642857142857143</v>
       </c>
@@ -6380,10 +9488,22 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G57">
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="H57">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="I57">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="J57">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="K57">
+        <v>0.3214285714285715</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>0.4285714285714285</v>
       </c>
@@ -6403,10 +9523,22 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G58">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.5</v>
+      </c>
+      <c r="H58">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I58">
+        <v>0.5</v>
+      </c>
+      <c r="J58">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K58">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>0.4642857142857143</v>
       </c>
@@ -6426,10 +9558,22 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G59">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H59">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="I59">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J59">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="K59">
+        <v>0.3928571428571428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>0.8214285714285714</v>
       </c>
@@ -6449,10 +9593,22 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G60">
-        <v>0.5357142857142857</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="H60">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I60">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="J60">
+        <v>0.5</v>
+      </c>
+      <c r="K60">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>0.4642857142857143</v>
       </c>
@@ -6472,10 +9628,22 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G61">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H61">
+        <v>0.25</v>
+      </c>
+      <c r="I61">
         <v>0.3214285714285715</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="J61">
+        <v>0.25</v>
+      </c>
+      <c r="K61">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>0.5</v>
       </c>
@@ -6495,10 +9663,22 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G62">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H62">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="I62">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J62">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="K62">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>0.6071428571428571</v>
       </c>
@@ -6518,10 +9698,22 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G63">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H63">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="I63">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="J63">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="K63">
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>0.4642857142857143</v>
       </c>
@@ -6541,10 +9733,22 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G64">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="H64">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="I64">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="J64">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K64">
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>0.6428571428571429</v>
       </c>
@@ -6564,10 +9768,22 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G65">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H65">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I65">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="J65">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="K65">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>0.6785714285714286</v>
       </c>
@@ -6587,10 +9803,22 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G66">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H66">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I66">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J66">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="K66">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>0.3571428571428572</v>
       </c>
@@ -6610,10 +9838,22 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G67">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="H67">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I67">
+        <v>0.25</v>
+      </c>
+      <c r="J67">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K67">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>0.3928571428571428</v>
       </c>
@@ -6633,10 +9873,22 @@
         <v>0.5</v>
       </c>
       <c r="G68">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H68">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I68">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="J68">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K68">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>0.7142857142857143</v>
       </c>
@@ -6656,10 +9908,22 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G69">
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="H69">
+        <v>0.75</v>
+      </c>
+      <c r="I69">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J69">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K69">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>0.75</v>
       </c>
@@ -6679,10 +9943,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G70">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="H70">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I70">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="J70">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K70">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>0.6071428571428571</v>
       </c>
@@ -6704,8 +9980,20 @@
       <c r="G71">
         <v>0.3214285714285715</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I71">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="J71">
+        <v>0.25</v>
+      </c>
+      <c r="K71">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>0.6071428571428571</v>
       </c>
@@ -6725,10 +10013,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G72">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H72">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="I72">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="J72">
+        <v>0.25</v>
+      </c>
+      <c r="K72">
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>0.5</v>
       </c>
@@ -6748,10 +10048,22 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G73">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H73">
         <v>0.3928571428571428</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J73">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="K73">
+        <v>0.3928571428571428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>0.75</v>
       </c>
@@ -6771,10 +10083,22 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="G74">
-        <v>0.6071428571428571</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="H74">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I74">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="J74">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="K74">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>0.3928571428571428</v>
       </c>
@@ -6794,10 +10118,22 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G75">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H75">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="K75">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>0.5</v>
       </c>
@@ -6817,10 +10153,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G76">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H76">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="I76">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J76">
         <v>0.4285714285714285</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="K76">
+        <v>0.3928571428571428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>0.7142857142857143</v>
       </c>
@@ -6840,10 +10188,22 @@
         <v>0.5</v>
       </c>
       <c r="G77">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="H77">
+        <v>0.5</v>
+      </c>
+      <c r="I77">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="J77">
+        <v>0.25</v>
+      </c>
+      <c r="K77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>0.5714285714285714</v>
       </c>
@@ -6863,10 +10223,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G78">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.5</v>
+      </c>
+      <c r="H78">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I78">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J78">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K78">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>0.5714285714285714</v>
       </c>
@@ -6886,10 +10258,22 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G79">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="H79">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I79">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="J79">
         <v>0.3571428571428572</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="K79">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>0.3928571428571428</v>
       </c>
@@ -6909,10 +10293,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G80">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.25</v>
+      </c>
+      <c r="H80">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="I80">
+        <v>0.25</v>
+      </c>
+      <c r="J80">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="K80">
+        <v>0.3571428571428572</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>0.2142857142857143</v>
       </c>
@@ -6932,10 +10328,22 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G81">
-        <v>0.3214285714285715</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H81">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I81">
+        <v>0.25</v>
+      </c>
+      <c r="J81">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="K81">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>0.5</v>
       </c>
@@ -6955,10 +10363,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G82">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H82">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="I82">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="J82">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="K82">
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>0.3928571428571428</v>
       </c>
@@ -6978,10 +10398,22 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G83">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H83">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="I83">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J83">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K83">
+        <v>0.3214285714285715</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>0.4285714285714285</v>
       </c>
@@ -7001,10 +10433,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G84">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H84">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="I84">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J84">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="K84">
+        <v>0.3928571428571428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>0.3928571428571428</v>
       </c>
@@ -7024,10 +10468,22 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G85">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H85">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="I85">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="J85">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K85">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>0.5714285714285714</v>
       </c>
@@ -7047,10 +10503,22 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G86">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H86">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="I86">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="J86">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="K86">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>0.7142857142857143</v>
       </c>
@@ -7070,10 +10538,22 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G87">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.5</v>
+      </c>
+      <c r="H87">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="I87">
+        <v>0.5</v>
+      </c>
+      <c r="J87">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="K87">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>0.6785714285714286</v>
       </c>
@@ -7093,10 +10573,22 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G88">
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H88">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="I88">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J88">
+        <v>0.75</v>
+      </c>
+      <c r="K88">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>0.7142857142857143</v>
       </c>
@@ -7116,10 +10608,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G89">
-        <v>0.6071428571428571</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H89">
+        <v>0.75</v>
+      </c>
+      <c r="I89">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J89">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="K89">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>0.1785714285714286</v>
       </c>
@@ -7141,8 +10645,20 @@
       <c r="G90">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>0.25</v>
+      </c>
+      <c r="I90">
+        <v>0.25</v>
+      </c>
+      <c r="J90">
+        <v>0.25</v>
+      </c>
+      <c r="K90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>0.5714285714285714</v>
       </c>
@@ -7162,10 +10678,22 @@
         <v>0.5</v>
       </c>
       <c r="G91">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="H91">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I91">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J91">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K91">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>0.6071428571428571</v>
       </c>
@@ -7185,10 +10713,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G92">
-        <v>0.5357142857142857</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="H92">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="I92">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J92">
+        <v>0.5</v>
+      </c>
+      <c r="K92">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>0.75</v>
       </c>
@@ -7208,10 +10748,22 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G93">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H93">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I93">
+        <v>0.5</v>
+      </c>
+      <c r="J93">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="K93">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>0.5357142857142857</v>
       </c>
@@ -7231,10 +10783,22 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G94">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H94">
         <v>0.3928571428571428</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="I94">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="J94">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="K94">
+        <v>0.3928571428571428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>0.25</v>
       </c>
@@ -7254,10 +10818,22 @@
         <v>0.1071428571428571</v>
       </c>
       <c r="G95">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H95">
+        <v>0.25</v>
+      </c>
+      <c r="I95">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="J95">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K95">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>0.7857142857142857</v>
       </c>
@@ -7277,10 +10853,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G96">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="H96">
+        <v>0.75</v>
+      </c>
+      <c r="I96">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J96">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="K96">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>0.6071428571428571</v>
       </c>
@@ -7300,10 +10888,22 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="G97">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.75</v>
+      </c>
+      <c r="H97">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I97">
+        <v>0.75</v>
+      </c>
+      <c r="J97">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="K97">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>0.5357142857142857</v>
       </c>
@@ -7323,10 +10923,22 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G98">
-        <v>0.3928571428571428</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H98">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I98">
+        <v>0.5</v>
+      </c>
+      <c r="J98">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K98">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>0.5357142857142857</v>
       </c>
@@ -7346,10 +10958,22 @@
         <v>0.5</v>
       </c>
       <c r="G99">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H99">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I99">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J99">
         <v>0.3928571428571428</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="K99">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>0.5714285714285714</v>
       </c>
@@ -7371,8 +10995,20 @@
       <c r="G100">
         <v>0.4642857142857143</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I100">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="J100">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K100">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>0.6785714285714286</v>
       </c>
@@ -7392,7 +11028,19 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G101">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H101">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I101">
+        <v>0.5</v>
+      </c>
+      <c r="J101">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="K101">
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>
